--- a/BackTest/2019-11-02 BackTest WTC.xlsx
+++ b/BackTest/2019-11-02 BackTest WTC.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>10</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L12" t="n">
         <v>835.5</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>11</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>25</v>
+      </c>
       <c r="L13" t="n">
         <v>835.9</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>12</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>11.11111111111111</v>
+      </c>
       <c r="L14" t="n">
         <v>836</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>18</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L15" t="n">
         <v>835.5</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>23</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
       <c r="L16" t="n">
         <v>835.5</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>24</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>10</v>
+      </c>
       <c r="L17" t="n">
         <v>835.6</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>33</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>35.71428571428572</v>
+      </c>
       <c r="L18" t="n">
         <v>836.7</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>34</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>40.74074074074074</v>
+      </c>
       <c r="L19" t="n">
         <v>837.6</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>36</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>42.85714285714285</v>
+      </c>
       <c r="L20" t="n">
         <v>838.9</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>36</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>38.46153846153847</v>
+      </c>
       <c r="L21" t="n">
         <v>840.1</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>36</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>36</v>
+      </c>
       <c r="L22" t="n">
         <v>841.1</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>38</v>
       </c>
       <c r="K23" t="n">
-        <v>40.54054054054054</v>
+        <v>46.15384615384615</v>
       </c>
       <c r="L23" t="n">
         <v>842.2</v>
@@ -1466,7 +1488,7 @@
         <v>41</v>
       </c>
       <c r="K24" t="n">
-        <v>42.10526315789473</v>
+        <v>91.30434782608695</v>
       </c>
       <c r="L24" t="n">
         <v>843.7</v>
@@ -1515,7 +1537,7 @@
         <v>42</v>
       </c>
       <c r="K25" t="n">
-        <v>43.58974358974359</v>
+        <v>89.47368421052632</v>
       </c>
       <c r="L25" t="n">
         <v>845.9</v>
@@ -1564,7 +1586,7 @@
         <v>45</v>
       </c>
       <c r="K26" t="n">
-        <v>47.61904761904761</v>
+        <v>90.47619047619048</v>
       </c>
       <c r="L26" t="n">
         <v>847.9</v>
@@ -1613,7 +1635,7 @@
         <v>46</v>
       </c>
       <c r="K27" t="n">
-        <v>44.18604651162791</v>
+        <v>69.23076923076923</v>
       </c>
       <c r="L27" t="n">
         <v>849.7</v>
@@ -1662,7 +1684,7 @@
         <v>68</v>
       </c>
       <c r="K28" t="n">
-        <v>65.625</v>
+        <v>94.11764705882352</v>
       </c>
       <c r="L28" t="n">
         <v>852.8</v>
@@ -1711,7 +1733,7 @@
         <v>79</v>
       </c>
       <c r="K29" t="n">
-        <v>40.54054054054054</v>
+        <v>44.18604651162791</v>
       </c>
       <c r="L29" t="n">
         <v>854.9</v>
@@ -1760,7 +1782,7 @@
         <v>79</v>
       </c>
       <c r="K30" t="n">
-        <v>44.44444444444444</v>
+        <v>44.18604651162791</v>
       </c>
       <c r="L30" t="n">
         <v>856.8</v>
@@ -1809,7 +1831,7 @@
         <v>87</v>
       </c>
       <c r="K31" t="n">
-        <v>29.11392405063291</v>
+        <v>21.56862745098039</v>
       </c>
       <c r="L31" t="n">
         <v>857.9</v>
@@ -1860,7 +1882,7 @@
         <v>91</v>
       </c>
       <c r="K32" t="n">
-        <v>20.98765432098765</v>
+        <v>9.433962264150944</v>
       </c>
       <c r="L32" t="n">
         <v>858.6</v>
@@ -1911,7 +1933,7 @@
         <v>95</v>
       </c>
       <c r="K33" t="n">
-        <v>23.80952380952381</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L33" t="n">
         <v>859.5</v>
@@ -1962,7 +1984,7 @@
         <v>97</v>
       </c>
       <c r="K34" t="n">
-        <v>22.35294117647059</v>
+        <v>5.454545454545454</v>
       </c>
       <c r="L34" t="n">
         <v>859.9</v>
@@ -2013,7 +2035,7 @@
         <v>97</v>
       </c>
       <c r="K35" t="n">
-        <v>31.64556962025317</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>860.2</v>
@@ -2064,7 +2086,7 @@
         <v>100</v>
       </c>
       <c r="K36" t="n">
-        <v>29.87012987012987</v>
+        <v>7.407407407407407</v>
       </c>
       <c r="L36" t="n">
         <v>860.5</v>
@@ -2115,7 +2137,7 @@
         <v>102</v>
       </c>
       <c r="K37" t="n">
-        <v>25.64102564102564</v>
+        <v>-58.82352941176471</v>
       </c>
       <c r="L37" t="n">
         <v>860.7</v>
@@ -2166,7 +2188,7 @@
         <v>104</v>
       </c>
       <c r="K38" t="n">
-        <v>12.67605633802817</v>
+        <v>-44</v>
       </c>
       <c r="L38" t="n">
         <v>858.5</v>
@@ -2217,7 +2239,7 @@
         <v>107</v>
       </c>
       <c r="K39" t="n">
-        <v>9.58904109589041</v>
+        <v>-50</v>
       </c>
       <c r="L39" t="n">
         <v>857.1</v>
@@ -2268,7 +2290,7 @@
         <v>113</v>
       </c>
       <c r="K40" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>856.3</v>
@@ -2319,7 +2341,7 @@
         <v>116</v>
       </c>
       <c r="K41" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="L41" t="n">
         <v>856</v>
@@ -2370,7 +2392,7 @@
         <v>123</v>
       </c>
       <c r="K42" t="n">
-        <v>17.24137931034483</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L42" t="n">
         <v>856.8</v>
@@ -2421,7 +2443,7 @@
         <v>131</v>
       </c>
       <c r="K43" t="n">
-        <v>5.376344086021505</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L43" t="n">
         <v>856.4</v>
@@ -2472,7 +2494,7 @@
         <v>132</v>
       </c>
       <c r="K44" t="n">
-        <v>1.098901098901099</v>
+        <v>-8.571428571428571</v>
       </c>
       <c r="L44" t="n">
         <v>856.1</v>
@@ -2523,7 +2545,7 @@
         <v>134</v>
       </c>
       <c r="K45" t="n">
-        <v>2.173913043478261</v>
+        <v>-11.76470588235294</v>
       </c>
       <c r="L45" t="n">
         <v>856</v>
@@ -2574,7 +2596,7 @@
         <v>136</v>
       </c>
       <c r="K46" t="n">
-        <v>-3.296703296703297</v>
+        <v>-11.76470588235294</v>
       </c>
       <c r="L46" t="n">
         <v>855.4</v>
@@ -2625,7 +2647,7 @@
         <v>136</v>
       </c>
       <c r="K47" t="n">
-        <v>-2.222222222222222</v>
+        <v>-6.25</v>
       </c>
       <c r="L47" t="n">
         <v>855</v>
@@ -2676,7 +2698,7 @@
         <v>140</v>
       </c>
       <c r="K48" t="n">
-        <v>-27.77777777777778</v>
+        <v>15.15151515151515</v>
       </c>
       <c r="L48" t="n">
         <v>855.2</v>
@@ -2727,7 +2749,7 @@
         <v>141</v>
       </c>
       <c r="K49" t="n">
-        <v>-12.90322580645161</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
         <v>855.8</v>
@@ -2778,7 +2800,7 @@
         <v>144</v>
       </c>
       <c r="K50" t="n">
-        <v>-16.92307692307692</v>
+        <v>0</v>
       </c>
       <c r="L50" t="n">
         <v>855.5</v>
@@ -2829,7 +2851,7 @@
         <v>147</v>
       </c>
       <c r="K51" t="n">
-        <v>0</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L51" t="n">
         <v>855.8</v>
@@ -2880,7 +2902,7 @@
         <v>152</v>
       </c>
       <c r="K52" t="n">
-        <v>-1.639344262295082</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L52" t="n">
         <v>854.9</v>
@@ -2931,7 +2953,7 @@
         <v>157</v>
       </c>
       <c r="K53" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L53" t="n">
         <v>855.3</v>
@@ -2982,7 +3004,7 @@
         <v>161</v>
       </c>
       <c r="K54" t="n">
-        <v>9.375</v>
+        <v>25.92592592592592</v>
       </c>
       <c r="L54" t="n">
         <v>856.2</v>
@@ -3033,7 +3055,7 @@
         <v>162</v>
       </c>
       <c r="K55" t="n">
-        <v>7.692307692307693</v>
+        <v>30.76923076923077</v>
       </c>
       <c r="L55" t="n">
         <v>856.8</v>
@@ -3084,7 +3106,7 @@
         <v>170</v>
       </c>
       <c r="K56" t="n">
-        <v>14.28571428571428</v>
+        <v>47.05882352941176</v>
       </c>
       <c r="L56" t="n">
         <v>858.4</v>
@@ -3135,7 +3157,7 @@
         <v>178</v>
       </c>
       <c r="K57" t="n">
-        <v>26.31578947368421</v>
+        <v>52.63157894736842</v>
       </c>
       <c r="L57" t="n">
         <v>860.8</v>
@@ -3186,7 +3208,7 @@
         <v>186</v>
       </c>
       <c r="K58" t="n">
-        <v>17.07317073170732</v>
+        <v>24.44444444444444</v>
       </c>
       <c r="L58" t="n">
         <v>862</v>
@@ -3237,7 +3259,7 @@
         <v>192</v>
       </c>
       <c r="K59" t="n">
-        <v>27.05882352941176</v>
+        <v>41.66666666666667</v>
       </c>
       <c r="L59" t="n">
         <v>863.7</v>
@@ -3288,7 +3310,7 @@
         <v>198</v>
       </c>
       <c r="K60" t="n">
-        <v>12.94117647058824</v>
+        <v>21.56862745098039</v>
       </c>
       <c r="L60" t="n">
         <v>865.1</v>
@@ -3339,7 +3361,7 @@
         <v>202</v>
       </c>
       <c r="K61" t="n">
-        <v>20.93023255813954</v>
+        <v>40</v>
       </c>
       <c r="L61" t="n">
         <v>866.6</v>
@@ -3390,7 +3412,7 @@
         <v>206</v>
       </c>
       <c r="K62" t="n">
-        <v>8.433734939759036</v>
+        <v>22.44897959183674</v>
       </c>
       <c r="L62" t="n">
         <v>868.2</v>
@@ -3441,7 +3463,7 @@
         <v>213</v>
       </c>
       <c r="K63" t="n">
-        <v>26.82926829268293</v>
+        <v>26.92307692307692</v>
       </c>
       <c r="L63" t="n">
         <v>870</v>
@@ -3492,7 +3514,7 @@
         <v>215</v>
       </c>
       <c r="K64" t="n">
-        <v>25.30120481927711</v>
+        <v>24.52830188679245</v>
       </c>
       <c r="L64" t="n">
         <v>871.2</v>
@@ -3543,7 +3565,7 @@
         <v>216</v>
       </c>
       <c r="K65" t="n">
-        <v>24.39024390243902</v>
+        <v>13.04347826086956</v>
       </c>
       <c r="L65" t="n">
         <v>872.6</v>
@@ -3594,7 +3616,7 @@
         <v>217</v>
       </c>
       <c r="K66" t="n">
-        <v>25.92592592592592</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L66" t="n">
         <v>873.1</v>
@@ -3645,7 +3667,7 @@
         <v>218</v>
       </c>
       <c r="K67" t="n">
-        <v>24.39024390243902</v>
+        <v>12.5</v>
       </c>
       <c r="L67" t="n">
         <v>872.7</v>
@@ -3696,7 +3718,7 @@
         <v>218</v>
       </c>
       <c r="K68" t="n">
-        <v>20.51282051282051</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L68" t="n">
         <v>873.1</v>
@@ -3747,7 +3769,7 @@
         <v>219</v>
       </c>
       <c r="K69" t="n">
-        <v>20.51282051282051</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L69" t="n">
         <v>873</v>
@@ -3798,7 +3820,7 @@
         <v>220</v>
       </c>
       <c r="K70" t="n">
-        <v>23.68421052631579</v>
+        <v>0</v>
       </c>
       <c r="L70" t="n">
         <v>873.4</v>
@@ -3849,7 +3871,7 @@
         <v>220</v>
       </c>
       <c r="K71" t="n">
-        <v>20.54794520547945</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L71" t="n">
         <v>873.4</v>
@@ -3900,7 +3922,7 @@
         <v>221</v>
       </c>
       <c r="K72" t="n">
-        <v>30.43478260869566</v>
+        <v>-25</v>
       </c>
       <c r="L72" t="n">
         <v>873.9</v>
@@ -3951,7 +3973,7 @@
         <v>221</v>
       </c>
       <c r="K73" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L73" t="n">
         <v>873.7</v>
@@ -4002,7 +4024,7 @@
         <v>229</v>
       </c>
       <c r="K74" t="n">
-        <v>29.41176470588236</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L74" t="n">
         <v>874.5</v>
@@ -4053,7 +4075,7 @@
         <v>230</v>
       </c>
       <c r="K75" t="n">
-        <v>29.41176470588236</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L75" t="n">
         <v>875.1</v>
@@ -4104,7 +4126,7 @@
         <v>236</v>
       </c>
       <c r="K76" t="n">
-        <v>9.090909090909092</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L76" t="n">
         <v>875.2</v>
@@ -4155,7 +4177,7 @@
         <v>237</v>
       </c>
       <c r="K77" t="n">
-        <v>-1.694915254237288</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L77" t="n">
         <v>875.5</v>
@@ -4206,7 +4228,7 @@
         <v>240</v>
       </c>
       <c r="K78" t="n">
-        <v>7.407407407407407</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L78" t="n">
         <v>875.5</v>
@@ -4257,7 +4279,7 @@
         <v>241</v>
       </c>
       <c r="K79" t="n">
-        <v>-6.122448979591836</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L79" t="n">
         <v>875.3</v>
@@ -4308,7 +4330,7 @@
         <v>242</v>
       </c>
       <c r="K80" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L80" t="n">
         <v>875.3</v>
@@ -4359,7 +4381,7 @@
         <v>243</v>
       </c>
       <c r="K81" t="n">
-        <v>-2.439024390243902</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L81" t="n">
         <v>875.2</v>
@@ -4410,7 +4432,7 @@
         <v>243</v>
       </c>
       <c r="K82" t="n">
-        <v>8.108108108108109</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L82" t="n">
         <v>875</v>
@@ -4461,7 +4483,7 @@
         <v>249</v>
       </c>
       <c r="K83" t="n">
-        <v>5.555555555555555</v>
+        <v>-20</v>
       </c>
       <c r="L83" t="n">
         <v>875.4</v>
@@ -4512,7 +4534,7 @@
         <v>252</v>
       </c>
       <c r="K84" t="n">
-        <v>2.702702702702703</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L84" t="n">
         <v>874.7</v>
@@ -4614,7 +4636,7 @@
         <v>252</v>
       </c>
       <c r="K86" t="n">
-        <v>2.857142857142857</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L86" t="n">
         <v>874.1</v>
@@ -4665,7 +4687,7 @@
         <v>252</v>
       </c>
       <c r="K87" t="n">
-        <v>5.88235294117647</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L87" t="n">
         <v>874</v>
@@ -4716,7 +4738,7 @@
         <v>252</v>
       </c>
       <c r="K88" t="n">
-        <v>5.88235294117647</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L88" t="n">
         <v>874.2</v>
@@ -4767,7 +4789,7 @@
         <v>252</v>
       </c>
       <c r="K89" t="n">
-        <v>3.03030303030303</v>
+        <v>20</v>
       </c>
       <c r="L89" t="n">
         <v>874.5</v>
@@ -4818,7 +4840,7 @@
         <v>252</v>
       </c>
       <c r="K90" t="n">
-        <v>6.25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L90" t="n">
         <v>874.7</v>
@@ -4869,7 +4891,7 @@
         <v>252</v>
       </c>
       <c r="K91" t="n">
-        <v>6.25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L91" t="n">
         <v>875</v>
@@ -4920,7 +4942,7 @@
         <v>252</v>
       </c>
       <c r="K92" t="n">
-        <v>3.225806451612903</v>
+        <v>-100</v>
       </c>
       <c r="L92" t="n">
         <v>875.3</v>
@@ -4970,9 +4992,7 @@
       <c r="J93" t="n">
         <v>252</v>
       </c>
-      <c r="K93" t="n">
-        <v>3.225806451612903</v>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>875</v>
       </c>
@@ -5022,7 +5042,7 @@
         <v>255</v>
       </c>
       <c r="K94" t="n">
-        <v>-15.38461538461539</v>
+        <v>100</v>
       </c>
       <c r="L94" t="n">
         <v>875.3</v>
@@ -5073,7 +5093,7 @@
         <v>260</v>
       </c>
       <c r="K95" t="n">
-        <v>-26.66666666666667</v>
+        <v>-25</v>
       </c>
       <c r="L95" t="n">
         <v>875.1</v>
@@ -5175,7 +5195,7 @@
         <v>262</v>
       </c>
       <c r="K97" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="L97" t="n">
         <v>875.1</v>
@@ -5226,7 +5246,7 @@
         <v>262</v>
       </c>
       <c r="K98" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L98" t="n">
         <v>875.1</v>
@@ -5277,7 +5297,7 @@
         <v>262</v>
       </c>
       <c r="K99" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L99" t="n">
         <v>875.1</v>
@@ -5328,7 +5348,7 @@
         <v>262</v>
       </c>
       <c r="K100" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L100" t="n">
         <v>875.1</v>
@@ -5379,7 +5399,7 @@
         <v>262</v>
       </c>
       <c r="K101" t="n">
-        <v>15.78947368421053</v>
+        <v>0</v>
       </c>
       <c r="L101" t="n">
         <v>875.1</v>
@@ -5430,7 +5450,7 @@
         <v>262</v>
       </c>
       <c r="K102" t="n">
-        <v>15.78947368421053</v>
+        <v>0</v>
       </c>
       <c r="L102" t="n">
         <v>875.1</v>
@@ -5481,7 +5501,7 @@
         <v>262</v>
       </c>
       <c r="K103" t="n">
-        <v>-23.07692307692308</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L103" t="n">
         <v>875.1</v>
@@ -5532,7 +5552,7 @@
         <v>262</v>
       </c>
       <c r="K104" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L104" t="n">
         <v>874.8</v>
@@ -5583,7 +5603,7 @@
         <v>263</v>
       </c>
       <c r="K105" t="n">
-        <v>-9.090909090909092</v>
+        <v>-100</v>
       </c>
       <c r="L105" t="n">
         <v>874.9</v>
@@ -5634,7 +5654,7 @@
         <v>263</v>
       </c>
       <c r="K106" t="n">
-        <v>-9.090909090909092</v>
+        <v>-100</v>
       </c>
       <c r="L106" t="n">
         <v>874.8</v>
@@ -5685,7 +5705,7 @@
         <v>263</v>
       </c>
       <c r="K107" t="n">
-        <v>-9.090909090909092</v>
+        <v>-100</v>
       </c>
       <c r="L107" t="n">
         <v>874.7</v>
@@ -5736,7 +5756,7 @@
         <v>263</v>
       </c>
       <c r="K108" t="n">
-        <v>-9.090909090909092</v>
+        <v>-100</v>
       </c>
       <c r="L108" t="n">
         <v>874.6</v>
@@ -5787,7 +5807,7 @@
         <v>271</v>
       </c>
       <c r="K109" t="n">
-        <v>-47.36842105263158</v>
+        <v>-100</v>
       </c>
       <c r="L109" t="n">
         <v>873.7</v>

--- a/BackTest/2019-11-02 BackTest WTC.xlsx
+++ b/BackTest/2019-11-02 BackTest WTC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S109"/>
+  <dimension ref="A1:M128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,65 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>closegap_abs_cumsum</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>MA5</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>BuyPrice</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>bprelay</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -463,37 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="C2" t="n">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="D2" t="n">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="E2" t="n">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="F2" t="n">
-        <v>769.7206</v>
+        <v>5692.2878</v>
       </c>
       <c r="G2" t="n">
-        <v>835</v>
+        <v>-20983.43070574443</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -502,41 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="C3" t="n">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="D3" t="n">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="E3" t="n">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="F3" t="n">
-        <v>880.7023</v>
+        <v>93.3259</v>
       </c>
       <c r="G3" t="n">
-        <v>834.9833333333333</v>
+        <v>-20890.10480574443</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -545,41 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="C4" t="n">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="D4" t="n">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="E4" t="n">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>398.2363</v>
       </c>
       <c r="G4" t="n">
-        <v>834.9333333333333</v>
+        <v>-21288.34110574443</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -600,29 +550,21 @@
         <v>836</v>
       </c>
       <c r="F5" t="n">
-        <v>643.1473</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>834.8333333333334</v>
+        <v>-21287.34110574443</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -631,41 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="C6" t="n">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="D6" t="n">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="E6" t="n">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="F6" t="n">
-        <v>457.0455</v>
+        <v>509.857</v>
       </c>
       <c r="G6" t="n">
-        <v>834.9166666666666</v>
+        <v>-21797.19810574443</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -674,41 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="C7" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="D7" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="E7" t="n">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F7" t="n">
-        <v>1026.6856</v>
+        <v>16</v>
       </c>
       <c r="G7" t="n">
-        <v>834.9166666666666</v>
+        <v>-21781.19810574443</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -717,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C8" t="n">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D8" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="E8" t="n">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="F8" t="n">
-        <v>97</v>
+        <v>550</v>
       </c>
       <c r="G8" t="n">
-        <v>834.9833333333333</v>
+        <v>-21781.19810574443</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -740,18 +666,10 @@
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>4</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -760,41 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="C9" t="n">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="D9" t="n">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="E9" t="n">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="F9" t="n">
-        <v>2525.0721</v>
+        <v>59.787</v>
       </c>
       <c r="G9" t="n">
-        <v>835.0666666666667</v>
+        <v>-21840.98510574443</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -815,29 +725,21 @@
         <v>834</v>
       </c>
       <c r="F10" t="n">
-        <v>89.34350000000001</v>
+        <v>683.4663</v>
       </c>
       <c r="G10" t="n">
-        <v>835</v>
+        <v>-21157.51880574443</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -846,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="C11" t="n">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="D11" t="n">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="E11" t="n">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="F11" t="n">
-        <v>150.49</v>
+        <v>357</v>
       </c>
       <c r="G11" t="n">
-        <v>835.0666666666667</v>
+        <v>-20800.51880574443</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -869,20 +771,10 @@
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>8</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>835.3</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -891,7 +783,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C12" t="n">
         <v>837</v>
@@ -900,36 +792,24 @@
         <v>837</v>
       </c>
       <c r="E12" t="n">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>117</v>
       </c>
       <c r="G12" t="n">
-        <v>835.1333333333333</v>
+        <v>-20800.51880574443</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>2</v>
-      </c>
-      <c r="J12" t="n">
-        <v>10</v>
-      </c>
-      <c r="K12" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L12" t="n">
-        <v>835.5</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,45 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="C13" t="n">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D13" t="n">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="E13" t="n">
-        <v>831</v>
+        <v>836</v>
       </c>
       <c r="F13" t="n">
-        <v>4311.4563</v>
+        <v>331.111</v>
       </c>
       <c r="G13" t="n">
-        <v>835.2333333333333</v>
+        <v>-21131.62980574443</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
-      </c>
-      <c r="J13" t="n">
-        <v>11</v>
-      </c>
-      <c r="K13" t="n">
-        <v>25</v>
-      </c>
-      <c r="L13" t="n">
-        <v>835.9</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -985,7 +853,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="C14" t="n">
         <v>837</v>
@@ -994,36 +862,24 @@
         <v>837</v>
       </c>
       <c r="E14" t="n">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="F14" t="n">
-        <v>2100</v>
+        <v>636.3089</v>
       </c>
       <c r="G14" t="n">
-        <v>835.2</v>
+        <v>-20495.32090574443</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
-      </c>
-      <c r="J14" t="n">
-        <v>12</v>
-      </c>
-      <c r="K14" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L14" t="n">
-        <v>836</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1032,45 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>832</v>
+        <v>840</v>
       </c>
       <c r="C15" t="n">
-        <v>831</v>
+        <v>840</v>
       </c>
       <c r="D15" t="n">
-        <v>832</v>
+        <v>840</v>
       </c>
       <c r="E15" t="n">
-        <v>831</v>
+        <v>840</v>
       </c>
       <c r="F15" t="n">
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>835.1333333333333</v>
+        <v>-20494.32090574443</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J15" t="n">
-        <v>18</v>
-      </c>
-      <c r="K15" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L15" t="n">
-        <v>835.5</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1079,45 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>836</v>
+        <v>842</v>
       </c>
       <c r="C16" t="n">
-        <v>836</v>
+        <v>842</v>
       </c>
       <c r="D16" t="n">
-        <v>836</v>
+        <v>842</v>
       </c>
       <c r="E16" t="n">
-        <v>836</v>
+        <v>842</v>
       </c>
       <c r="F16" t="n">
-        <v>12.6</v>
+        <v>220.1532</v>
       </c>
       <c r="G16" t="n">
-        <v>835.15</v>
+        <v>-20274.16770574443</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>23</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>835.5</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1126,45 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>837</v>
+        <v>841</v>
       </c>
       <c r="C17" t="n">
-        <v>837</v>
+        <v>844</v>
       </c>
       <c r="D17" t="n">
-        <v>837</v>
+        <v>844</v>
       </c>
       <c r="E17" t="n">
-        <v>837</v>
+        <v>841</v>
       </c>
       <c r="F17" t="n">
-        <v>100</v>
+        <v>1483.2205</v>
       </c>
       <c r="G17" t="n">
-        <v>835.15</v>
+        <v>-18790.94720574443</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
-      </c>
-      <c r="J17" t="n">
-        <v>24</v>
-      </c>
-      <c r="K17" t="n">
-        <v>10</v>
-      </c>
-      <c r="L17" t="n">
-        <v>835.6</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1173,45 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C18" t="n">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="D18" t="n">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E18" t="n">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="F18" t="n">
-        <v>2</v>
+        <v>546.5005</v>
       </c>
       <c r="G18" t="n">
-        <v>835.4</v>
+        <v>-18244.44670574443</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>11</v>
-      </c>
-      <c r="J18" t="n">
-        <v>33</v>
-      </c>
-      <c r="K18" t="n">
-        <v>35.71428571428572</v>
-      </c>
-      <c r="L18" t="n">
-        <v>836.7</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1223,42 +1031,30 @@
         <v>844</v>
       </c>
       <c r="C19" t="n">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D19" t="n">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E19" t="n">
         <v>844</v>
       </c>
       <c r="F19" t="n">
-        <v>45.8419</v>
+        <v>14.8739</v>
       </c>
       <c r="G19" t="n">
-        <v>835.6</v>
+        <v>-18259.32060574443</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>10</v>
-      </c>
-      <c r="J19" t="n">
-        <v>34</v>
-      </c>
-      <c r="K19" t="n">
-        <v>40.74074074074074</v>
-      </c>
-      <c r="L19" t="n">
-        <v>837.6</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1267,45 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>847</v>
+        <v>836</v>
       </c>
       <c r="C20" t="n">
-        <v>847</v>
+        <v>835</v>
       </c>
       <c r="D20" t="n">
-        <v>847</v>
+        <v>836</v>
       </c>
       <c r="E20" t="n">
-        <v>847</v>
+        <v>834</v>
       </c>
       <c r="F20" t="n">
-        <v>212.947</v>
+        <v>745.8395</v>
       </c>
       <c r="G20" t="n">
-        <v>835.7666666666667</v>
+        <v>-19005.16010574443</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>12</v>
-      </c>
-      <c r="J20" t="n">
-        <v>36</v>
-      </c>
-      <c r="K20" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L20" t="n">
-        <v>838.9</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1314,47 +1098,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>847</v>
+        <v>833</v>
       </c>
       <c r="C21" t="n">
-        <v>847</v>
+        <v>833</v>
       </c>
       <c r="D21" t="n">
-        <v>847</v>
+        <v>833</v>
       </c>
       <c r="E21" t="n">
-        <v>847</v>
+        <v>833</v>
       </c>
       <c r="F21" t="n">
-        <v>406.4843</v>
+        <v>268.4</v>
       </c>
       <c r="G21" t="n">
-        <v>835.95</v>
+        <v>-19273.56010574444</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>12</v>
-      </c>
-      <c r="J21" t="n">
-        <v>36</v>
-      </c>
-      <c r="K21" t="n">
-        <v>38.46153846153847</v>
-      </c>
-      <c r="L21" t="n">
-        <v>840.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>837.7</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1363,47 +1133,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="C22" t="n">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="D22" t="n">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="E22" t="n">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="F22" t="n">
-        <v>49.5288</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>836.2166666666667</v>
+        <v>-19272.56010574444</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>12</v>
-      </c>
-      <c r="J22" t="n">
-        <v>36</v>
-      </c>
-      <c r="K22" t="n">
-        <v>36</v>
-      </c>
-      <c r="L22" t="n">
-        <v>841.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
-        <v>838.3</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1412,47 +1168,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>849</v>
+        <v>832</v>
       </c>
       <c r="C23" t="n">
-        <v>849</v>
+        <v>831</v>
       </c>
       <c r="D23" t="n">
-        <v>849</v>
+        <v>839</v>
       </c>
       <c r="E23" t="n">
-        <v>849</v>
+        <v>831</v>
       </c>
       <c r="F23" t="n">
-        <v>100</v>
+        <v>2409.9749</v>
       </c>
       <c r="G23" t="n">
-        <v>836.5166666666667</v>
+        <v>-21682.53500574444</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>14</v>
-      </c>
-      <c r="J23" t="n">
-        <v>38</v>
-      </c>
-      <c r="K23" t="n">
-        <v>46.15384615384615</v>
-      </c>
-      <c r="L23" t="n">
-        <v>842.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>839.05</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1461,47 +1203,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>852</v>
+        <v>837</v>
       </c>
       <c r="C24" t="n">
-        <v>852</v>
+        <v>837</v>
       </c>
       <c r="D24" t="n">
-        <v>852</v>
+        <v>837</v>
       </c>
       <c r="E24" t="n">
-        <v>852</v>
+        <v>837</v>
       </c>
       <c r="F24" t="n">
-        <v>178.6983</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>836.9</v>
+        <v>-21681.53500574444</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>17</v>
-      </c>
-      <c r="J24" t="n">
-        <v>41</v>
-      </c>
-      <c r="K24" t="n">
-        <v>91.30434782608695</v>
-      </c>
-      <c r="L24" t="n">
-        <v>843.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
-        <v>839.85</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1510,47 +1238,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>853</v>
+        <v>833</v>
       </c>
       <c r="C25" t="n">
-        <v>853</v>
+        <v>833</v>
       </c>
       <c r="D25" t="n">
-        <v>854</v>
+        <v>833</v>
       </c>
       <c r="E25" t="n">
-        <v>853</v>
+        <v>833</v>
       </c>
       <c r="F25" t="n">
-        <v>6961.5774</v>
+        <v>240.384</v>
       </c>
       <c r="G25" t="n">
-        <v>837.1833333333333</v>
+        <v>-21921.91900574444</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>18</v>
-      </c>
-      <c r="J25" t="n">
-        <v>42</v>
-      </c>
-      <c r="K25" t="n">
-        <v>89.47368421052632</v>
-      </c>
-      <c r="L25" t="n">
-        <v>845.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
-        <v>840.7</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1559,47 +1273,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>856</v>
+        <v>831</v>
       </c>
       <c r="C26" t="n">
-        <v>856</v>
+        <v>830</v>
       </c>
       <c r="D26" t="n">
-        <v>856</v>
+        <v>831</v>
       </c>
       <c r="E26" t="n">
-        <v>856</v>
+        <v>830</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>3500</v>
       </c>
       <c r="G26" t="n">
-        <v>837.5333333333333</v>
+        <v>-25421.91900574444</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>21</v>
-      </c>
-      <c r="J26" t="n">
-        <v>45</v>
-      </c>
-      <c r="K26" t="n">
-        <v>90.47619047619048</v>
-      </c>
-      <c r="L26" t="n">
-        <v>847.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
-        <v>841.7</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1608,47 +1308,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>856</v>
+        <v>830</v>
       </c>
       <c r="C27" t="n">
-        <v>855</v>
+        <v>830</v>
       </c>
       <c r="D27" t="n">
-        <v>856</v>
+        <v>830</v>
       </c>
       <c r="E27" t="n">
-        <v>855</v>
+        <v>830</v>
       </c>
       <c r="F27" t="n">
-        <v>2</v>
+        <v>550</v>
       </c>
       <c r="G27" t="n">
-        <v>837.85</v>
+        <v>-25421.91900574444</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>20</v>
-      </c>
-      <c r="J27" t="n">
-        <v>46</v>
-      </c>
-      <c r="K27" t="n">
-        <v>69.23076923076923</v>
-      </c>
-      <c r="L27" t="n">
-        <v>849.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
-        <v>842.65</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1657,47 +1343,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>856</v>
+        <v>832</v>
       </c>
       <c r="C28" t="n">
-        <v>877</v>
+        <v>834</v>
       </c>
       <c r="D28" t="n">
-        <v>877</v>
+        <v>834</v>
       </c>
       <c r="E28" t="n">
-        <v>856</v>
+        <v>832</v>
       </c>
       <c r="F28" t="n">
-        <v>1997.6061</v>
+        <v>571.2307</v>
       </c>
       <c r="G28" t="n">
-        <v>838.5333333333333</v>
+        <v>-24850.68830574444</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>42</v>
-      </c>
-      <c r="J28" t="n">
-        <v>68</v>
-      </c>
-      <c r="K28" t="n">
-        <v>94.11764705882352</v>
-      </c>
-      <c r="L28" t="n">
-        <v>852.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
-        <v>844.75</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1706,47 +1378,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>866</v>
+        <v>834</v>
       </c>
       <c r="C29" t="n">
-        <v>866</v>
+        <v>834</v>
       </c>
       <c r="D29" t="n">
-        <v>866</v>
+        <v>834</v>
       </c>
       <c r="E29" t="n">
-        <v>866</v>
+        <v>834</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>46.2</v>
       </c>
       <c r="G29" t="n">
-        <v>839.0333333333333</v>
+        <v>-24850.68830574444</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>31</v>
-      </c>
-      <c r="J29" t="n">
-        <v>79</v>
-      </c>
-      <c r="K29" t="n">
-        <v>44.18604651162791</v>
-      </c>
-      <c r="L29" t="n">
-        <v>854.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
-        <v>846.25</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1755,47 +1413,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>866</v>
+        <v>835</v>
       </c>
       <c r="C30" t="n">
-        <v>866</v>
+        <v>835</v>
       </c>
       <c r="D30" t="n">
-        <v>866</v>
+        <v>835</v>
       </c>
       <c r="E30" t="n">
-        <v>866</v>
+        <v>835</v>
       </c>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>834.6605</v>
       </c>
       <c r="G30" t="n">
-        <v>839.5166666666667</v>
+        <v>-24016.02780574444</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>31</v>
-      </c>
-      <c r="J30" t="n">
-        <v>79</v>
-      </c>
-      <c r="K30" t="n">
-        <v>44.18604651162791</v>
-      </c>
-      <c r="L30" t="n">
-        <v>856.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
-        <v>847.85</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1804,49 +1448,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>858</v>
+        <v>835</v>
       </c>
       <c r="C31" t="n">
-        <v>858</v>
+        <v>835</v>
       </c>
       <c r="D31" t="n">
-        <v>858</v>
+        <v>835</v>
       </c>
       <c r="E31" t="n">
-        <v>858</v>
+        <v>835</v>
       </c>
       <c r="F31" t="n">
-        <v>14.6094</v>
+        <v>480.71</v>
       </c>
       <c r="G31" t="n">
-        <v>839.9666666666667</v>
+        <v>-24016.02780574444</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>23</v>
-      </c>
-      <c r="J31" t="n">
-        <v>87</v>
-      </c>
-      <c r="K31" t="n">
-        <v>21.56862745098039</v>
-      </c>
-      <c r="L31" t="n">
-        <v>857.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
-        <v>849</v>
-      </c>
-      <c r="N31" t="n">
-        <v>844.4333333333333</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1855,49 +1483,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>854</v>
+        <v>834</v>
       </c>
       <c r="C32" t="n">
-        <v>854</v>
+        <v>835</v>
       </c>
       <c r="D32" t="n">
-        <v>854</v>
+        <v>835</v>
       </c>
       <c r="E32" t="n">
-        <v>854</v>
+        <v>834</v>
       </c>
       <c r="F32" t="n">
-        <v>14.6094</v>
+        <v>769.7206</v>
       </c>
       <c r="G32" t="n">
-        <v>840.3666666666667</v>
+        <v>-24016.02780574444</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>19</v>
-      </c>
-      <c r="J32" t="n">
-        <v>91</v>
-      </c>
-      <c r="K32" t="n">
-        <v>9.433962264150944</v>
-      </c>
-      <c r="L32" t="n">
-        <v>858.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
-        <v>849.85</v>
-      </c>
-      <c r="N32" t="n">
-        <v>845.0666666666667</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1906,49 +1518,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>856</v>
+        <v>834</v>
       </c>
       <c r="C33" t="n">
-        <v>858</v>
+        <v>834</v>
       </c>
       <c r="D33" t="n">
-        <v>858</v>
+        <v>834</v>
       </c>
       <c r="E33" t="n">
-        <v>856</v>
+        <v>834</v>
       </c>
       <c r="F33" t="n">
-        <v>550.0042999999999</v>
+        <v>880.7023</v>
       </c>
       <c r="G33" t="n">
-        <v>840.7333333333333</v>
+        <v>-24896.73010574444</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>23</v>
-      </c>
-      <c r="J33" t="n">
-        <v>95</v>
-      </c>
-      <c r="K33" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L33" t="n">
-        <v>859.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
-        <v>850.85</v>
-      </c>
-      <c r="N33" t="n">
-        <v>845.8666666666667</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1957,49 +1553,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="C34" t="n">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="D34" t="n">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="E34" t="n">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="F34" t="n">
-        <v>32.6127</v>
+        <v>1</v>
       </c>
       <c r="G34" t="n">
-        <v>841.15</v>
+        <v>-24895.73010574444</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>21</v>
-      </c>
-      <c r="J34" t="n">
-        <v>97</v>
-      </c>
-      <c r="K34" t="n">
-        <v>5.454545454545454</v>
-      </c>
-      <c r="L34" t="n">
-        <v>859.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
-        <v>851.8</v>
-      </c>
-      <c r="N34" t="n">
-        <v>846.5333333333333</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2008,49 +1588,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="C35" t="n">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="D35" t="n">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="E35" t="n">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="F35" t="n">
-        <v>38.6522</v>
+        <v>643.1473</v>
       </c>
       <c r="G35" t="n">
-        <v>841.4833333333333</v>
+        <v>-24895.73010574444</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>21</v>
-      </c>
-      <c r="J35" t="n">
-        <v>97</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>860.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
-        <v>853.05</v>
-      </c>
-      <c r="N35" t="n">
-        <v>847.2</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2059,49 +1623,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>859</v>
+        <v>836</v>
       </c>
       <c r="C36" t="n">
-        <v>859</v>
+        <v>836</v>
       </c>
       <c r="D36" t="n">
-        <v>859</v>
+        <v>836</v>
       </c>
       <c r="E36" t="n">
-        <v>859</v>
+        <v>836</v>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>457.0455</v>
       </c>
       <c r="G36" t="n">
-        <v>841.95</v>
+        <v>-24895.73010574444</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>24</v>
-      </c>
-      <c r="J36" t="n">
-        <v>100</v>
-      </c>
-      <c r="K36" t="n">
-        <v>7.407407407407407</v>
-      </c>
-      <c r="L36" t="n">
-        <v>860.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
-        <v>854.2</v>
-      </c>
-      <c r="N36" t="n">
-        <v>847.9666666666667</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2110,49 +1658,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>858</v>
+        <v>835</v>
       </c>
       <c r="C37" t="n">
-        <v>857</v>
+        <v>836</v>
       </c>
       <c r="D37" t="n">
-        <v>858</v>
+        <v>836</v>
       </c>
       <c r="E37" t="n">
-        <v>857</v>
+        <v>835</v>
       </c>
       <c r="F37" t="n">
-        <v>561.8754</v>
+        <v>1026.6856</v>
       </c>
       <c r="G37" t="n">
-        <v>842.3333333333334</v>
+        <v>-24895.73010574444</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>102</v>
-      </c>
-      <c r="K37" t="n">
-        <v>-58.82352941176471</v>
-      </c>
-      <c r="L37" t="n">
-        <v>860.7</v>
+        <v>836</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M37" t="n">
-        <v>855.2</v>
-      </c>
-      <c r="N37" t="n">
-        <v>848.6666666666666</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2161,49 +1699,39 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>854</v>
+        <v>836</v>
       </c>
       <c r="C38" t="n">
-        <v>855</v>
+        <v>835</v>
       </c>
       <c r="D38" t="n">
-        <v>855</v>
+        <v>836</v>
       </c>
       <c r="E38" t="n">
-        <v>854</v>
+        <v>835</v>
       </c>
       <c r="F38" t="n">
-        <v>1575.5089</v>
+        <v>97</v>
       </c>
       <c r="G38" t="n">
-        <v>842.6833333333333</v>
+        <v>-24992.73010574444</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>104</v>
-      </c>
-      <c r="K38" t="n">
-        <v>-44</v>
-      </c>
-      <c r="L38" t="n">
-        <v>858.5</v>
+        <v>836</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M38" t="n">
-        <v>855.65</v>
-      </c>
-      <c r="N38" t="n">
-        <v>849.3333333333334</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2212,49 +1740,39 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>852</v>
+        <v>834</v>
       </c>
       <c r="C39" t="n">
-        <v>852</v>
+        <v>836</v>
       </c>
       <c r="D39" t="n">
-        <v>852</v>
+        <v>836</v>
       </c>
       <c r="E39" t="n">
-        <v>852</v>
+        <v>832</v>
       </c>
       <c r="F39" t="n">
-        <v>170.8157</v>
+        <v>2525.0721</v>
       </c>
       <c r="G39" t="n">
-        <v>843.0333333333333</v>
+        <v>-22467.65800574444</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>107</v>
-      </c>
-      <c r="K39" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L39" t="n">
-        <v>857.1</v>
+        <v>835</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M39" t="n">
-        <v>856</v>
-      </c>
-      <c r="N39" t="n">
-        <v>849.8666666666667</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2263,49 +1781,39 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>858</v>
+        <v>834</v>
       </c>
       <c r="C40" t="n">
-        <v>858</v>
+        <v>834</v>
       </c>
       <c r="D40" t="n">
-        <v>858</v>
+        <v>834</v>
       </c>
       <c r="E40" t="n">
-        <v>858</v>
+        <v>834</v>
       </c>
       <c r="F40" t="n">
-        <v>1</v>
+        <v>89.34350000000001</v>
       </c>
       <c r="G40" t="n">
-        <v>843.4333333333333</v>
+        <v>-22557.00150574444</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>113</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>856.3</v>
+        <v>836</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M40" t="n">
-        <v>856.55</v>
-      </c>
-      <c r="N40" t="n">
-        <v>850.6666666666666</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2314,49 +1822,37 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>855</v>
+        <v>833</v>
       </c>
       <c r="C41" t="n">
-        <v>855</v>
+        <v>835</v>
       </c>
       <c r="D41" t="n">
-        <v>855</v>
+        <v>835</v>
       </c>
       <c r="E41" t="n">
-        <v>855</v>
+        <v>833</v>
       </c>
       <c r="F41" t="n">
-        <v>42.9886</v>
+        <v>150.49</v>
       </c>
       <c r="G41" t="n">
-        <v>843.7333333333333</v>
+        <v>-22406.51150574443</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>20</v>
-      </c>
-      <c r="J41" t="n">
-        <v>116</v>
-      </c>
-      <c r="K41" t="n">
-        <v>4</v>
-      </c>
-      <c r="L41" t="n">
-        <v>856</v>
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M41" t="n">
-        <v>856.95</v>
-      </c>
-      <c r="N41" t="n">
-        <v>851.3333333333334</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2365,49 +1861,39 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>862</v>
+        <v>837</v>
       </c>
       <c r="C42" t="n">
-        <v>862</v>
+        <v>837</v>
       </c>
       <c r="D42" t="n">
-        <v>862</v>
+        <v>837</v>
       </c>
       <c r="E42" t="n">
-        <v>862</v>
+        <v>837</v>
       </c>
       <c r="F42" t="n">
         <v>1</v>
       </c>
       <c r="G42" t="n">
-        <v>844.15</v>
+        <v>-22405.51150574443</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>123</v>
-      </c>
-      <c r="K42" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L42" t="n">
-        <v>856.8</v>
+        <v>835</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M42" t="n">
-        <v>857.7</v>
-      </c>
-      <c r="N42" t="n">
-        <v>852.1666666666666</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2416,49 +1902,39 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>854</v>
+        <v>832</v>
       </c>
       <c r="C43" t="n">
-        <v>854</v>
+        <v>838</v>
       </c>
       <c r="D43" t="n">
-        <v>854</v>
+        <v>838</v>
       </c>
       <c r="E43" t="n">
-        <v>854</v>
+        <v>831</v>
       </c>
       <c r="F43" t="n">
-        <v>515.175</v>
+        <v>4311.4563</v>
       </c>
       <c r="G43" t="n">
-        <v>844.45</v>
+        <v>-18094.05520574444</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>131</v>
-      </c>
-      <c r="K43" t="n">
-        <v>-5.88235294117647</v>
-      </c>
-      <c r="L43" t="n">
-        <v>856.4</v>
+        <v>837</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M43" t="n">
-        <v>857.95</v>
-      </c>
-      <c r="N43" t="n">
-        <v>852.7</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2467,49 +1943,39 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>853</v>
+        <v>835</v>
       </c>
       <c r="C44" t="n">
-        <v>853</v>
+        <v>837</v>
       </c>
       <c r="D44" t="n">
-        <v>853</v>
+        <v>837</v>
       </c>
       <c r="E44" t="n">
-        <v>853</v>
+        <v>835</v>
       </c>
       <c r="F44" t="n">
-        <v>541.6014</v>
+        <v>2100</v>
       </c>
       <c r="G44" t="n">
-        <v>844.7166666666667</v>
+        <v>-20194.05520574444</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>132</v>
-      </c>
-      <c r="K44" t="n">
-        <v>-8.571428571428571</v>
-      </c>
-      <c r="L44" t="n">
-        <v>856.1</v>
+        <v>838</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M44" t="n">
-        <v>858</v>
-      </c>
-      <c r="N44" t="n">
-        <v>853.2333333333333</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2518,49 +1984,37 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>855</v>
+        <v>832</v>
       </c>
       <c r="C45" t="n">
-        <v>855</v>
+        <v>831</v>
       </c>
       <c r="D45" t="n">
-        <v>855</v>
+        <v>832</v>
       </c>
       <c r="E45" t="n">
-        <v>855</v>
+        <v>831</v>
       </c>
       <c r="F45" t="n">
-        <v>725.3239</v>
+        <v>500</v>
       </c>
       <c r="G45" t="n">
-        <v>844.9666666666667</v>
+        <v>-20694.05520574444</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>20</v>
-      </c>
-      <c r="J45" t="n">
-        <v>134</v>
-      </c>
-      <c r="K45" t="n">
-        <v>-11.76470588235294</v>
-      </c>
-      <c r="L45" t="n">
-        <v>856</v>
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M45" t="n">
-        <v>858.1</v>
-      </c>
-      <c r="N45" t="n">
-        <v>854.0333333333333</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2569,49 +2023,37 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>853</v>
+        <v>836</v>
       </c>
       <c r="C46" t="n">
-        <v>853</v>
+        <v>836</v>
       </c>
       <c r="D46" t="n">
-        <v>853</v>
+        <v>836</v>
       </c>
       <c r="E46" t="n">
-        <v>853</v>
+        <v>836</v>
       </c>
       <c r="F46" t="n">
-        <v>182.2</v>
+        <v>12.6</v>
       </c>
       <c r="G46" t="n">
-        <v>845.15</v>
+        <v>-20681.45520574444</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>18</v>
-      </c>
-      <c r="J46" t="n">
-        <v>136</v>
-      </c>
-      <c r="K46" t="n">
-        <v>-11.76470588235294</v>
-      </c>
-      <c r="L46" t="n">
-        <v>855.4</v>
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M46" t="n">
-        <v>857.95</v>
-      </c>
-      <c r="N46" t="n">
-        <v>854.6</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2620,49 +2062,37 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>853</v>
+        <v>837</v>
       </c>
       <c r="C47" t="n">
-        <v>853</v>
+        <v>837</v>
       </c>
       <c r="D47" t="n">
-        <v>853</v>
+        <v>837</v>
       </c>
       <c r="E47" t="n">
-        <v>853</v>
+        <v>837</v>
       </c>
       <c r="F47" t="n">
-        <v>211.8842</v>
+        <v>100</v>
       </c>
       <c r="G47" t="n">
-        <v>845.3</v>
+        <v>-20581.45520574444</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>18</v>
-      </c>
-      <c r="J47" t="n">
-        <v>136</v>
-      </c>
-      <c r="K47" t="n">
-        <v>-6.25</v>
-      </c>
-      <c r="L47" t="n">
-        <v>855</v>
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M47" t="n">
-        <v>857.85</v>
-      </c>
-      <c r="N47" t="n">
-        <v>855.1333333333333</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2671,49 +2101,37 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>857</v>
+        <v>846</v>
       </c>
       <c r="C48" t="n">
-        <v>857</v>
+        <v>846</v>
       </c>
       <c r="D48" t="n">
-        <v>857</v>
+        <v>846</v>
       </c>
       <c r="E48" t="n">
-        <v>857</v>
+        <v>846</v>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G48" t="n">
-        <v>845.5</v>
+        <v>-20579.45520574444</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>22</v>
-      </c>
-      <c r="J48" t="n">
-        <v>140</v>
-      </c>
-      <c r="K48" t="n">
-        <v>15.15151515151515</v>
-      </c>
-      <c r="L48" t="n">
-        <v>855.2</v>
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M48" t="n">
-        <v>856.85</v>
-      </c>
-      <c r="N48" t="n">
-        <v>855.5</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2722,49 +2140,37 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>857</v>
+        <v>844</v>
       </c>
       <c r="C49" t="n">
-        <v>858</v>
+        <v>845</v>
       </c>
       <c r="D49" t="n">
-        <v>858</v>
+        <v>845</v>
       </c>
       <c r="E49" t="n">
-        <v>857</v>
+        <v>844</v>
       </c>
       <c r="F49" t="n">
-        <v>44</v>
+        <v>45.8419</v>
       </c>
       <c r="G49" t="n">
-        <v>845.7333333333333</v>
+        <v>-20625.29710574444</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>23</v>
-      </c>
-      <c r="J49" t="n">
-        <v>141</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0</v>
-      </c>
-      <c r="L49" t="n">
-        <v>855.8</v>
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M49" t="n">
-        <v>856.45</v>
-      </c>
-      <c r="N49" t="n">
-        <v>855.9333333333333</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2773,49 +2179,37 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>855</v>
+        <v>847</v>
       </c>
       <c r="C50" t="n">
-        <v>855</v>
+        <v>847</v>
       </c>
       <c r="D50" t="n">
-        <v>855</v>
+        <v>847</v>
       </c>
       <c r="E50" t="n">
-        <v>855</v>
+        <v>847</v>
       </c>
       <c r="F50" t="n">
-        <v>500.53</v>
+        <v>212.947</v>
       </c>
       <c r="G50" t="n">
-        <v>846.0666666666667</v>
+        <v>-20412.35010574444</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>20</v>
-      </c>
-      <c r="J50" t="n">
-        <v>144</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0</v>
-      </c>
-      <c r="L50" t="n">
-        <v>855.5</v>
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M50" t="n">
-        <v>855.9</v>
-      </c>
-      <c r="N50" t="n">
-        <v>856.2</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2824,49 +2218,37 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>858</v>
+        <v>847</v>
       </c>
       <c r="C51" t="n">
-        <v>858</v>
+        <v>847</v>
       </c>
       <c r="D51" t="n">
-        <v>858</v>
+        <v>847</v>
       </c>
       <c r="E51" t="n">
-        <v>858</v>
+        <v>847</v>
       </c>
       <c r="F51" t="n">
-        <v>1</v>
+        <v>406.4843</v>
       </c>
       <c r="G51" t="n">
-        <v>846.4833333333333</v>
+        <v>-20412.35010574444</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>23</v>
-      </c>
-      <c r="J51" t="n">
-        <v>147</v>
-      </c>
-      <c r="K51" t="n">
-        <v>-16.66666666666666</v>
-      </c>
-      <c r="L51" t="n">
-        <v>855.8</v>
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M51" t="n">
-        <v>855.9</v>
-      </c>
-      <c r="N51" t="n">
-        <v>856.5666666666667</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2875,49 +2257,37 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="C52" t="n">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="D52" t="n">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="E52" t="n">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="F52" t="n">
-        <v>40</v>
+        <v>49.5288</v>
       </c>
       <c r="G52" t="n">
-        <v>846.7166666666667</v>
+        <v>-20412.35010574444</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>18</v>
-      </c>
-      <c r="J52" t="n">
-        <v>152</v>
-      </c>
-      <c r="K52" t="n">
-        <v>-4.761904761904762</v>
-      </c>
-      <c r="L52" t="n">
-        <v>854.9</v>
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M52" t="n">
-        <v>855.85</v>
-      </c>
-      <c r="N52" t="n">
-        <v>856.7666666666667</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2926,49 +2296,37 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="C53" t="n">
-        <v>858</v>
+        <v>849</v>
       </c>
       <c r="D53" t="n">
-        <v>858</v>
+        <v>849</v>
       </c>
       <c r="E53" t="n">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="F53" t="n">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="G53" t="n">
-        <v>847.1666666666666</v>
+        <v>-20312.35010574444</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>23</v>
-      </c>
-      <c r="J53" t="n">
-        <v>157</v>
-      </c>
-      <c r="K53" t="n">
-        <v>20</v>
-      </c>
-      <c r="L53" t="n">
-        <v>855.3</v>
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M53" t="n">
-        <v>855.85</v>
-      </c>
-      <c r="N53" t="n">
-        <v>857.0666666666667</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2977,49 +2335,37 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C54" t="n">
-        <v>862</v>
+        <v>852</v>
       </c>
       <c r="D54" t="n">
-        <v>862</v>
+        <v>852</v>
       </c>
       <c r="E54" t="n">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="F54" t="n">
-        <v>1005</v>
+        <v>178.6983</v>
       </c>
       <c r="G54" t="n">
-        <v>847.5833333333334</v>
+        <v>-20133.65180574444</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>27</v>
-      </c>
-      <c r="J54" t="n">
-        <v>161</v>
-      </c>
-      <c r="K54" t="n">
-        <v>25.92592592592592</v>
-      </c>
-      <c r="L54" t="n">
-        <v>856.2</v>
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M54" t="n">
-        <v>856.15</v>
-      </c>
-      <c r="N54" t="n">
-        <v>857.4</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3028,49 +2374,37 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="C55" t="n">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="D55" t="n">
-        <v>861</v>
+        <v>854</v>
       </c>
       <c r="E55" t="n">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="F55" t="n">
-        <v>1400</v>
+        <v>6961.5774</v>
       </c>
       <c r="G55" t="n">
-        <v>848.05</v>
+        <v>-13172.07440574444</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>26</v>
-      </c>
-      <c r="J55" t="n">
-        <v>162</v>
-      </c>
-      <c r="K55" t="n">
-        <v>30.76923076923077</v>
-      </c>
-      <c r="L55" t="n">
-        <v>856.8</v>
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M55" t="n">
-        <v>856.4</v>
-      </c>
-      <c r="N55" t="n">
-        <v>857.6666666666666</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3079,49 +2413,37 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="C56" t="n">
-        <v>869</v>
+        <v>856</v>
       </c>
       <c r="D56" t="n">
-        <v>869</v>
+        <v>856</v>
       </c>
       <c r="E56" t="n">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="F56" t="n">
-        <v>1222.8594</v>
+        <v>1</v>
       </c>
       <c r="G56" t="n">
-        <v>848.7</v>
+        <v>-13171.07440574444</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>34</v>
-      </c>
-      <c r="J56" t="n">
-        <v>170</v>
-      </c>
-      <c r="K56" t="n">
-        <v>47.05882352941176</v>
-      </c>
-      <c r="L56" t="n">
-        <v>858.4</v>
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M56" t="n">
-        <v>856.9</v>
-      </c>
-      <c r="N56" t="n">
-        <v>858.1</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3130,49 +2452,37 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>870</v>
+        <v>856</v>
       </c>
       <c r="C57" t="n">
-        <v>877</v>
+        <v>855</v>
       </c>
       <c r="D57" t="n">
-        <v>877</v>
+        <v>856</v>
       </c>
       <c r="E57" t="n">
-        <v>869</v>
+        <v>855</v>
       </c>
       <c r="F57" t="n">
-        <v>87.43429999999999</v>
+        <v>2</v>
       </c>
       <c r="G57" t="n">
-        <v>849.4833333333333</v>
+        <v>-13173.07440574444</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>42</v>
-      </c>
-      <c r="J57" t="n">
-        <v>178</v>
-      </c>
-      <c r="K57" t="n">
-        <v>52.63157894736842</v>
-      </c>
-      <c r="L57" t="n">
-        <v>860.8</v>
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M57" t="n">
-        <v>857.9</v>
-      </c>
-      <c r="N57" t="n">
-        <v>858.8333333333334</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3181,49 +2491,37 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>864</v>
+        <v>856</v>
       </c>
       <c r="C58" t="n">
-        <v>869</v>
+        <v>877</v>
       </c>
       <c r="D58" t="n">
-        <v>869</v>
+        <v>877</v>
       </c>
       <c r="E58" t="n">
-        <v>864</v>
+        <v>856</v>
       </c>
       <c r="F58" t="n">
-        <v>133.0413</v>
+        <v>1997.6061</v>
       </c>
       <c r="G58" t="n">
-        <v>850.0666666666667</v>
+        <v>-11175.46830574444</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>34</v>
-      </c>
-      <c r="J58" t="n">
-        <v>186</v>
-      </c>
-      <c r="K58" t="n">
-        <v>24.44444444444444</v>
-      </c>
-      <c r="L58" t="n">
-        <v>862</v>
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M58" t="n">
-        <v>858.6</v>
-      </c>
-      <c r="N58" t="n">
-        <v>858.5666666666667</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3232,49 +2530,37 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="C59" t="n">
-        <v>875</v>
+        <v>866</v>
       </c>
       <c r="D59" t="n">
-        <v>875</v>
+        <v>866</v>
       </c>
       <c r="E59" t="n">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="F59" t="n">
-        <v>206.1041</v>
+        <v>1</v>
       </c>
       <c r="G59" t="n">
-        <v>850.75</v>
+        <v>-11176.46830574444</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>40</v>
-      </c>
-      <c r="J59" t="n">
-        <v>192</v>
-      </c>
-      <c r="K59" t="n">
-        <v>41.66666666666667</v>
-      </c>
-      <c r="L59" t="n">
-        <v>863.7</v>
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M59" t="n">
-        <v>859.75</v>
-      </c>
-      <c r="N59" t="n">
-        <v>858.8666666666667</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,49 +2569,37 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="C60" t="n">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="D60" t="n">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="E60" t="n">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="F60" t="n">
-        <v>450.5841</v>
+        <v>1</v>
       </c>
       <c r="G60" t="n">
-        <v>851.3166666666667</v>
+        <v>-11176.46830574444</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>34</v>
-      </c>
-      <c r="J60" t="n">
-        <v>198</v>
-      </c>
-      <c r="K60" t="n">
-        <v>21.56862745098039</v>
-      </c>
-      <c r="L60" t="n">
-        <v>865.1</v>
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M60" t="n">
-        <v>860.3</v>
-      </c>
-      <c r="N60" t="n">
-        <v>858.9666666666667</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3334,49 +2608,37 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>873</v>
+        <v>858</v>
       </c>
       <c r="C61" t="n">
-        <v>873</v>
+        <v>858</v>
       </c>
       <c r="D61" t="n">
-        <v>873</v>
+        <v>858</v>
       </c>
       <c r="E61" t="n">
-        <v>873</v>
+        <v>858</v>
       </c>
       <c r="F61" t="n">
-        <v>1</v>
+        <v>14.6094</v>
       </c>
       <c r="G61" t="n">
-        <v>851.95</v>
+        <v>-11191.07770574444</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>38</v>
-      </c>
-      <c r="J61" t="n">
-        <v>202</v>
-      </c>
-      <c r="K61" t="n">
-        <v>40</v>
-      </c>
-      <c r="L61" t="n">
-        <v>866.6</v>
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M61" t="n">
-        <v>861.2</v>
-      </c>
-      <c r="N61" t="n">
-        <v>859.4666666666667</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3385,49 +2647,37 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>869</v>
+        <v>854</v>
       </c>
       <c r="C62" t="n">
-        <v>869</v>
+        <v>854</v>
       </c>
       <c r="D62" t="n">
-        <v>869</v>
+        <v>854</v>
       </c>
       <c r="E62" t="n">
-        <v>869</v>
+        <v>854</v>
       </c>
       <c r="F62" t="n">
-        <v>26.1758</v>
+        <v>14.6094</v>
       </c>
       <c r="G62" t="n">
-        <v>852.5166666666667</v>
+        <v>-11205.68710574444</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>34</v>
-      </c>
-      <c r="J62" t="n">
-        <v>206</v>
-      </c>
-      <c r="K62" t="n">
-        <v>22.44897959183674</v>
-      </c>
-      <c r="L62" t="n">
-        <v>868.2</v>
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M62" t="n">
-        <v>861.55</v>
-      </c>
-      <c r="N62" t="n">
-        <v>859.9666666666667</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3436,49 +2686,37 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>876</v>
+        <v>856</v>
       </c>
       <c r="C63" t="n">
-        <v>876</v>
+        <v>858</v>
       </c>
       <c r="D63" t="n">
-        <v>876</v>
+        <v>858</v>
       </c>
       <c r="E63" t="n">
-        <v>876</v>
+        <v>856</v>
       </c>
       <c r="F63" t="n">
-        <v>118.952</v>
+        <v>550.0042999999999</v>
       </c>
       <c r="G63" t="n">
-        <v>853.2166666666667</v>
+        <v>-10655.68280574444</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>41</v>
-      </c>
-      <c r="J63" t="n">
-        <v>213</v>
-      </c>
-      <c r="K63" t="n">
-        <v>26.92307692307692</v>
-      </c>
-      <c r="L63" t="n">
-        <v>870</v>
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M63" t="n">
-        <v>862.65</v>
-      </c>
-      <c r="N63" t="n">
-        <v>860.5666666666667</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3487,49 +2725,37 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>874</v>
+        <v>856</v>
       </c>
       <c r="C64" t="n">
-        <v>874</v>
+        <v>856</v>
       </c>
       <c r="D64" t="n">
-        <v>874</v>
+        <v>856</v>
       </c>
       <c r="E64" t="n">
-        <v>874</v>
+        <v>856</v>
       </c>
       <c r="F64" t="n">
-        <v>373.5</v>
+        <v>32.6127</v>
       </c>
       <c r="G64" t="n">
-        <v>853.85</v>
+        <v>-10688.29550574444</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>39</v>
-      </c>
-      <c r="J64" t="n">
-        <v>215</v>
-      </c>
-      <c r="K64" t="n">
-        <v>24.52830188679245</v>
-      </c>
-      <c r="L64" t="n">
-        <v>871.2</v>
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M64" t="n">
-        <v>863.7</v>
-      </c>
-      <c r="N64" t="n">
-        <v>861.1666666666666</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3538,49 +2764,37 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>874</v>
+        <v>856</v>
       </c>
       <c r="C65" t="n">
-        <v>875</v>
+        <v>856</v>
       </c>
       <c r="D65" t="n">
-        <v>875</v>
+        <v>856</v>
       </c>
       <c r="E65" t="n">
-        <v>874</v>
+        <v>856</v>
       </c>
       <c r="F65" t="n">
-        <v>495.0846</v>
+        <v>38.6522</v>
       </c>
       <c r="G65" t="n">
-        <v>854.5</v>
+        <v>-10688.29550574444</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>40</v>
-      </c>
-      <c r="J65" t="n">
-        <v>216</v>
-      </c>
-      <c r="K65" t="n">
-        <v>13.04347826086956</v>
-      </c>
-      <c r="L65" t="n">
-        <v>872.6</v>
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M65" t="n">
-        <v>864.7</v>
-      </c>
-      <c r="N65" t="n">
-        <v>861.8</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3589,49 +2803,37 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>874</v>
+        <v>859</v>
       </c>
       <c r="C66" t="n">
-        <v>874</v>
+        <v>859</v>
       </c>
       <c r="D66" t="n">
-        <v>874</v>
+        <v>859</v>
       </c>
       <c r="E66" t="n">
-        <v>874</v>
+        <v>859</v>
       </c>
       <c r="F66" t="n">
-        <v>20.2708</v>
+        <v>1</v>
       </c>
       <c r="G66" t="n">
-        <v>855.1333333333333</v>
+        <v>-10687.29550574444</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>39</v>
-      </c>
-      <c r="J66" t="n">
-        <v>217</v>
-      </c>
-      <c r="K66" t="n">
-        <v>-7.692307692307693</v>
-      </c>
-      <c r="L66" t="n">
-        <v>873.1</v>
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M66" t="n">
-        <v>865.75</v>
-      </c>
-      <c r="N66" t="n">
-        <v>862.3</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3640,49 +2842,37 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>874</v>
+        <v>858</v>
       </c>
       <c r="C67" t="n">
-        <v>873</v>
+        <v>857</v>
       </c>
       <c r="D67" t="n">
-        <v>874</v>
+        <v>858</v>
       </c>
       <c r="E67" t="n">
-        <v>873</v>
+        <v>857</v>
       </c>
       <c r="F67" t="n">
-        <v>516.7139</v>
+        <v>561.8754</v>
       </c>
       <c r="G67" t="n">
-        <v>855.75</v>
+        <v>-11249.17090574444</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>38</v>
-      </c>
-      <c r="J67" t="n">
-        <v>218</v>
-      </c>
-      <c r="K67" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L67" t="n">
-        <v>872.7</v>
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M67" t="n">
-        <v>866.75</v>
-      </c>
-      <c r="N67" t="n">
-        <v>862.8333333333334</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3691,49 +2881,37 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>873</v>
+        <v>854</v>
       </c>
       <c r="C68" t="n">
-        <v>873</v>
+        <v>855</v>
       </c>
       <c r="D68" t="n">
-        <v>873</v>
+        <v>855</v>
       </c>
       <c r="E68" t="n">
-        <v>873</v>
+        <v>854</v>
       </c>
       <c r="F68" t="n">
-        <v>270</v>
+        <v>1575.5089</v>
       </c>
       <c r="G68" t="n">
-        <v>856.3833333333333</v>
+        <v>-12824.67980574444</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>38</v>
-      </c>
-      <c r="J68" t="n">
-        <v>218</v>
-      </c>
-      <c r="K68" t="n">
-        <v>-7.692307692307693</v>
-      </c>
-      <c r="L68" t="n">
-        <v>873.1</v>
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M68" t="n">
-        <v>867.55</v>
-      </c>
-      <c r="N68" t="n">
-        <v>863.4333333333333</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3742,49 +2920,37 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>873</v>
+        <v>852</v>
       </c>
       <c r="C69" t="n">
-        <v>874</v>
+        <v>852</v>
       </c>
       <c r="D69" t="n">
-        <v>874</v>
+        <v>852</v>
       </c>
       <c r="E69" t="n">
-        <v>873</v>
+        <v>852</v>
       </c>
       <c r="F69" t="n">
-        <v>62.4</v>
+        <v>170.8157</v>
       </c>
       <c r="G69" t="n">
-        <v>857.0166666666667</v>
+        <v>-12995.49550574444</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>39</v>
-      </c>
-      <c r="J69" t="n">
-        <v>219</v>
-      </c>
-      <c r="K69" t="n">
-        <v>23.80952380952381</v>
-      </c>
-      <c r="L69" t="n">
-        <v>873</v>
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M69" t="n">
-        <v>868.35</v>
-      </c>
-      <c r="N69" t="n">
-        <v>864.1666666666666</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3793,49 +2959,37 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>873</v>
+        <v>858</v>
       </c>
       <c r="C70" t="n">
-        <v>873</v>
+        <v>858</v>
       </c>
       <c r="D70" t="n">
-        <v>873</v>
+        <v>858</v>
       </c>
       <c r="E70" t="n">
-        <v>872</v>
+        <v>858</v>
       </c>
       <c r="F70" t="n">
-        <v>1304.4785</v>
+        <v>1</v>
       </c>
       <c r="G70" t="n">
-        <v>857.6666666666666</v>
+        <v>-12994.49550574444</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>38</v>
-      </c>
-      <c r="J70" t="n">
-        <v>220</v>
-      </c>
-      <c r="K70" t="n">
-        <v>0</v>
-      </c>
-      <c r="L70" t="n">
-        <v>873.4</v>
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M70" t="n">
-        <v>869.25</v>
-      </c>
-      <c r="N70" t="n">
-        <v>864.6666666666666</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3844,49 +2998,37 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>873</v>
+        <v>855</v>
       </c>
       <c r="C71" t="n">
-        <v>873</v>
+        <v>855</v>
       </c>
       <c r="D71" t="n">
-        <v>873</v>
+        <v>855</v>
       </c>
       <c r="E71" t="n">
-        <v>873</v>
+        <v>855</v>
       </c>
       <c r="F71" t="n">
-        <v>217.4131</v>
+        <v>42.9886</v>
       </c>
       <c r="G71" t="n">
-        <v>858.3</v>
+        <v>-13037.48410574444</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>38</v>
-      </c>
-      <c r="J71" t="n">
-        <v>220</v>
-      </c>
-      <c r="K71" t="n">
-        <v>28.57142857142857</v>
-      </c>
-      <c r="L71" t="n">
-        <v>873.4</v>
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M71" t="n">
-        <v>870</v>
-      </c>
-      <c r="N71" t="n">
-        <v>865.2666666666667</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3895,49 +3037,37 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>873</v>
+        <v>862</v>
       </c>
       <c r="C72" t="n">
-        <v>874</v>
+        <v>862</v>
       </c>
       <c r="D72" t="n">
-        <v>874</v>
+        <v>862</v>
       </c>
       <c r="E72" t="n">
-        <v>873</v>
+        <v>862</v>
       </c>
       <c r="F72" t="n">
-        <v>248.1694</v>
+        <v>1</v>
       </c>
       <c r="G72" t="n">
-        <v>858.9166666666666</v>
+        <v>-13036.48410574444</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>39</v>
-      </c>
-      <c r="J72" t="n">
-        <v>221</v>
-      </c>
-      <c r="K72" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L72" t="n">
-        <v>873.9</v>
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M72" t="n">
-        <v>871.05</v>
-      </c>
-      <c r="N72" t="n">
-        <v>865.6666666666666</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3946,49 +3076,37 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>874</v>
+        <v>854</v>
       </c>
       <c r="C73" t="n">
-        <v>874</v>
+        <v>854</v>
       </c>
       <c r="D73" t="n">
-        <v>874</v>
+        <v>854</v>
       </c>
       <c r="E73" t="n">
-        <v>874</v>
+        <v>854</v>
       </c>
       <c r="F73" t="n">
-        <v>68.19589999999999</v>
+        <v>515.175</v>
       </c>
       <c r="G73" t="n">
-        <v>859.5166666666667</v>
+        <v>-13551.65910574444</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>39</v>
-      </c>
-      <c r="J73" t="n">
-        <v>221</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0</v>
-      </c>
-      <c r="L73" t="n">
-        <v>873.7</v>
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M73" t="n">
-        <v>871.85</v>
-      </c>
-      <c r="N73" t="n">
-        <v>866.3333333333334</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3997,49 +3115,37 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>877</v>
+        <v>853</v>
       </c>
       <c r="C74" t="n">
-        <v>882</v>
+        <v>853</v>
       </c>
       <c r="D74" t="n">
-        <v>882</v>
+        <v>853</v>
       </c>
       <c r="E74" t="n">
-        <v>877</v>
+        <v>853</v>
       </c>
       <c r="F74" t="n">
-        <v>1995</v>
+        <v>541.6014</v>
       </c>
       <c r="G74" t="n">
-        <v>860.2666666666667</v>
+        <v>-14093.26050574444</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>47</v>
-      </c>
-      <c r="J74" t="n">
-        <v>229</v>
-      </c>
-      <c r="K74" t="n">
-        <v>53.84615384615385</v>
-      </c>
-      <c r="L74" t="n">
-        <v>874.5</v>
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M74" t="n">
-        <v>872.85</v>
-      </c>
-      <c r="N74" t="n">
-        <v>867.3</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4048,49 +3154,37 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>881</v>
+        <v>855</v>
       </c>
       <c r="C75" t="n">
-        <v>881</v>
+        <v>855</v>
       </c>
       <c r="D75" t="n">
-        <v>881</v>
+        <v>855</v>
       </c>
       <c r="E75" t="n">
-        <v>881</v>
+        <v>855</v>
       </c>
       <c r="F75" t="n">
-        <v>270</v>
+        <v>725.3239</v>
       </c>
       <c r="G75" t="n">
-        <v>861.1</v>
+        <v>-13367.93660574444</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>46</v>
-      </c>
-      <c r="J75" t="n">
-        <v>230</v>
-      </c>
-      <c r="K75" t="n">
-        <v>53.84615384615385</v>
-      </c>
-      <c r="L75" t="n">
-        <v>875.1</v>
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M75" t="n">
-        <v>873.85</v>
-      </c>
-      <c r="N75" t="n">
-        <v>868.1666666666666</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4099,49 +3193,37 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>875</v>
+        <v>853</v>
       </c>
       <c r="C76" t="n">
-        <v>875</v>
+        <v>853</v>
       </c>
       <c r="D76" t="n">
-        <v>875</v>
+        <v>853</v>
       </c>
       <c r="E76" t="n">
-        <v>875</v>
+        <v>853</v>
       </c>
       <c r="F76" t="n">
-        <v>700</v>
+        <v>182.2</v>
       </c>
       <c r="G76" t="n">
-        <v>861.75</v>
+        <v>-13550.13660574444</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>40</v>
-      </c>
-      <c r="J76" t="n">
-        <v>236</v>
-      </c>
-      <c r="K76" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L76" t="n">
-        <v>875.2</v>
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M76" t="n">
-        <v>874.15</v>
-      </c>
-      <c r="N76" t="n">
-        <v>868.9</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4150,49 +3232,37 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>875</v>
+        <v>853</v>
       </c>
       <c r="C77" t="n">
-        <v>876</v>
+        <v>853</v>
       </c>
       <c r="D77" t="n">
-        <v>876</v>
+        <v>853</v>
       </c>
       <c r="E77" t="n">
-        <v>874</v>
+        <v>853</v>
       </c>
       <c r="F77" t="n">
-        <v>137.4891</v>
+        <v>211.8842</v>
       </c>
       <c r="G77" t="n">
-        <v>862.4</v>
+        <v>-13550.13660574444</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>41</v>
-      </c>
-      <c r="J77" t="n">
-        <v>237</v>
-      </c>
-      <c r="K77" t="n">
-        <v>15.78947368421053</v>
-      </c>
-      <c r="L77" t="n">
-        <v>875.5</v>
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M77" t="n">
-        <v>874.1</v>
-      </c>
-      <c r="N77" t="n">
-        <v>869.6666666666666</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4201,49 +3271,37 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>872</v>
+        <v>857</v>
       </c>
       <c r="C78" t="n">
-        <v>873</v>
+        <v>857</v>
       </c>
       <c r="D78" t="n">
-        <v>873</v>
+        <v>857</v>
       </c>
       <c r="E78" t="n">
-        <v>872</v>
+        <v>857</v>
       </c>
       <c r="F78" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G78" t="n">
-        <v>862.85</v>
+        <v>-13549.13660574444</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>38</v>
-      </c>
-      <c r="J78" t="n">
-        <v>240</v>
-      </c>
-      <c r="K78" t="n">
-        <v>-4.761904761904762</v>
-      </c>
-      <c r="L78" t="n">
-        <v>875.5</v>
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M78" t="n">
-        <v>874.3</v>
-      </c>
-      <c r="N78" t="n">
-        <v>870.2</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4252,49 +3310,37 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>872</v>
+        <v>857</v>
       </c>
       <c r="C79" t="n">
-        <v>872</v>
+        <v>858</v>
       </c>
       <c r="D79" t="n">
-        <v>872</v>
+        <v>858</v>
       </c>
       <c r="E79" t="n">
-        <v>872</v>
+        <v>857</v>
       </c>
       <c r="F79" t="n">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="G79" t="n">
-        <v>863.3</v>
+        <v>-13505.13660574444</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>37</v>
-      </c>
-      <c r="J79" t="n">
-        <v>241</v>
-      </c>
-      <c r="K79" t="n">
-        <v>-4.761904761904762</v>
-      </c>
-      <c r="L79" t="n">
-        <v>875.3</v>
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M79" t="n">
-        <v>874.15</v>
-      </c>
-      <c r="N79" t="n">
-        <v>870.6666666666666</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4303,49 +3349,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>873</v>
+        <v>855</v>
       </c>
       <c r="C80" t="n">
-        <v>873</v>
+        <v>855</v>
       </c>
       <c r="D80" t="n">
-        <v>873</v>
+        <v>855</v>
       </c>
       <c r="E80" t="n">
-        <v>873</v>
+        <v>855</v>
       </c>
       <c r="F80" t="n">
-        <v>1</v>
+        <v>500.53</v>
       </c>
       <c r="G80" t="n">
-        <v>863.7333333333333</v>
+        <v>-14005.66660574444</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>242</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0</v>
-      </c>
-      <c r="L80" t="n">
-        <v>875.3</v>
+        <v>858</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M80" t="n">
-        <v>874.35</v>
-      </c>
-      <c r="N80" t="n">
-        <v>871.2666666666667</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4354,49 +3390,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>872</v>
+        <v>858</v>
       </c>
       <c r="C81" t="n">
-        <v>872</v>
+        <v>858</v>
       </c>
       <c r="D81" t="n">
-        <v>872</v>
+        <v>858</v>
       </c>
       <c r="E81" t="n">
-        <v>872</v>
+        <v>858</v>
       </c>
       <c r="F81" t="n">
         <v>1</v>
       </c>
       <c r="G81" t="n">
-        <v>864.15</v>
+        <v>-14004.66660574444</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>243</v>
-      </c>
-      <c r="K81" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L81" t="n">
-        <v>875.2</v>
+        <v>855</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M81" t="n">
-        <v>874.3</v>
-      </c>
-      <c r="N81" t="n">
-        <v>871.7333333333333</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4405,49 +3431,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>872</v>
+        <v>853</v>
       </c>
       <c r="C82" t="n">
-        <v>872</v>
+        <v>853</v>
       </c>
       <c r="D82" t="n">
-        <v>872</v>
+        <v>853</v>
       </c>
       <c r="E82" t="n">
-        <v>872</v>
+        <v>853</v>
       </c>
       <c r="F82" t="n">
-        <v>14.5097</v>
+        <v>40</v>
       </c>
       <c r="G82" t="n">
-        <v>864.5666666666667</v>
+        <v>-14044.66660574444</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>243</v>
-      </c>
-      <c r="K82" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L82" t="n">
-        <v>875</v>
+        <v>858</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M82" t="n">
-        <v>874.45</v>
-      </c>
-      <c r="N82" t="n">
-        <v>872.3666666666667</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4456,49 +3472,37 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>876</v>
+        <v>857</v>
       </c>
       <c r="C83" t="n">
-        <v>878</v>
+        <v>858</v>
       </c>
       <c r="D83" t="n">
-        <v>878</v>
+        <v>858</v>
       </c>
       <c r="E83" t="n">
-        <v>876</v>
+        <v>857</v>
       </c>
       <c r="F83" t="n">
-        <v>26.117</v>
+        <v>31</v>
       </c>
       <c r="G83" t="n">
-        <v>865.05</v>
+        <v>-14013.66660574444</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>43</v>
-      </c>
-      <c r="J83" t="n">
-        <v>249</v>
-      </c>
-      <c r="K83" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L83" t="n">
-        <v>875.4</v>
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M83" t="n">
-        <v>874.55</v>
-      </c>
-      <c r="N83" t="n">
-        <v>873.0333333333333</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4507,49 +3511,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>875</v>
+        <v>858</v>
       </c>
       <c r="C84" t="n">
-        <v>875</v>
+        <v>862</v>
       </c>
       <c r="D84" t="n">
-        <v>875</v>
+        <v>862</v>
       </c>
       <c r="E84" t="n">
-        <v>875</v>
+        <v>858</v>
       </c>
       <c r="F84" t="n">
-        <v>800</v>
+        <v>1005</v>
       </c>
       <c r="G84" t="n">
-        <v>865.4333333333333</v>
+        <v>-13008.66660574444</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>252</v>
-      </c>
-      <c r="K84" t="n">
-        <v>-27.27272727272727</v>
-      </c>
-      <c r="L84" t="n">
-        <v>874.7</v>
+        <v>858</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M84" t="n">
-        <v>874.6</v>
-      </c>
-      <c r="N84" t="n">
-        <v>873.4666666666667</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4558,49 +3552,37 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>875</v>
+        <v>861</v>
       </c>
       <c r="C85" t="n">
-        <v>875</v>
+        <v>861</v>
       </c>
       <c r="D85" t="n">
-        <v>875</v>
+        <v>861</v>
       </c>
       <c r="E85" t="n">
-        <v>875</v>
+        <v>861</v>
       </c>
       <c r="F85" t="n">
-        <v>208000</v>
+        <v>1400</v>
       </c>
       <c r="G85" t="n">
-        <v>865.8</v>
+        <v>-14408.66660574444</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>40</v>
-      </c>
-      <c r="J85" t="n">
-        <v>252</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0</v>
-      </c>
-      <c r="L85" t="n">
-        <v>874.1</v>
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M85" t="n">
-        <v>874.6</v>
-      </c>
-      <c r="N85" t="n">
-        <v>873.9333333333333</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4609,49 +3591,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>875</v>
+        <v>862</v>
       </c>
       <c r="C86" t="n">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="D86" t="n">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="E86" t="n">
-        <v>875</v>
+        <v>862</v>
       </c>
       <c r="F86" t="n">
-        <v>213600</v>
+        <v>1222.8594</v>
       </c>
       <c r="G86" t="n">
-        <v>866.1166666666667</v>
+        <v>-13185.80720574444</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>252</v>
-      </c>
-      <c r="K86" t="n">
-        <v>-6.666666666666667</v>
-      </c>
-      <c r="L86" t="n">
-        <v>874.1</v>
+        <v>861</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M86" t="n">
-        <v>874.65</v>
-      </c>
-      <c r="N86" t="n">
-        <v>874.1333333333333</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4660,49 +3632,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="C87" t="n">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="D87" t="n">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="E87" t="n">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="F87" t="n">
-        <v>214706</v>
+        <v>87.43429999999999</v>
       </c>
       <c r="G87" t="n">
-        <v>866.45</v>
+        <v>-13098.37290574444</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>252</v>
-      </c>
-      <c r="K87" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="L87" t="n">
-        <v>874</v>
+        <v>869</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M87" t="n">
-        <v>874.75</v>
-      </c>
-      <c r="N87" t="n">
-        <v>874.0666666666667</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4711,49 +3673,37 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>875</v>
+        <v>864</v>
       </c>
       <c r="C88" t="n">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="D88" t="n">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="E88" t="n">
-        <v>874</v>
+        <v>864</v>
       </c>
       <c r="F88" t="n">
-        <v>219200</v>
+        <v>133.0413</v>
       </c>
       <c r="G88" t="n">
-        <v>866.4166666666666</v>
+        <v>-13231.41420574444</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>40</v>
-      </c>
-      <c r="J88" t="n">
-        <v>252</v>
-      </c>
-      <c r="K88" t="n">
-        <v>27.27272727272727</v>
-      </c>
-      <c r="L88" t="n">
-        <v>874.2</v>
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M88" t="n">
-        <v>874.85</v>
-      </c>
-      <c r="N88" t="n">
-        <v>874.2666666666667</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4762,7 +3712,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="C89" t="n">
         <v>875</v>
@@ -4771,40 +3721,28 @@
         <v>875</v>
       </c>
       <c r="E89" t="n">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="F89" t="n">
-        <v>331040</v>
+        <v>206.1041</v>
       </c>
       <c r="G89" t="n">
-        <v>866.5666666666667</v>
+        <v>-13025.31010574444</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>40</v>
-      </c>
-      <c r="J89" t="n">
-        <v>252</v>
-      </c>
-      <c r="K89" t="n">
-        <v>20</v>
-      </c>
-      <c r="L89" t="n">
-        <v>874.5</v>
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M89" t="n">
-        <v>874.9</v>
-      </c>
-      <c r="N89" t="n">
-        <v>874.2666666666667</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4813,49 +3751,37 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>875</v>
+        <v>865</v>
       </c>
       <c r="C90" t="n">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="D90" t="n">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="E90" t="n">
-        <v>875</v>
+        <v>865</v>
       </c>
       <c r="F90" t="n">
-        <v>42500</v>
+        <v>450.5841</v>
       </c>
       <c r="G90" t="n">
-        <v>866.7166666666667</v>
+        <v>-13475.89420574444</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>40</v>
-      </c>
-      <c r="J90" t="n">
-        <v>252</v>
-      </c>
-      <c r="K90" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L90" t="n">
-        <v>874.7</v>
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M90" t="n">
-        <v>875</v>
-      </c>
-      <c r="N90" t="n">
-        <v>874.4666666666667</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4864,49 +3790,37 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="C91" t="n">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="D91" t="n">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E91" t="n">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="F91" t="n">
-        <v>256954.8</v>
+        <v>1</v>
       </c>
       <c r="G91" t="n">
-        <v>867</v>
+        <v>-13474.89420574444</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>40</v>
-      </c>
-      <c r="J91" t="n">
-        <v>252</v>
-      </c>
-      <c r="K91" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L91" t="n">
-        <v>875</v>
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M91" t="n">
-        <v>875.1</v>
-      </c>
-      <c r="N91" t="n">
-        <v>874.5333333333333</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4915,49 +3829,37 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="C92" t="n">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="D92" t="n">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="E92" t="n">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="F92" t="n">
-        <v>147200</v>
+        <v>26.1758</v>
       </c>
       <c r="G92" t="n">
-        <v>867.35</v>
+        <v>-13501.07000574444</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>40</v>
-      </c>
-      <c r="J92" t="n">
-        <v>252</v>
-      </c>
-      <c r="K92" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L92" t="n">
-        <v>875.3</v>
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M92" t="n">
-        <v>875.15</v>
-      </c>
-      <c r="N92" t="n">
-        <v>874.7333333333333</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4966,47 +3868,37 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C93" t="n">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="D93" t="n">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E93" t="n">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="F93" t="n">
-        <v>14893.92018244014</v>
+        <v>118.952</v>
       </c>
       <c r="G93" t="n">
-        <v>867.6333333333333</v>
+        <v>-13382.11800574444</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>40</v>
-      </c>
-      <c r="J93" t="n">
-        <v>252</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>875</v>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M93" t="n">
-        <v>875.2</v>
-      </c>
-      <c r="N93" t="n">
-        <v>874.7</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5015,49 +3907,37 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="C94" t="n">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="D94" t="n">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="E94" t="n">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="F94" t="n">
-        <v>1</v>
+        <v>373.5</v>
       </c>
       <c r="G94" t="n">
-        <v>868</v>
+        <v>-13755.61800574444</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>43</v>
-      </c>
-      <c r="J94" t="n">
-        <v>255</v>
-      </c>
-      <c r="K94" t="n">
-        <v>100</v>
-      </c>
-      <c r="L94" t="n">
-        <v>875.3</v>
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M94" t="n">
-        <v>875</v>
-      </c>
-      <c r="N94" t="n">
-        <v>874.8333333333334</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5066,49 +3946,37 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="C95" t="n">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="D95" t="n">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="E95" t="n">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="F95" t="n">
-        <v>424.656</v>
+        <v>495.0846</v>
       </c>
       <c r="G95" t="n">
-        <v>868.2833333333333</v>
+        <v>-13260.53340574444</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>38</v>
-      </c>
-      <c r="J95" t="n">
-        <v>260</v>
-      </c>
-      <c r="K95" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L95" t="n">
-        <v>875.1</v>
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M95" t="n">
-        <v>874.6</v>
-      </c>
-      <c r="N95" t="n">
-        <v>874.7666666666667</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5117,49 +3985,37 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C96" t="n">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D96" t="n">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E96" t="n">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="F96" t="n">
-        <v>500.1274</v>
+        <v>20.2708</v>
       </c>
       <c r="G96" t="n">
-        <v>868.55</v>
+        <v>-13280.80420574444</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>40</v>
-      </c>
-      <c r="J96" t="n">
-        <v>262</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0</v>
-      </c>
-      <c r="L96" t="n">
-        <v>875.1</v>
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M96" t="n">
-        <v>874.6</v>
-      </c>
-      <c r="N96" t="n">
-        <v>874.8</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5168,49 +4024,37 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C97" t="n">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="D97" t="n">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E97" t="n">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="F97" t="n">
-        <v>31200</v>
+        <v>516.7139</v>
       </c>
       <c r="G97" t="n">
-        <v>868.85</v>
+        <v>-13797.51810574444</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>40</v>
-      </c>
-      <c r="J97" t="n">
-        <v>262</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0</v>
-      </c>
-      <c r="L97" t="n">
-        <v>875.1</v>
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M97" t="n">
-        <v>874.55</v>
-      </c>
-      <c r="N97" t="n">
-        <v>874.8666666666667</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5219,49 +4063,37 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="C98" t="n">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="D98" t="n">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E98" t="n">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="F98" t="n">
-        <v>178750</v>
+        <v>270</v>
       </c>
       <c r="G98" t="n">
-        <v>869.1833333333333</v>
+        <v>-13797.51810574444</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>40</v>
-      </c>
-      <c r="J98" t="n">
-        <v>262</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>875.1</v>
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M98" t="n">
-        <v>874.65</v>
-      </c>
-      <c r="N98" t="n">
-        <v>874.9333333333333</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5270,49 +4102,37 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="C99" t="n">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D99" t="n">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E99" t="n">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="F99" t="n">
-        <v>175500</v>
+        <v>62.4</v>
       </c>
       <c r="G99" t="n">
-        <v>869.5666666666667</v>
+        <v>-13735.11810574444</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>40</v>
-      </c>
-      <c r="J99" t="n">
-        <v>262</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0</v>
-      </c>
-      <c r="L99" t="n">
-        <v>875.1</v>
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M99" t="n">
-        <v>874.8</v>
-      </c>
-      <c r="N99" t="n">
-        <v>874.9666666666667</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5321,49 +4141,37 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="C100" t="n">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="D100" t="n">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E100" t="n">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="F100" t="n">
-        <v>211527.4224</v>
+        <v>1304.4785</v>
       </c>
       <c r="G100" t="n">
-        <v>869.85</v>
+        <v>-15039.59660574444</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>40</v>
-      </c>
-      <c r="J100" t="n">
-        <v>262</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0</v>
-      </c>
-      <c r="L100" t="n">
-        <v>875.1</v>
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M100" t="n">
-        <v>874.9</v>
-      </c>
-      <c r="N100" t="n">
-        <v>875.0333333333333</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5372,49 +4180,37 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="C101" t="n">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="D101" t="n">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E101" t="n">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="F101" t="n">
-        <v>414260</v>
+        <v>217.4131</v>
       </c>
       <c r="G101" t="n">
-        <v>870.1833333333333</v>
+        <v>-15039.59660574444</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>40</v>
-      </c>
-      <c r="J101" t="n">
-        <v>262</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0</v>
-      </c>
-      <c r="L101" t="n">
-        <v>875.1</v>
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M101" t="n">
-        <v>875.05</v>
-      </c>
-      <c r="N101" t="n">
-        <v>875.1</v>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5423,49 +4219,37 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="C102" t="n">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D102" t="n">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E102" t="n">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="F102" t="n">
-        <v>415800</v>
+        <v>248.1694</v>
       </c>
       <c r="G102" t="n">
-        <v>870.4</v>
+        <v>-14791.42720574444</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>40</v>
-      </c>
-      <c r="J102" t="n">
-        <v>262</v>
-      </c>
-      <c r="K102" t="n">
-        <v>0</v>
-      </c>
-      <c r="L102" t="n">
-        <v>875.1</v>
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M102" t="n">
-        <v>875.2</v>
-      </c>
-      <c r="N102" t="n">
-        <v>875.1333333333333</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5474,49 +4258,37 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C103" t="n">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D103" t="n">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="E103" t="n">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="F103" t="n">
-        <v>112970</v>
+        <v>68.19589999999999</v>
       </c>
       <c r="G103" t="n">
-        <v>870.75</v>
+        <v>-14791.42720574444</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>40</v>
-      </c>
-      <c r="J103" t="n">
-        <v>262</v>
-      </c>
-      <c r="K103" t="n">
-        <v>-42.85714285714285</v>
-      </c>
-      <c r="L103" t="n">
-        <v>875.1</v>
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M103" t="n">
-        <v>875.05</v>
-      </c>
-      <c r="N103" t="n">
-        <v>875.1666666666666</v>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5525,49 +4297,37 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="C104" t="n">
-        <v>875</v>
+        <v>882</v>
       </c>
       <c r="D104" t="n">
-        <v>876</v>
+        <v>882</v>
       </c>
       <c r="E104" t="n">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="F104" t="n">
-        <v>81986.66190000001</v>
+        <v>1995</v>
       </c>
       <c r="G104" t="n">
-        <v>871.1166666666667</v>
+        <v>-12796.42720574444</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>40</v>
-      </c>
-      <c r="J104" t="n">
-        <v>262</v>
-      </c>
-      <c r="K104" t="n">
-        <v>100</v>
-      </c>
-      <c r="L104" t="n">
-        <v>874.8</v>
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M104" t="n">
-        <v>875.05</v>
-      </c>
-      <c r="N104" t="n">
-        <v>874.9333333333333</v>
-      </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5576,49 +4336,37 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>874</v>
+        <v>881</v>
       </c>
       <c r="C105" t="n">
-        <v>874</v>
+        <v>881</v>
       </c>
       <c r="D105" t="n">
-        <v>874</v>
+        <v>881</v>
       </c>
       <c r="E105" t="n">
-        <v>874</v>
+        <v>881</v>
       </c>
       <c r="F105" t="n">
-        <v>820.6827</v>
+        <v>270</v>
       </c>
       <c r="G105" t="n">
-        <v>871.4333333333333</v>
+        <v>-13066.42720574444</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>39</v>
-      </c>
-      <c r="J105" t="n">
-        <v>263</v>
-      </c>
-      <c r="K105" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L105" t="n">
-        <v>874.9</v>
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M105" t="n">
-        <v>875</v>
-      </c>
-      <c r="N105" t="n">
-        <v>874.7</v>
-      </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5627,49 +4375,37 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="C106" t="n">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="D106" t="n">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="E106" t="n">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="F106" t="n">
-        <v>570.3</v>
+        <v>700</v>
       </c>
       <c r="G106" t="n">
-        <v>871.7833333333333</v>
+        <v>-13766.42720574444</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>39</v>
-      </c>
-      <c r="J106" t="n">
-        <v>263</v>
-      </c>
-      <c r="K106" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L106" t="n">
-        <v>874.8</v>
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M106" t="n">
-        <v>874.95</v>
-      </c>
-      <c r="N106" t="n">
-        <v>874.6666666666666</v>
-      </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5678,49 +4414,37 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
+        <v>875</v>
+      </c>
+      <c r="C107" t="n">
+        <v>876</v>
+      </c>
+      <c r="D107" t="n">
+        <v>876</v>
+      </c>
+      <c r="E107" t="n">
         <v>874</v>
       </c>
-      <c r="C107" t="n">
-        <v>874</v>
-      </c>
-      <c r="D107" t="n">
-        <v>874</v>
-      </c>
-      <c r="E107" t="n">
-        <v>873</v>
-      </c>
       <c r="F107" t="n">
-        <v>71.41370000000001</v>
+        <v>137.4891</v>
       </c>
       <c r="G107" t="n">
-        <v>872.1333333333333</v>
+        <v>-13628.93810574444</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>39</v>
-      </c>
-      <c r="J107" t="n">
-        <v>263</v>
-      </c>
-      <c r="K107" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L107" t="n">
-        <v>874.7</v>
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M107" t="n">
-        <v>874.9</v>
-      </c>
-      <c r="N107" t="n">
-        <v>874.6</v>
-      </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5729,49 +4453,37 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="C108" t="n">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="D108" t="n">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="E108" t="n">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F108" t="n">
-        <v>2.074370709382151</v>
+        <v>3</v>
       </c>
       <c r="G108" t="n">
-        <v>872.4166666666666</v>
+        <v>-13631.93810574444</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>39</v>
-      </c>
-      <c r="J108" t="n">
-        <v>263</v>
-      </c>
-      <c r="K108" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L108" t="n">
-        <v>874.6</v>
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M108" t="n">
-        <v>874.85</v>
-      </c>
-      <c r="N108" t="n">
-        <v>874.6333333333333</v>
-      </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5780,49 +4492,720 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
+        <v>872</v>
+      </c>
+      <c r="C109" t="n">
+        <v>872</v>
+      </c>
+      <c r="D109" t="n">
+        <v>872</v>
+      </c>
+      <c r="E109" t="n">
+        <v>872</v>
+      </c>
+      <c r="F109" t="n">
+        <v>2</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-13633.93810574444</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>873</v>
+      </c>
+      <c r="C110" t="n">
+        <v>873</v>
+      </c>
+      <c r="D110" t="n">
+        <v>873</v>
+      </c>
+      <c r="E110" t="n">
+        <v>873</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-13632.93810574444</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>872</v>
+      </c>
+      <c r="C111" t="n">
+        <v>872</v>
+      </c>
+      <c r="D111" t="n">
+        <v>872</v>
+      </c>
+      <c r="E111" t="n">
+        <v>872</v>
+      </c>
+      <c r="F111" t="n">
+        <v>1</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-13633.93810574444</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>872</v>
+      </c>
+      <c r="C112" t="n">
+        <v>872</v>
+      </c>
+      <c r="D112" t="n">
+        <v>872</v>
+      </c>
+      <c r="E112" t="n">
+        <v>872</v>
+      </c>
+      <c r="F112" t="n">
+        <v>14.5097</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-13633.93810574444</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>876</v>
+      </c>
+      <c r="C113" t="n">
+        <v>878</v>
+      </c>
+      <c r="D113" t="n">
+        <v>878</v>
+      </c>
+      <c r="E113" t="n">
+        <v>876</v>
+      </c>
+      <c r="F113" t="n">
+        <v>26.117</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-13607.82110574444</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>875</v>
+      </c>
+      <c r="C114" t="n">
+        <v>875</v>
+      </c>
+      <c r="D114" t="n">
+        <v>875</v>
+      </c>
+      <c r="E114" t="n">
+        <v>875</v>
+      </c>
+      <c r="F114" t="n">
+        <v>800</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-14407.82110574444</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>1</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>875</v>
+      </c>
+      <c r="C115" t="n">
+        <v>875</v>
+      </c>
+      <c r="D115" t="n">
+        <v>875</v>
+      </c>
+      <c r="E115" t="n">
+        <v>875</v>
+      </c>
+      <c r="F115" t="n">
+        <v>208000</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-14407.82110574444</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>1</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>875</v>
+      </c>
+      <c r="C116" t="n">
+        <v>875</v>
+      </c>
+      <c r="D116" t="n">
+        <v>875</v>
+      </c>
+      <c r="E116" t="n">
+        <v>875</v>
+      </c>
+      <c r="F116" t="n">
+        <v>213600</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-14407.82110574444</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>1</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>875</v>
+      </c>
+      <c r="C117" t="n">
+        <v>875</v>
+      </c>
+      <c r="D117" t="n">
+        <v>875</v>
+      </c>
+      <c r="E117" t="n">
         <v>866</v>
       </c>
-      <c r="C109" t="n">
-        <v>866</v>
-      </c>
-      <c r="D109" t="n">
-        <v>866</v>
-      </c>
-      <c r="E109" t="n">
-        <v>865</v>
-      </c>
-      <c r="F109" t="n">
-        <v>2329.2719</v>
-      </c>
-      <c r="G109" t="n">
-        <v>872.55</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>31</v>
-      </c>
-      <c r="J109" t="n">
-        <v>271</v>
-      </c>
-      <c r="K109" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L109" t="n">
-        <v>873.7</v>
-      </c>
-      <c r="M109" t="n">
-        <v>874.4</v>
-      </c>
-      <c r="N109" t="n">
-        <v>874.4333333333333</v>
-      </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="n">
+      <c r="F117" t="n">
+        <v>214706</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-14407.82110574444</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>1</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>875</v>
+      </c>
+      <c r="C118" t="n">
+        <v>875</v>
+      </c>
+      <c r="D118" t="n">
+        <v>875</v>
+      </c>
+      <c r="E118" t="n">
+        <v>874</v>
+      </c>
+      <c r="F118" t="n">
+        <v>219200</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-14407.82110574444</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>1</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>875</v>
+      </c>
+      <c r="C119" t="n">
+        <v>875</v>
+      </c>
+      <c r="D119" t="n">
+        <v>875</v>
+      </c>
+      <c r="E119" t="n">
+        <v>874</v>
+      </c>
+      <c r="F119" t="n">
+        <v>331040</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-14407.82110574444</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>875</v>
+      </c>
+      <c r="C120" t="n">
+        <v>875</v>
+      </c>
+      <c r="D120" t="n">
+        <v>875</v>
+      </c>
+      <c r="E120" t="n">
+        <v>875</v>
+      </c>
+      <c r="F120" t="n">
+        <v>42500</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-14407.82110574444</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>1</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>875</v>
+      </c>
+      <c r="C121" t="n">
+        <v>875</v>
+      </c>
+      <c r="D121" t="n">
+        <v>875</v>
+      </c>
+      <c r="E121" t="n">
+        <v>871</v>
+      </c>
+      <c r="F121" t="n">
+        <v>256954.8</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-14407.82110574444</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>1</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>875</v>
+      </c>
+      <c r="C122" t="n">
+        <v>875</v>
+      </c>
+      <c r="D122" t="n">
+        <v>875</v>
+      </c>
+      <c r="E122" t="n">
+        <v>875</v>
+      </c>
+      <c r="F122" t="n">
+        <v>147200</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-14407.82110574444</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>1</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>877</v>
+      </c>
+      <c r="C123" t="n">
+        <v>875</v>
+      </c>
+      <c r="D123" t="n">
+        <v>877</v>
+      </c>
+      <c r="E123" t="n">
+        <v>875</v>
+      </c>
+      <c r="F123" t="n">
+        <v>14893.92018244014</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-14407.82110574444</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>878</v>
+      </c>
+      <c r="C124" t="n">
+        <v>878</v>
+      </c>
+      <c r="D124" t="n">
+        <v>878</v>
+      </c>
+      <c r="E124" t="n">
+        <v>878</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-14406.82110574444</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>1</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>873</v>
+      </c>
+      <c r="C125" t="n">
+        <v>873</v>
+      </c>
+      <c r="D125" t="n">
+        <v>873</v>
+      </c>
+      <c r="E125" t="n">
+        <v>873</v>
+      </c>
+      <c r="F125" t="n">
+        <v>424.656</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-14831.47710574444</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>1</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>875</v>
+      </c>
+      <c r="C126" t="n">
+        <v>875</v>
+      </c>
+      <c r="D126" t="n">
+        <v>875</v>
+      </c>
+      <c r="E126" t="n">
+        <v>875</v>
+      </c>
+      <c r="F126" t="n">
+        <v>500.1274</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-14331.34970574444</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>875</v>
+      </c>
+      <c r="C127" t="n">
+        <v>875</v>
+      </c>
+      <c r="D127" t="n">
+        <v>875</v>
+      </c>
+      <c r="E127" t="n">
+        <v>875</v>
+      </c>
+      <c r="F127" t="n">
+        <v>31200</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-14331.34970574444</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>1</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>875</v>
+      </c>
+      <c r="C128" t="n">
+        <v>875</v>
+      </c>
+      <c r="D128" t="n">
+        <v>875</v>
+      </c>
+      <c r="E128" t="n">
+        <v>875</v>
+      </c>
+      <c r="F128" t="n">
+        <v>178750</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-14331.34970574444</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-02 BackTest WTC.xlsx
+++ b/BackTest/2019-11-02 BackTest WTC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M128"/>
+  <dimension ref="A1:N128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -777,6 +791,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -847,6 +863,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -882,6 +899,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -917,6 +935,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -952,6 +971,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -987,6 +1007,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1022,6 +1043,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1057,6 +1079,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1092,6 +1115,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1127,6 +1151,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1162,6 +1187,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1197,6 +1223,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1232,6 +1259,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1267,6 +1295,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1302,6 +1331,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1337,6 +1367,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1372,6 +1403,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1407,6 +1439,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1442,6 +1475,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1477,6 +1511,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1512,6 +1547,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1547,6 +1583,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1582,6 +1619,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1617,6 +1655,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1652,6 +1691,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1693,6 +1733,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1734,6 +1775,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1775,6 +1817,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1816,6 +1859,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1855,6 +1899,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1896,6 +1941,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1937,6 +1983,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1978,6 +2025,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2017,6 +2065,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2056,6 +2105,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2095,6 +2145,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2134,6 +2185,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2173,6 +2225,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2212,6 +2265,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2251,6 +2305,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2290,6 +2345,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2329,6 +2385,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2368,6 +2425,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2407,6 +2465,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2446,6 +2505,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2485,6 +2545,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2524,6 +2585,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2563,6 +2625,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2602,6 +2665,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2641,6 +2705,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2680,6 +2745,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2719,6 +2785,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2758,6 +2825,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2797,6 +2865,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2836,6 +2905,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2875,6 +2945,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2914,6 +2985,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2953,6 +3025,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2992,6 +3065,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3031,6 +3105,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3070,6 +3145,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3109,6 +3185,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3148,6 +3225,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3187,6 +3265,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3226,6 +3305,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3265,6 +3345,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3304,6 +3385,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3343,6 +3425,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3384,6 +3467,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3425,6 +3509,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3466,6 +3551,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3505,6 +3591,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3546,6 +3633,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3585,6 +3673,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3626,6 +3715,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3667,6 +3757,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3706,6 +3797,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3745,6 +3837,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3784,6 +3877,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3823,6 +3917,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3862,6 +3957,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3901,6 +3997,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3940,6 +4037,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3979,6 +4077,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4018,6 +4117,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4057,6 +4157,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4096,6 +4197,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4135,6 +4237,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4174,6 +4277,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4213,6 +4317,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4252,6 +4357,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4291,6 +4397,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4330,6 +4437,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4357,17 +4465,18 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
+        <v>1.018072289156627</v>
       </c>
     </row>
     <row r="106">
@@ -4396,18 +4505,15 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4435,18 +4541,15 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4474,18 +4577,15 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4513,18 +4613,15 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4552,18 +4649,15 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4591,18 +4685,15 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4630,18 +4721,15 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4669,18 +4757,15 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4712,12 +4797,11 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4753,6 +4837,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4788,6 +4873,7 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4823,6 +4909,7 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4858,6 +4945,7 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4885,7 +4973,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
@@ -4893,6 +4981,7 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4928,6 +5017,7 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4963,6 +5053,7 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4998,6 +5089,7 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5025,7 +5117,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
@@ -5033,6 +5125,7 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5068,6 +5161,7 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5103,6 +5197,7 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5130,7 +5225,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
@@ -5138,6 +5233,7 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5173,6 +5269,7 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5200,7 +5297,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
@@ -5208,6 +5305,7 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-11-02 BackTest WTC.xlsx
+++ b/BackTest/2019-11-02 BackTest WTC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N128"/>
+  <dimension ref="A1:N157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="C2" t="n">
-        <v>830</v>
+        <v>835</v>
       </c>
       <c r="D2" t="n">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E2" t="n">
-        <v>830</v>
+        <v>835</v>
       </c>
       <c r="F2" t="n">
-        <v>5692.2878</v>
+        <v>281.3856</v>
       </c>
       <c r="G2" t="n">
-        <v>-20983.43070574443</v>
+        <v>-13909.76120574443</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C3" t="n">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="D3" t="n">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="E3" t="n">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F3" t="n">
-        <v>93.3259</v>
+        <v>2364</v>
       </c>
       <c r="G3" t="n">
-        <v>-20890.10480574443</v>
+        <v>-11545.76120574443</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>832</v>
+        <v>842</v>
       </c>
       <c r="C4" t="n">
-        <v>831</v>
+        <v>842</v>
       </c>
       <c r="D4" t="n">
-        <v>832</v>
+        <v>842</v>
       </c>
       <c r="E4" t="n">
-        <v>831</v>
+        <v>842</v>
       </c>
       <c r="F4" t="n">
-        <v>398.2363</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>-21288.34110574443</v>
+        <v>-11544.76120574443</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -549,19 +549,19 @@
         <v>836</v>
       </c>
       <c r="C5" t="n">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="D5" t="n">
         <v>836</v>
       </c>
       <c r="E5" t="n">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>1120</v>
       </c>
       <c r="G5" t="n">
-        <v>-21287.34110574443</v>
+        <v>-12664.76120574443</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>831</v>
+        <v>836</v>
       </c>
       <c r="C6" t="n">
-        <v>831</v>
+        <v>836</v>
       </c>
       <c r="D6" t="n">
-        <v>831</v>
+        <v>836</v>
       </c>
       <c r="E6" t="n">
-        <v>831</v>
+        <v>836</v>
       </c>
       <c r="F6" t="n">
-        <v>509.857</v>
+        <v>200</v>
       </c>
       <c r="G6" t="n">
-        <v>-21797.19810574443</v>
+        <v>-12464.76120574443</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="C7" t="n">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="D7" t="n">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="E7" t="n">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F7" t="n">
-        <v>16</v>
+        <v>1335.43</v>
       </c>
       <c r="G7" t="n">
-        <v>-21781.19810574443</v>
+        <v>-13800.19120574443</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="C8" t="n">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="D8" t="n">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="E8" t="n">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="F8" t="n">
-        <v>550</v>
+        <v>208.1887</v>
       </c>
       <c r="G8" t="n">
-        <v>-21781.19810574443</v>
+        <v>-13800.19120574443</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>831</v>
+        <v>838</v>
       </c>
       <c r="C9" t="n">
-        <v>831</v>
+        <v>838</v>
       </c>
       <c r="D9" t="n">
-        <v>831</v>
+        <v>838</v>
       </c>
       <c r="E9" t="n">
-        <v>831</v>
+        <v>838</v>
       </c>
       <c r="F9" t="n">
-        <v>59.787</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>-21840.98510574443</v>
+        <v>-13799.19120574443</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="C10" t="n">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="D10" t="n">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="E10" t="n">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="F10" t="n">
-        <v>683.4663</v>
+        <v>1227</v>
       </c>
       <c r="G10" t="n">
-        <v>-21157.51880574443</v>
+        <v>-15026.19120574443</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="C11" t="n">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="D11" t="n">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="E11" t="n">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="F11" t="n">
-        <v>357</v>
+        <v>29.6175</v>
       </c>
       <c r="G11" t="n">
-        <v>-20800.51880574443</v>
+        <v>-14996.57370574443</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="C12" t="n">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="D12" t="n">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="E12" t="n">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="F12" t="n">
-        <v>117</v>
+        <v>280.6822</v>
       </c>
       <c r="G12" t="n">
-        <v>-20800.51880574443</v>
+        <v>-15277.25590574443</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="C13" t="n">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="D13" t="n">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="E13" t="n">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="F13" t="n">
-        <v>331.111</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>-21131.62980574443</v>
+        <v>-15276.25590574443</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="C14" t="n">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D14" t="n">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E14" t="n">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="F14" t="n">
-        <v>636.3089</v>
+        <v>213.9952</v>
       </c>
       <c r="G14" t="n">
-        <v>-20495.32090574443</v>
+        <v>-15490.25110574443</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="C15" t="n">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="D15" t="n">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="E15" t="n">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>4640</v>
       </c>
       <c r="G15" t="n">
-        <v>-20494.32090574443</v>
+        <v>-15490.25110574443</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -942,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>842</v>
+        <v>835</v>
       </c>
       <c r="C16" t="n">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="D16" t="n">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="E16" t="n">
-        <v>842</v>
+        <v>835</v>
       </c>
       <c r="F16" t="n">
-        <v>220.1532</v>
+        <v>1052</v>
       </c>
       <c r="G16" t="n">
-        <v>-20274.16770574443</v>
+        <v>-14438.25110574443</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -978,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>841</v>
+        <v>833</v>
       </c>
       <c r="C17" t="n">
-        <v>844</v>
+        <v>831</v>
       </c>
       <c r="D17" t="n">
-        <v>844</v>
+        <v>833</v>
       </c>
       <c r="E17" t="n">
-        <v>841</v>
+        <v>831</v>
       </c>
       <c r="F17" t="n">
-        <v>1483.2205</v>
+        <v>1178.4809</v>
       </c>
       <c r="G17" t="n">
-        <v>-18790.94720574443</v>
+        <v>-15616.73200574443</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1014,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>845</v>
+        <v>833</v>
       </c>
       <c r="C18" t="n">
-        <v>845</v>
+        <v>833</v>
       </c>
       <c r="D18" t="n">
-        <v>845</v>
+        <v>833</v>
       </c>
       <c r="E18" t="n">
-        <v>845</v>
+        <v>833</v>
       </c>
       <c r="F18" t="n">
-        <v>546.5005</v>
+        <v>185.1399</v>
       </c>
       <c r="G18" t="n">
-        <v>-18244.44670574443</v>
+        <v>-15431.59210574443</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1050,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>844</v>
+        <v>832</v>
       </c>
       <c r="C19" t="n">
-        <v>844</v>
+        <v>837</v>
       </c>
       <c r="D19" t="n">
-        <v>844</v>
+        <v>837</v>
       </c>
       <c r="E19" t="n">
-        <v>844</v>
+        <v>832</v>
       </c>
       <c r="F19" t="n">
-        <v>14.8739</v>
+        <v>810</v>
       </c>
       <c r="G19" t="n">
-        <v>-18259.32060574443</v>
+        <v>-14621.59210574443</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1089,19 +1089,19 @@
         <v>836</v>
       </c>
       <c r="C20" t="n">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="D20" t="n">
         <v>836</v>
       </c>
       <c r="E20" t="n">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="F20" t="n">
-        <v>745.8395</v>
+        <v>5.2622</v>
       </c>
       <c r="G20" t="n">
-        <v>-19005.16010574443</v>
+        <v>-14626.85430574443</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1122,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C21" t="n">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D21" t="n">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E21" t="n">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F21" t="n">
-        <v>268.4</v>
+        <v>376.4318</v>
       </c>
       <c r="G21" t="n">
-        <v>-19273.56010574444</v>
+        <v>-15003.28610574443</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1158,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>839</v>
+        <v>831</v>
       </c>
       <c r="C22" t="n">
-        <v>839</v>
+        <v>831</v>
       </c>
       <c r="D22" t="n">
-        <v>839</v>
+        <v>831</v>
       </c>
       <c r="E22" t="n">
-        <v>839</v>
+        <v>831</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>91.81999999999999</v>
       </c>
       <c r="G22" t="n">
-        <v>-19272.56010574444</v>
+        <v>-15003.28610574443</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1194,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="C23" t="n">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="D23" t="n">
-        <v>839</v>
+        <v>829</v>
       </c>
       <c r="E23" t="n">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="F23" t="n">
-        <v>2409.9749</v>
+        <v>1.3873</v>
       </c>
       <c r="G23" t="n">
-        <v>-21682.53500574444</v>
+        <v>-15004.67340574443</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1230,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C24" t="n">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D24" t="n">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E24" t="n">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>61.43</v>
       </c>
       <c r="G24" t="n">
-        <v>-21681.53500574444</v>
+        <v>-14943.24340574443</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1266,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="C25" t="n">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="D25" t="n">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="E25" t="n">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="F25" t="n">
-        <v>240.384</v>
+        <v>219.5853</v>
       </c>
       <c r="G25" t="n">
-        <v>-21921.91900574444</v>
+        <v>-15162.82870574443</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1302,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>831</v>
+        <v>836</v>
       </c>
       <c r="C26" t="n">
-        <v>830</v>
+        <v>836</v>
       </c>
       <c r="D26" t="n">
-        <v>831</v>
+        <v>836</v>
       </c>
       <c r="E26" t="n">
-        <v>830</v>
+        <v>836</v>
       </c>
       <c r="F26" t="n">
-        <v>3500</v>
+        <v>21.1913</v>
       </c>
       <c r="G26" t="n">
-        <v>-25421.91900574444</v>
+        <v>-15141.63740574443</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>830</v>
+        <v>836</v>
       </c>
       <c r="C27" t="n">
-        <v>830</v>
+        <v>836</v>
       </c>
       <c r="D27" t="n">
-        <v>830</v>
+        <v>836</v>
       </c>
       <c r="E27" t="n">
-        <v>830</v>
+        <v>835</v>
       </c>
       <c r="F27" t="n">
-        <v>550</v>
+        <v>754.7870813397129</v>
       </c>
       <c r="G27" t="n">
-        <v>-25421.91900574444</v>
+        <v>-15141.63740574443</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1374,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="C28" t="n">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="D28" t="n">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="E28" t="n">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="F28" t="n">
-        <v>571.2307</v>
+        <v>1179.8433</v>
       </c>
       <c r="G28" t="n">
-        <v>-24850.68830574444</v>
+        <v>-15141.63740574443</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1410,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="C29" t="n">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="D29" t="n">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="E29" t="n">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="F29" t="n">
-        <v>46.2</v>
+        <v>51.1445</v>
       </c>
       <c r="G29" t="n">
-        <v>-24850.68830574444</v>
+        <v>-15090.49290574443</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1446,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="C30" t="n">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="D30" t="n">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="E30" t="n">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="F30" t="n">
-        <v>834.6605</v>
+        <v>200.65</v>
       </c>
       <c r="G30" t="n">
-        <v>-24016.02780574444</v>
+        <v>-15291.14290574443</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1482,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="C31" t="n">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="D31" t="n">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="E31" t="n">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="F31" t="n">
-        <v>480.71</v>
+        <v>5692.2878</v>
       </c>
       <c r="G31" t="n">
-        <v>-24016.02780574444</v>
+        <v>-20983.43070574443</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="C32" t="n">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="D32" t="n">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="E32" t="n">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="F32" t="n">
-        <v>769.7206</v>
+        <v>93.3259</v>
       </c>
       <c r="G32" t="n">
-        <v>-24016.02780574444</v>
+        <v>-20890.10480574443</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1554,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="C33" t="n">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="D33" t="n">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="E33" t="n">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="F33" t="n">
-        <v>880.7023</v>
+        <v>398.2363</v>
       </c>
       <c r="G33" t="n">
-        <v>-24896.73010574444</v>
+        <v>-21288.34110574443</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1605,7 +1605,7 @@
         <v>1</v>
       </c>
       <c r="G34" t="n">
-        <v>-24895.73010574444</v>
+        <v>-21287.34110574443</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1626,22 +1626,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="C35" t="n">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="D35" t="n">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="E35" t="n">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="F35" t="n">
-        <v>643.1473</v>
+        <v>509.857</v>
       </c>
       <c r="G35" t="n">
-        <v>-24895.73010574444</v>
+        <v>-21797.19810574443</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1662,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="C36" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="D36" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="E36" t="n">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="F36" t="n">
-        <v>457.0455</v>
+        <v>16</v>
       </c>
       <c r="G36" t="n">
-        <v>-24895.73010574444</v>
+        <v>-21781.19810574443</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1698,38 +1698,32 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C37" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="D37" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="E37" t="n">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="F37" t="n">
-        <v>1026.6856</v>
+        <v>550</v>
       </c>
       <c r="G37" t="n">
-        <v>-24895.73010574444</v>
+        <v>-21781.19810574443</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>836</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1740,38 +1734,32 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="C38" t="n">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="D38" t="n">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="E38" t="n">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="F38" t="n">
-        <v>97</v>
+        <v>59.787</v>
       </c>
       <c r="G38" t="n">
-        <v>-24992.73010574444</v>
+        <v>-21840.98510574443</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>836</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1785,35 +1773,29 @@
         <v>834</v>
       </c>
       <c r="C39" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="D39" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="E39" t="n">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="F39" t="n">
-        <v>2525.0721</v>
+        <v>683.4663</v>
       </c>
       <c r="G39" t="n">
-        <v>-22467.65800574444</v>
+        <v>-21157.51880574443</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>835</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1824,38 +1806,32 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="C40" t="n">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="D40" t="n">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="E40" t="n">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="F40" t="n">
-        <v>89.34350000000001</v>
+        <v>357</v>
       </c>
       <c r="G40" t="n">
-        <v>-22557.00150574444</v>
+        <v>-20800.51880574443</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>836</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1866,22 +1842,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="C41" t="n">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="D41" t="n">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="E41" t="n">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="F41" t="n">
-        <v>150.49</v>
+        <v>117</v>
       </c>
       <c r="G41" t="n">
-        <v>-22406.51150574443</v>
+        <v>-20800.51880574443</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1891,11 +1867,7 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1906,38 +1878,32 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C42" t="n">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D42" t="n">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E42" t="n">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="F42" t="n">
-        <v>1</v>
+        <v>331.111</v>
       </c>
       <c r="G42" t="n">
-        <v>-22405.51150574443</v>
+        <v>-21131.62980574443</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>835</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1948,38 +1914,32 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>832</v>
+        <v>837</v>
       </c>
       <c r="C43" t="n">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D43" t="n">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E43" t="n">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="F43" t="n">
-        <v>4311.4563</v>
+        <v>636.3089</v>
       </c>
       <c r="G43" t="n">
-        <v>-18094.05520574444</v>
+        <v>-20495.32090574443</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>837</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1990,38 +1950,32 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>835</v>
+        <v>840</v>
       </c>
       <c r="C44" t="n">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="D44" t="n">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="E44" t="n">
-        <v>835</v>
+        <v>840</v>
       </c>
       <c r="F44" t="n">
-        <v>2100</v>
+        <v>1</v>
       </c>
       <c r="G44" t="n">
-        <v>-20194.05520574444</v>
+        <v>-20494.32090574443</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>838</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2032,22 +1986,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>832</v>
+        <v>842</v>
       </c>
       <c r="C45" t="n">
-        <v>831</v>
+        <v>842</v>
       </c>
       <c r="D45" t="n">
-        <v>832</v>
+        <v>842</v>
       </c>
       <c r="E45" t="n">
-        <v>831</v>
+        <v>842</v>
       </c>
       <c r="F45" t="n">
-        <v>500</v>
+        <v>220.1532</v>
       </c>
       <c r="G45" t="n">
-        <v>-20694.05520574444</v>
+        <v>-20274.16770574443</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2057,11 +2011,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2072,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>836</v>
+        <v>841</v>
       </c>
       <c r="C46" t="n">
-        <v>836</v>
+        <v>844</v>
       </c>
       <c r="D46" t="n">
-        <v>836</v>
+        <v>844</v>
       </c>
       <c r="E46" t="n">
-        <v>836</v>
+        <v>841</v>
       </c>
       <c r="F46" t="n">
-        <v>12.6</v>
+        <v>1483.2205</v>
       </c>
       <c r="G46" t="n">
-        <v>-20681.45520574444</v>
+        <v>-18790.94720574443</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2097,11 +2047,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2112,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>837</v>
+        <v>845</v>
       </c>
       <c r="C47" t="n">
-        <v>837</v>
+        <v>845</v>
       </c>
       <c r="D47" t="n">
-        <v>837</v>
+        <v>845</v>
       </c>
       <c r="E47" t="n">
-        <v>837</v>
+        <v>845</v>
       </c>
       <c r="F47" t="n">
-        <v>100</v>
+        <v>546.5005</v>
       </c>
       <c r="G47" t="n">
-        <v>-20581.45520574444</v>
+        <v>-18244.44670574443</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2137,11 +2083,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2152,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C48" t="n">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="D48" t="n">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="E48" t="n">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="F48" t="n">
-        <v>2</v>
+        <v>14.8739</v>
       </c>
       <c r="G48" t="n">
-        <v>-20579.45520574444</v>
+        <v>-18259.32060574443</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2177,11 +2119,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2192,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>844</v>
+        <v>836</v>
       </c>
       <c r="C49" t="n">
-        <v>845</v>
+        <v>835</v>
       </c>
       <c r="D49" t="n">
-        <v>845</v>
+        <v>836</v>
       </c>
       <c r="E49" t="n">
-        <v>844</v>
+        <v>834</v>
       </c>
       <c r="F49" t="n">
-        <v>45.8419</v>
+        <v>745.8395</v>
       </c>
       <c r="G49" t="n">
-        <v>-20625.29710574444</v>
+        <v>-19005.16010574443</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2217,11 +2155,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2232,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>847</v>
+        <v>833</v>
       </c>
       <c r="C50" t="n">
-        <v>847</v>
+        <v>833</v>
       </c>
       <c r="D50" t="n">
-        <v>847</v>
+        <v>833</v>
       </c>
       <c r="E50" t="n">
-        <v>847</v>
+        <v>833</v>
       </c>
       <c r="F50" t="n">
-        <v>212.947</v>
+        <v>268.4</v>
       </c>
       <c r="G50" t="n">
-        <v>-20412.35010574444</v>
+        <v>-19273.56010574444</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2257,11 +2191,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2272,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="C51" t="n">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="D51" t="n">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="E51" t="n">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="F51" t="n">
-        <v>406.4843</v>
+        <v>1</v>
       </c>
       <c r="G51" t="n">
-        <v>-20412.35010574444</v>
+        <v>-19272.56010574444</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2297,11 +2227,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2312,22 +2238,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>847</v>
+        <v>832</v>
       </c>
       <c r="C52" t="n">
-        <v>847</v>
+        <v>831</v>
       </c>
       <c r="D52" t="n">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="E52" t="n">
-        <v>847</v>
+        <v>831</v>
       </c>
       <c r="F52" t="n">
-        <v>49.5288</v>
+        <v>2409.9749</v>
       </c>
       <c r="G52" t="n">
-        <v>-20412.35010574444</v>
+        <v>-21682.53500574444</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2337,11 +2263,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2352,22 +2274,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>849</v>
+        <v>837</v>
       </c>
       <c r="C53" t="n">
-        <v>849</v>
+        <v>837</v>
       </c>
       <c r="D53" t="n">
-        <v>849</v>
+        <v>837</v>
       </c>
       <c r="E53" t="n">
-        <v>849</v>
+        <v>837</v>
       </c>
       <c r="F53" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G53" t="n">
-        <v>-20312.35010574444</v>
+        <v>-21681.53500574444</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2377,11 +2299,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2392,22 +2310,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>852</v>
+        <v>833</v>
       </c>
       <c r="C54" t="n">
-        <v>852</v>
+        <v>833</v>
       </c>
       <c r="D54" t="n">
-        <v>852</v>
+        <v>833</v>
       </c>
       <c r="E54" t="n">
-        <v>852</v>
+        <v>833</v>
       </c>
       <c r="F54" t="n">
-        <v>178.6983</v>
+        <v>240.384</v>
       </c>
       <c r="G54" t="n">
-        <v>-20133.65180574444</v>
+        <v>-21921.91900574444</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2417,11 +2335,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2432,22 +2346,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>853</v>
+        <v>831</v>
       </c>
       <c r="C55" t="n">
-        <v>853</v>
+        <v>830</v>
       </c>
       <c r="D55" t="n">
-        <v>854</v>
+        <v>831</v>
       </c>
       <c r="E55" t="n">
-        <v>853</v>
+        <v>830</v>
       </c>
       <c r="F55" t="n">
-        <v>6961.5774</v>
+        <v>3500</v>
       </c>
       <c r="G55" t="n">
-        <v>-13172.07440574444</v>
+        <v>-25421.91900574444</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2457,11 +2371,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2472,22 +2382,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>856</v>
+        <v>830</v>
       </c>
       <c r="C56" t="n">
-        <v>856</v>
+        <v>830</v>
       </c>
       <c r="D56" t="n">
-        <v>856</v>
+        <v>830</v>
       </c>
       <c r="E56" t="n">
-        <v>856</v>
+        <v>830</v>
       </c>
       <c r="F56" t="n">
-        <v>1</v>
+        <v>550</v>
       </c>
       <c r="G56" t="n">
-        <v>-13171.07440574444</v>
+        <v>-25421.91900574444</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2497,11 +2407,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2512,22 +2418,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>856</v>
+        <v>832</v>
       </c>
       <c r="C57" t="n">
-        <v>855</v>
+        <v>834</v>
       </c>
       <c r="D57" t="n">
-        <v>856</v>
+        <v>834</v>
       </c>
       <c r="E57" t="n">
-        <v>855</v>
+        <v>832</v>
       </c>
       <c r="F57" t="n">
-        <v>2</v>
+        <v>571.2307</v>
       </c>
       <c r="G57" t="n">
-        <v>-13173.07440574444</v>
+        <v>-24850.68830574444</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2537,11 +2443,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2552,36 +2454,36 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>856</v>
+        <v>834</v>
       </c>
       <c r="C58" t="n">
-        <v>877</v>
+        <v>834</v>
       </c>
       <c r="D58" t="n">
-        <v>877</v>
+        <v>834</v>
       </c>
       <c r="E58" t="n">
-        <v>856</v>
+        <v>834</v>
       </c>
       <c r="F58" t="n">
-        <v>1997.6061</v>
+        <v>46.2</v>
       </c>
       <c r="G58" t="n">
-        <v>-11175.46830574444</v>
+        <v>-24850.68830574444</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="n">
+        <v>834</v>
+      </c>
+      <c r="K58" t="n">
+        <v>834</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2592,34 +2494,38 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>866</v>
+        <v>835</v>
       </c>
       <c r="C59" t="n">
-        <v>866</v>
+        <v>835</v>
       </c>
       <c r="D59" t="n">
-        <v>866</v>
+        <v>835</v>
       </c>
       <c r="E59" t="n">
-        <v>866</v>
+        <v>835</v>
       </c>
       <c r="F59" t="n">
-        <v>1</v>
+        <v>834.6605</v>
       </c>
       <c r="G59" t="n">
-        <v>-11176.46830574444</v>
+        <v>-24016.02780574444</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>834</v>
+      </c>
+      <c r="K59" t="n">
+        <v>834</v>
+      </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M59" t="n">
@@ -2632,34 +2538,38 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>866</v>
+        <v>835</v>
       </c>
       <c r="C60" t="n">
-        <v>866</v>
+        <v>835</v>
       </c>
       <c r="D60" t="n">
-        <v>866</v>
+        <v>835</v>
       </c>
       <c r="E60" t="n">
-        <v>866</v>
+        <v>835</v>
       </c>
       <c r="F60" t="n">
-        <v>1</v>
+        <v>480.71</v>
       </c>
       <c r="G60" t="n">
-        <v>-11176.46830574444</v>
+        <v>-24016.02780574444</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>835</v>
+      </c>
+      <c r="K60" t="n">
+        <v>834</v>
+      </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M60" t="n">
@@ -2672,34 +2582,38 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>858</v>
+        <v>834</v>
       </c>
       <c r="C61" t="n">
-        <v>858</v>
+        <v>835</v>
       </c>
       <c r="D61" t="n">
-        <v>858</v>
+        <v>835</v>
       </c>
       <c r="E61" t="n">
-        <v>858</v>
+        <v>834</v>
       </c>
       <c r="F61" t="n">
-        <v>14.6094</v>
+        <v>769.7206</v>
       </c>
       <c r="G61" t="n">
-        <v>-11191.07770574444</v>
+        <v>-24016.02780574444</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>835</v>
+      </c>
+      <c r="K61" t="n">
+        <v>834</v>
+      </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M61" t="n">
@@ -2712,31 +2626,35 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>854</v>
+        <v>834</v>
       </c>
       <c r="C62" t="n">
-        <v>854</v>
+        <v>834</v>
       </c>
       <c r="D62" t="n">
-        <v>854</v>
+        <v>834</v>
       </c>
       <c r="E62" t="n">
-        <v>854</v>
+        <v>834</v>
       </c>
       <c r="F62" t="n">
-        <v>14.6094</v>
+        <v>880.7023</v>
       </c>
       <c r="G62" t="n">
-        <v>-11205.68710574444</v>
+        <v>-24896.73010574444</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>835</v>
+      </c>
+      <c r="K62" t="n">
+        <v>834</v>
+      </c>
       <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2752,31 +2670,35 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="C63" t="n">
-        <v>858</v>
+        <v>836</v>
       </c>
       <c r="D63" t="n">
-        <v>858</v>
+        <v>836</v>
       </c>
       <c r="E63" t="n">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="F63" t="n">
-        <v>550.0042999999999</v>
+        <v>1</v>
       </c>
       <c r="G63" t="n">
-        <v>-10655.68280574444</v>
+        <v>-24895.73010574444</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>834</v>
+      </c>
+      <c r="K63" t="n">
+        <v>834</v>
+      </c>
       <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2792,31 +2714,35 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="C64" t="n">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="D64" t="n">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="E64" t="n">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="F64" t="n">
-        <v>32.6127</v>
+        <v>643.1473</v>
       </c>
       <c r="G64" t="n">
-        <v>-10688.29550574444</v>
+        <v>-24895.73010574444</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>836</v>
+      </c>
+      <c r="K64" t="n">
+        <v>834</v>
+      </c>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2832,31 +2758,35 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="C65" t="n">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="D65" t="n">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="E65" t="n">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="F65" t="n">
-        <v>38.6522</v>
+        <v>457.0455</v>
       </c>
       <c r="G65" t="n">
-        <v>-10688.29550574444</v>
+        <v>-24895.73010574444</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>836</v>
+      </c>
+      <c r="K65" t="n">
+        <v>834</v>
+      </c>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2872,31 +2802,35 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>859</v>
+        <v>835</v>
       </c>
       <c r="C66" t="n">
-        <v>859</v>
+        <v>836</v>
       </c>
       <c r="D66" t="n">
-        <v>859</v>
+        <v>836</v>
       </c>
       <c r="E66" t="n">
-        <v>859</v>
+        <v>835</v>
       </c>
       <c r="F66" t="n">
-        <v>1</v>
+        <v>1026.6856</v>
       </c>
       <c r="G66" t="n">
-        <v>-10687.29550574444</v>
+        <v>-24895.73010574444</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>836</v>
+      </c>
+      <c r="K66" t="n">
+        <v>834</v>
+      </c>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2912,31 +2846,35 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>858</v>
+        <v>836</v>
       </c>
       <c r="C67" t="n">
-        <v>857</v>
+        <v>835</v>
       </c>
       <c r="D67" t="n">
-        <v>858</v>
+        <v>836</v>
       </c>
       <c r="E67" t="n">
-        <v>857</v>
+        <v>835</v>
       </c>
       <c r="F67" t="n">
-        <v>561.8754</v>
+        <v>97</v>
       </c>
       <c r="G67" t="n">
-        <v>-11249.17090574444</v>
+        <v>-24992.73010574444</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>836</v>
+      </c>
+      <c r="K67" t="n">
+        <v>834</v>
+      </c>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2952,31 +2890,35 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>854</v>
+        <v>834</v>
       </c>
       <c r="C68" t="n">
-        <v>855</v>
+        <v>836</v>
       </c>
       <c r="D68" t="n">
-        <v>855</v>
+        <v>836</v>
       </c>
       <c r="E68" t="n">
-        <v>854</v>
+        <v>832</v>
       </c>
       <c r="F68" t="n">
-        <v>1575.5089</v>
+        <v>2525.0721</v>
       </c>
       <c r="G68" t="n">
-        <v>-12824.67980574444</v>
+        <v>-22467.65800574444</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>835</v>
+      </c>
+      <c r="K68" t="n">
+        <v>834</v>
+      </c>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2992,31 +2934,35 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>852</v>
+        <v>834</v>
       </c>
       <c r="C69" t="n">
-        <v>852</v>
+        <v>834</v>
       </c>
       <c r="D69" t="n">
-        <v>852</v>
+        <v>834</v>
       </c>
       <c r="E69" t="n">
-        <v>852</v>
+        <v>834</v>
       </c>
       <c r="F69" t="n">
-        <v>170.8157</v>
+        <v>89.34350000000001</v>
       </c>
       <c r="G69" t="n">
-        <v>-12995.49550574444</v>
+        <v>-22557.00150574444</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>836</v>
+      </c>
+      <c r="K69" t="n">
+        <v>834</v>
+      </c>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3032,31 +2978,35 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>858</v>
+        <v>833</v>
       </c>
       <c r="C70" t="n">
-        <v>858</v>
+        <v>835</v>
       </c>
       <c r="D70" t="n">
-        <v>858</v>
+        <v>835</v>
       </c>
       <c r="E70" t="n">
-        <v>858</v>
+        <v>833</v>
       </c>
       <c r="F70" t="n">
-        <v>1</v>
+        <v>150.49</v>
       </c>
       <c r="G70" t="n">
-        <v>-12994.49550574444</v>
+        <v>-22406.51150574443</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>834</v>
+      </c>
+      <c r="K70" t="n">
+        <v>834</v>
+      </c>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3072,31 +3022,35 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>855</v>
+        <v>837</v>
       </c>
       <c r="C71" t="n">
-        <v>855</v>
+        <v>837</v>
       </c>
       <c r="D71" t="n">
-        <v>855</v>
+        <v>837</v>
       </c>
       <c r="E71" t="n">
-        <v>855</v>
+        <v>837</v>
       </c>
       <c r="F71" t="n">
-        <v>42.9886</v>
+        <v>1</v>
       </c>
       <c r="G71" t="n">
-        <v>-13037.48410574444</v>
+        <v>-22405.51150574443</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>835</v>
+      </c>
+      <c r="K71" t="n">
+        <v>834</v>
+      </c>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3112,31 +3066,35 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>862</v>
+        <v>832</v>
       </c>
       <c r="C72" t="n">
-        <v>862</v>
+        <v>838</v>
       </c>
       <c r="D72" t="n">
-        <v>862</v>
+        <v>838</v>
       </c>
       <c r="E72" t="n">
-        <v>862</v>
+        <v>831</v>
       </c>
       <c r="F72" t="n">
-        <v>1</v>
+        <v>4311.4563</v>
       </c>
       <c r="G72" t="n">
-        <v>-13036.48410574444</v>
+        <v>-18094.05520574444</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>837</v>
+      </c>
+      <c r="K72" t="n">
+        <v>834</v>
+      </c>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3152,31 +3110,35 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>854</v>
+        <v>835</v>
       </c>
       <c r="C73" t="n">
-        <v>854</v>
+        <v>837</v>
       </c>
       <c r="D73" t="n">
-        <v>854</v>
+        <v>837</v>
       </c>
       <c r="E73" t="n">
-        <v>854</v>
+        <v>835</v>
       </c>
       <c r="F73" t="n">
-        <v>515.175</v>
+        <v>2100</v>
       </c>
       <c r="G73" t="n">
-        <v>-13551.65910574444</v>
+        <v>-20194.05520574444</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>838</v>
+      </c>
+      <c r="K73" t="n">
+        <v>834</v>
+      </c>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3192,31 +3154,35 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>853</v>
+        <v>832</v>
       </c>
       <c r="C74" t="n">
-        <v>853</v>
+        <v>831</v>
       </c>
       <c r="D74" t="n">
-        <v>853</v>
+        <v>832</v>
       </c>
       <c r="E74" t="n">
-        <v>853</v>
+        <v>831</v>
       </c>
       <c r="F74" t="n">
-        <v>541.6014</v>
+        <v>500</v>
       </c>
       <c r="G74" t="n">
-        <v>-14093.26050574444</v>
+        <v>-20694.05520574444</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>837</v>
+      </c>
+      <c r="K74" t="n">
+        <v>834</v>
+      </c>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3232,31 +3198,35 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>855</v>
+        <v>836</v>
       </c>
       <c r="C75" t="n">
-        <v>855</v>
+        <v>836</v>
       </c>
       <c r="D75" t="n">
-        <v>855</v>
+        <v>836</v>
       </c>
       <c r="E75" t="n">
-        <v>855</v>
+        <v>836</v>
       </c>
       <c r="F75" t="n">
-        <v>725.3239</v>
+        <v>12.6</v>
       </c>
       <c r="G75" t="n">
-        <v>-13367.93660574444</v>
+        <v>-20681.45520574444</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>831</v>
+      </c>
+      <c r="K75" t="n">
+        <v>834</v>
+      </c>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3272,31 +3242,35 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>853</v>
+        <v>837</v>
       </c>
       <c r="C76" t="n">
-        <v>853</v>
+        <v>837</v>
       </c>
       <c r="D76" t="n">
-        <v>853</v>
+        <v>837</v>
       </c>
       <c r="E76" t="n">
-        <v>853</v>
+        <v>837</v>
       </c>
       <c r="F76" t="n">
-        <v>182.2</v>
+        <v>100</v>
       </c>
       <c r="G76" t="n">
-        <v>-13550.13660574444</v>
+        <v>-20581.45520574444</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>836</v>
+      </c>
+      <c r="K76" t="n">
+        <v>834</v>
+      </c>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3312,22 +3286,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>853</v>
+        <v>846</v>
       </c>
       <c r="C77" t="n">
-        <v>853</v>
+        <v>846</v>
       </c>
       <c r="D77" t="n">
-        <v>853</v>
+        <v>846</v>
       </c>
       <c r="E77" t="n">
-        <v>853</v>
+        <v>846</v>
       </c>
       <c r="F77" t="n">
-        <v>211.8842</v>
+        <v>2</v>
       </c>
       <c r="G77" t="n">
-        <v>-13550.13660574444</v>
+        <v>-20579.45520574444</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3336,7 +3310,9 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>834</v>
+      </c>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3352,22 +3328,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>857</v>
+        <v>844</v>
       </c>
       <c r="C78" t="n">
-        <v>857</v>
+        <v>845</v>
       </c>
       <c r="D78" t="n">
-        <v>857</v>
+        <v>845</v>
       </c>
       <c r="E78" t="n">
-        <v>857</v>
+        <v>844</v>
       </c>
       <c r="F78" t="n">
-        <v>1</v>
+        <v>45.8419</v>
       </c>
       <c r="G78" t="n">
-        <v>-13549.13660574444</v>
+        <v>-20625.29710574444</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3376,7 +3352,9 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>834</v>
+      </c>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3392,22 +3370,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>857</v>
+        <v>847</v>
       </c>
       <c r="C79" t="n">
-        <v>858</v>
+        <v>847</v>
       </c>
       <c r="D79" t="n">
-        <v>858</v>
+        <v>847</v>
       </c>
       <c r="E79" t="n">
-        <v>857</v>
+        <v>847</v>
       </c>
       <c r="F79" t="n">
-        <v>44</v>
+        <v>212.947</v>
       </c>
       <c r="G79" t="n">
-        <v>-13505.13660574444</v>
+        <v>-20412.35010574444</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3416,7 +3394,9 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>834</v>
+      </c>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3432,33 +3412,33 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>855</v>
+        <v>847</v>
       </c>
       <c r="C80" t="n">
-        <v>855</v>
+        <v>847</v>
       </c>
       <c r="D80" t="n">
-        <v>855</v>
+        <v>847</v>
       </c>
       <c r="E80" t="n">
-        <v>855</v>
+        <v>847</v>
       </c>
       <c r="F80" t="n">
-        <v>500.53</v>
+        <v>406.4843</v>
       </c>
       <c r="G80" t="n">
-        <v>-14005.66660574444</v>
+        <v>-20412.35010574444</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>858</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>834</v>
+      </c>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3474,33 +3454,33 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>858</v>
+        <v>847</v>
       </c>
       <c r="C81" t="n">
-        <v>858</v>
+        <v>847</v>
       </c>
       <c r="D81" t="n">
-        <v>858</v>
+        <v>847</v>
       </c>
       <c r="E81" t="n">
-        <v>858</v>
+        <v>847</v>
       </c>
       <c r="F81" t="n">
-        <v>1</v>
+        <v>49.5288</v>
       </c>
       <c r="G81" t="n">
-        <v>-14004.66660574444</v>
+        <v>-20412.35010574444</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>855</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>834</v>
+      </c>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3516,33 +3496,33 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="C82" t="n">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="D82" t="n">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="E82" t="n">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="F82" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="G82" t="n">
-        <v>-14044.66660574444</v>
+        <v>-20312.35010574444</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>858</v>
-      </c>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>834</v>
+      </c>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3558,22 +3538,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="C83" t="n">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="D83" t="n">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="E83" t="n">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="F83" t="n">
-        <v>31</v>
+        <v>178.6983</v>
       </c>
       <c r="G83" t="n">
-        <v>-14013.66660574444</v>
+        <v>-20133.65180574444</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3582,7 +3562,9 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>834</v>
+      </c>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3598,33 +3580,33 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="C84" t="n">
-        <v>862</v>
+        <v>853</v>
       </c>
       <c r="D84" t="n">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="E84" t="n">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="F84" t="n">
-        <v>1005</v>
+        <v>6961.5774</v>
       </c>
       <c r="G84" t="n">
-        <v>-13008.66660574444</v>
+        <v>-13172.07440574444</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>858</v>
-      </c>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>834</v>
+      </c>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3640,22 +3622,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="C85" t="n">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="D85" t="n">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="E85" t="n">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="F85" t="n">
-        <v>1400</v>
+        <v>1</v>
       </c>
       <c r="G85" t="n">
-        <v>-14408.66660574444</v>
+        <v>-13171.07440574444</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3664,7 +3646,9 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>834</v>
+      </c>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3680,33 +3664,33 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="C86" t="n">
-        <v>869</v>
+        <v>855</v>
       </c>
       <c r="D86" t="n">
-        <v>869</v>
+        <v>856</v>
       </c>
       <c r="E86" t="n">
-        <v>862</v>
+        <v>855</v>
       </c>
       <c r="F86" t="n">
-        <v>1222.8594</v>
+        <v>2</v>
       </c>
       <c r="G86" t="n">
-        <v>-13185.80720574444</v>
+        <v>-13173.07440574444</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>861</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>834</v>
+      </c>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3722,7 +3706,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>870</v>
+        <v>856</v>
       </c>
       <c r="C87" t="n">
         <v>877</v>
@@ -3731,24 +3715,24 @@
         <v>877</v>
       </c>
       <c r="E87" t="n">
-        <v>869</v>
+        <v>856</v>
       </c>
       <c r="F87" t="n">
-        <v>87.43429999999999</v>
+        <v>1997.6061</v>
       </c>
       <c r="G87" t="n">
-        <v>-13098.37290574444</v>
+        <v>-11175.46830574444</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>869</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>834</v>
+      </c>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3764,22 +3748,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="C88" t="n">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="D88" t="n">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="E88" t="n">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="F88" t="n">
-        <v>133.0413</v>
+        <v>1</v>
       </c>
       <c r="G88" t="n">
-        <v>-13231.41420574444</v>
+        <v>-11176.46830574444</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3788,7 +3772,9 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>834</v>
+      </c>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3804,22 +3790,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="C89" t="n">
-        <v>875</v>
+        <v>866</v>
       </c>
       <c r="D89" t="n">
-        <v>875</v>
+        <v>866</v>
       </c>
       <c r="E89" t="n">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="F89" t="n">
-        <v>206.1041</v>
+        <v>1</v>
       </c>
       <c r="G89" t="n">
-        <v>-13025.31010574444</v>
+        <v>-11176.46830574444</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3828,7 +3814,9 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>834</v>
+      </c>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3844,22 +3832,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>865</v>
+        <v>858</v>
       </c>
       <c r="C90" t="n">
-        <v>869</v>
+        <v>858</v>
       </c>
       <c r="D90" t="n">
-        <v>869</v>
+        <v>858</v>
       </c>
       <c r="E90" t="n">
-        <v>865</v>
+        <v>858</v>
       </c>
       <c r="F90" t="n">
-        <v>450.5841</v>
+        <v>14.6094</v>
       </c>
       <c r="G90" t="n">
-        <v>-13475.89420574444</v>
+        <v>-11191.07770574444</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3868,7 +3856,9 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>834</v>
+      </c>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3884,22 +3874,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>873</v>
+        <v>854</v>
       </c>
       <c r="C91" t="n">
-        <v>873</v>
+        <v>854</v>
       </c>
       <c r="D91" t="n">
-        <v>873</v>
+        <v>854</v>
       </c>
       <c r="E91" t="n">
-        <v>873</v>
+        <v>854</v>
       </c>
       <c r="F91" t="n">
-        <v>1</v>
+        <v>14.6094</v>
       </c>
       <c r="G91" t="n">
-        <v>-13474.89420574444</v>
+        <v>-11205.68710574444</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3908,7 +3898,9 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>834</v>
+      </c>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3924,22 +3916,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>869</v>
+        <v>856</v>
       </c>
       <c r="C92" t="n">
-        <v>869</v>
+        <v>858</v>
       </c>
       <c r="D92" t="n">
-        <v>869</v>
+        <v>858</v>
       </c>
       <c r="E92" t="n">
-        <v>869</v>
+        <v>856</v>
       </c>
       <c r="F92" t="n">
-        <v>26.1758</v>
+        <v>550.0042999999999</v>
       </c>
       <c r="G92" t="n">
-        <v>-13501.07000574444</v>
+        <v>-10655.68280574444</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3948,7 +3940,9 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>834</v>
+      </c>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3964,22 +3958,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>876</v>
+        <v>856</v>
       </c>
       <c r="C93" t="n">
-        <v>876</v>
+        <v>856</v>
       </c>
       <c r="D93" t="n">
-        <v>876</v>
+        <v>856</v>
       </c>
       <c r="E93" t="n">
-        <v>876</v>
+        <v>856</v>
       </c>
       <c r="F93" t="n">
-        <v>118.952</v>
+        <v>32.6127</v>
       </c>
       <c r="G93" t="n">
-        <v>-13382.11800574444</v>
+        <v>-10688.29550574444</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3988,7 +3982,9 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>834</v>
+      </c>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4004,22 +4000,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>874</v>
+        <v>856</v>
       </c>
       <c r="C94" t="n">
-        <v>874</v>
+        <v>856</v>
       </c>
       <c r="D94" t="n">
-        <v>874</v>
+        <v>856</v>
       </c>
       <c r="E94" t="n">
-        <v>874</v>
+        <v>856</v>
       </c>
       <c r="F94" t="n">
-        <v>373.5</v>
+        <v>38.6522</v>
       </c>
       <c r="G94" t="n">
-        <v>-13755.61800574444</v>
+        <v>-10688.29550574444</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4028,7 +4024,9 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>834</v>
+      </c>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4044,22 +4042,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>874</v>
+        <v>859</v>
       </c>
       <c r="C95" t="n">
-        <v>875</v>
+        <v>859</v>
       </c>
       <c r="D95" t="n">
-        <v>875</v>
+        <v>859</v>
       </c>
       <c r="E95" t="n">
-        <v>874</v>
+        <v>859</v>
       </c>
       <c r="F95" t="n">
-        <v>495.0846</v>
+        <v>1</v>
       </c>
       <c r="G95" t="n">
-        <v>-13260.53340574444</v>
+        <v>-10687.29550574444</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4068,7 +4066,9 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>834</v>
+      </c>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4084,22 +4084,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>874</v>
+        <v>858</v>
       </c>
       <c r="C96" t="n">
-        <v>874</v>
+        <v>857</v>
       </c>
       <c r="D96" t="n">
-        <v>874</v>
+        <v>858</v>
       </c>
       <c r="E96" t="n">
-        <v>874</v>
+        <v>857</v>
       </c>
       <c r="F96" t="n">
-        <v>20.2708</v>
+        <v>561.8754</v>
       </c>
       <c r="G96" t="n">
-        <v>-13280.80420574444</v>
+        <v>-11249.17090574444</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4108,7 +4108,9 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>834</v>
+      </c>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4124,22 +4126,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>874</v>
+        <v>854</v>
       </c>
       <c r="C97" t="n">
-        <v>873</v>
+        <v>855</v>
       </c>
       <c r="D97" t="n">
-        <v>874</v>
+        <v>855</v>
       </c>
       <c r="E97" t="n">
-        <v>873</v>
+        <v>854</v>
       </c>
       <c r="F97" t="n">
-        <v>516.7139</v>
+        <v>1575.5089</v>
       </c>
       <c r="G97" t="n">
-        <v>-13797.51810574444</v>
+        <v>-12824.67980574444</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4148,7 +4150,9 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>834</v>
+      </c>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4164,22 +4168,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>873</v>
+        <v>852</v>
       </c>
       <c r="C98" t="n">
-        <v>873</v>
+        <v>852</v>
       </c>
       <c r="D98" t="n">
-        <v>873</v>
+        <v>852</v>
       </c>
       <c r="E98" t="n">
-        <v>873</v>
+        <v>852</v>
       </c>
       <c r="F98" t="n">
-        <v>270</v>
+        <v>170.8157</v>
       </c>
       <c r="G98" t="n">
-        <v>-13797.51810574444</v>
+        <v>-12995.49550574444</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4188,7 +4192,9 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>834</v>
+      </c>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4204,22 +4210,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>873</v>
+        <v>858</v>
       </c>
       <c r="C99" t="n">
-        <v>874</v>
+        <v>858</v>
       </c>
       <c r="D99" t="n">
-        <v>874</v>
+        <v>858</v>
       </c>
       <c r="E99" t="n">
-        <v>873</v>
+        <v>858</v>
       </c>
       <c r="F99" t="n">
-        <v>62.4</v>
+        <v>1</v>
       </c>
       <c r="G99" t="n">
-        <v>-13735.11810574444</v>
+        <v>-12994.49550574444</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4228,7 +4234,9 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>834</v>
+      </c>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4244,22 +4252,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>873</v>
+        <v>855</v>
       </c>
       <c r="C100" t="n">
-        <v>873</v>
+        <v>855</v>
       </c>
       <c r="D100" t="n">
-        <v>873</v>
+        <v>855</v>
       </c>
       <c r="E100" t="n">
-        <v>872</v>
+        <v>855</v>
       </c>
       <c r="F100" t="n">
-        <v>1304.4785</v>
+        <v>42.9886</v>
       </c>
       <c r="G100" t="n">
-        <v>-15039.59660574444</v>
+        <v>-13037.48410574444</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4268,7 +4276,9 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>834</v>
+      </c>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4284,22 +4294,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>873</v>
+        <v>862</v>
       </c>
       <c r="C101" t="n">
-        <v>873</v>
+        <v>862</v>
       </c>
       <c r="D101" t="n">
-        <v>873</v>
+        <v>862</v>
       </c>
       <c r="E101" t="n">
-        <v>873</v>
+        <v>862</v>
       </c>
       <c r="F101" t="n">
-        <v>217.4131</v>
+        <v>1</v>
       </c>
       <c r="G101" t="n">
-        <v>-15039.59660574444</v>
+        <v>-13036.48410574444</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4308,7 +4318,9 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>834</v>
+      </c>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4324,22 +4336,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>873</v>
+        <v>854</v>
       </c>
       <c r="C102" t="n">
-        <v>874</v>
+        <v>854</v>
       </c>
       <c r="D102" t="n">
-        <v>874</v>
+        <v>854</v>
       </c>
       <c r="E102" t="n">
-        <v>873</v>
+        <v>854</v>
       </c>
       <c r="F102" t="n">
-        <v>248.1694</v>
+        <v>515.175</v>
       </c>
       <c r="G102" t="n">
-        <v>-14791.42720574444</v>
+        <v>-13551.65910574444</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4348,7 +4360,9 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>834</v>
+      </c>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4364,22 +4378,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>874</v>
+        <v>853</v>
       </c>
       <c r="C103" t="n">
-        <v>874</v>
+        <v>853</v>
       </c>
       <c r="D103" t="n">
-        <v>874</v>
+        <v>853</v>
       </c>
       <c r="E103" t="n">
-        <v>874</v>
+        <v>853</v>
       </c>
       <c r="F103" t="n">
-        <v>68.19589999999999</v>
+        <v>541.6014</v>
       </c>
       <c r="G103" t="n">
-        <v>-14791.42720574444</v>
+        <v>-14093.26050574444</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4388,7 +4402,9 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>834</v>
+      </c>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4404,22 +4420,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>877</v>
+        <v>855</v>
       </c>
       <c r="C104" t="n">
-        <v>882</v>
+        <v>855</v>
       </c>
       <c r="D104" t="n">
-        <v>882</v>
+        <v>855</v>
       </c>
       <c r="E104" t="n">
-        <v>877</v>
+        <v>855</v>
       </c>
       <c r="F104" t="n">
-        <v>1995</v>
+        <v>725.3239</v>
       </c>
       <c r="G104" t="n">
-        <v>-12796.42720574444</v>
+        <v>-13367.93660574444</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4428,7 +4444,9 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>834</v>
+      </c>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4444,72 +4462,80 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>881</v>
+        <v>853</v>
       </c>
       <c r="C105" t="n">
-        <v>881</v>
+        <v>853</v>
       </c>
       <c r="D105" t="n">
-        <v>881</v>
+        <v>853</v>
       </c>
       <c r="E105" t="n">
-        <v>881</v>
+        <v>853</v>
       </c>
       <c r="F105" t="n">
-        <v>270</v>
+        <v>182.2</v>
       </c>
       <c r="G105" t="n">
-        <v>-13066.42720574444</v>
+        <v>-13550.13660574444</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>834</v>
+      </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
-        <v>1.018072289156627</v>
-      </c>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>875</v>
+        <v>853</v>
       </c>
       <c r="C106" t="n">
-        <v>875</v>
+        <v>853</v>
       </c>
       <c r="D106" t="n">
-        <v>875</v>
+        <v>853</v>
       </c>
       <c r="E106" t="n">
-        <v>875</v>
+        <v>853</v>
       </c>
       <c r="F106" t="n">
-        <v>700</v>
+        <v>211.8842</v>
       </c>
       <c r="G106" t="n">
-        <v>-13766.42720574444</v>
+        <v>-13550.13660574444</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>834</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4520,32 +4546,38 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>875</v>
+        <v>857</v>
       </c>
       <c r="C107" t="n">
-        <v>876</v>
+        <v>857</v>
       </c>
       <c r="D107" t="n">
-        <v>876</v>
+        <v>857</v>
       </c>
       <c r="E107" t="n">
-        <v>874</v>
+        <v>857</v>
       </c>
       <c r="F107" t="n">
-        <v>137.4891</v>
+        <v>1</v>
       </c>
       <c r="G107" t="n">
-        <v>-13628.93810574444</v>
+        <v>-13549.13660574444</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>834</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4556,32 +4588,38 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>872</v>
+        <v>857</v>
       </c>
       <c r="C108" t="n">
-        <v>873</v>
+        <v>858</v>
       </c>
       <c r="D108" t="n">
-        <v>873</v>
+        <v>858</v>
       </c>
       <c r="E108" t="n">
-        <v>872</v>
+        <v>857</v>
       </c>
       <c r="F108" t="n">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="G108" t="n">
-        <v>-13631.93810574444</v>
+        <v>-13505.13660574444</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>834</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4592,32 +4630,38 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>872</v>
+        <v>855</v>
       </c>
       <c r="C109" t="n">
-        <v>872</v>
+        <v>855</v>
       </c>
       <c r="D109" t="n">
-        <v>872</v>
+        <v>855</v>
       </c>
       <c r="E109" t="n">
-        <v>872</v>
+        <v>855</v>
       </c>
       <c r="F109" t="n">
-        <v>2</v>
+        <v>500.53</v>
       </c>
       <c r="G109" t="n">
-        <v>-13633.93810574444</v>
+        <v>-14005.66660574444</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>834</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4628,32 +4672,38 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>873</v>
+        <v>858</v>
       </c>
       <c r="C110" t="n">
-        <v>873</v>
+        <v>858</v>
       </c>
       <c r="D110" t="n">
-        <v>873</v>
+        <v>858</v>
       </c>
       <c r="E110" t="n">
-        <v>873</v>
+        <v>858</v>
       </c>
       <c r="F110" t="n">
         <v>1</v>
       </c>
       <c r="G110" t="n">
-        <v>-13632.93810574444</v>
+        <v>-14004.66660574444</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>834</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4664,32 +4714,38 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>872</v>
+        <v>853</v>
       </c>
       <c r="C111" t="n">
-        <v>872</v>
+        <v>853</v>
       </c>
       <c r="D111" t="n">
-        <v>872</v>
+        <v>853</v>
       </c>
       <c r="E111" t="n">
-        <v>872</v>
+        <v>853</v>
       </c>
       <c r="F111" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="G111" t="n">
-        <v>-13633.93810574444</v>
+        <v>-14044.66660574444</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>834</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4700,32 +4756,38 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>872</v>
+        <v>857</v>
       </c>
       <c r="C112" t="n">
-        <v>872</v>
+        <v>858</v>
       </c>
       <c r="D112" t="n">
-        <v>872</v>
+        <v>858</v>
       </c>
       <c r="E112" t="n">
-        <v>872</v>
+        <v>857</v>
       </c>
       <c r="F112" t="n">
-        <v>14.5097</v>
+        <v>31</v>
       </c>
       <c r="G112" t="n">
-        <v>-13633.93810574444</v>
+        <v>-14013.66660574444</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>834</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4736,32 +4798,38 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>876</v>
+        <v>858</v>
       </c>
       <c r="C113" t="n">
-        <v>878</v>
+        <v>862</v>
       </c>
       <c r="D113" t="n">
-        <v>878</v>
+        <v>862</v>
       </c>
       <c r="E113" t="n">
-        <v>876</v>
+        <v>858</v>
       </c>
       <c r="F113" t="n">
-        <v>26.117</v>
+        <v>1005</v>
       </c>
       <c r="G113" t="n">
-        <v>-13607.82110574444</v>
+        <v>-13008.66660574444</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>834</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4772,32 +4840,38 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>875</v>
+        <v>861</v>
       </c>
       <c r="C114" t="n">
-        <v>875</v>
+        <v>861</v>
       </c>
       <c r="D114" t="n">
-        <v>875</v>
+        <v>861</v>
       </c>
       <c r="E114" t="n">
-        <v>875</v>
+        <v>861</v>
       </c>
       <c r="F114" t="n">
-        <v>800</v>
+        <v>1400</v>
       </c>
       <c r="G114" t="n">
-        <v>-14407.82110574444</v>
+        <v>-14408.66660574444</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>834</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4808,32 +4882,38 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>875</v>
+        <v>862</v>
       </c>
       <c r="C115" t="n">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="D115" t="n">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="E115" t="n">
-        <v>875</v>
+        <v>862</v>
       </c>
       <c r="F115" t="n">
-        <v>208000</v>
+        <v>1222.8594</v>
       </c>
       <c r="G115" t="n">
-        <v>-14407.82110574444</v>
+        <v>-13185.80720574444</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>834</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4844,32 +4924,38 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="C116" t="n">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="D116" t="n">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="E116" t="n">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="F116" t="n">
-        <v>213600</v>
+        <v>87.43429999999999</v>
       </c>
       <c r="G116" t="n">
-        <v>-14407.82110574444</v>
+        <v>-13098.37290574444</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>834</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4880,22 +4966,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>875</v>
+        <v>864</v>
       </c>
       <c r="C117" t="n">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="D117" t="n">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="E117" t="n">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="F117" t="n">
-        <v>214706</v>
+        <v>133.0413</v>
       </c>
       <c r="G117" t="n">
-        <v>-14407.82110574444</v>
+        <v>-13231.41420574444</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4904,10 +4990,16 @@
         <v>1</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>834</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M117" t="n">
-        <v>1</v>
+        <v>1.036966426858513</v>
       </c>
       <c r="N117" t="inlineStr"/>
     </row>
@@ -4916,7 +5008,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="C118" t="n">
         <v>875</v>
@@ -4925,19 +5017,19 @@
         <v>875</v>
       </c>
       <c r="E118" t="n">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="F118" t="n">
-        <v>219200</v>
+        <v>206.1041</v>
       </c>
       <c r="G118" t="n">
-        <v>-14407.82110574444</v>
+        <v>-13025.31010574444</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
@@ -4952,22 +5044,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>875</v>
+        <v>865</v>
       </c>
       <c r="C119" t="n">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="D119" t="n">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="E119" t="n">
-        <v>874</v>
+        <v>865</v>
       </c>
       <c r="F119" t="n">
-        <v>331040</v>
+        <v>450.5841</v>
       </c>
       <c r="G119" t="n">
-        <v>-14407.82110574444</v>
+        <v>-13475.89420574444</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4988,28 +5080,28 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="C120" t="n">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="D120" t="n">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E120" t="n">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="F120" t="n">
-        <v>42500</v>
+        <v>1</v>
       </c>
       <c r="G120" t="n">
-        <v>-14407.82110574444</v>
+        <v>-13474.89420574444</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
@@ -5024,22 +5116,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="C121" t="n">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="D121" t="n">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="E121" t="n">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="F121" t="n">
-        <v>256954.8</v>
+        <v>26.1758</v>
       </c>
       <c r="G121" t="n">
-        <v>-14407.82110574444</v>
+        <v>-13501.07000574444</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5060,22 +5152,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="C122" t="n">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="D122" t="n">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="E122" t="n">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="F122" t="n">
-        <v>147200</v>
+        <v>118.952</v>
       </c>
       <c r="G122" t="n">
-        <v>-14407.82110574444</v>
+        <v>-13382.11800574444</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5096,22 +5188,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="C123" t="n">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D123" t="n">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="E123" t="n">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="F123" t="n">
-        <v>14893.92018244014</v>
+        <v>373.5</v>
       </c>
       <c r="G123" t="n">
-        <v>-14407.82110574444</v>
+        <v>-13755.61800574444</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5132,22 +5224,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="C124" t="n">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="D124" t="n">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="E124" t="n">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="F124" t="n">
-        <v>1</v>
+        <v>495.0846</v>
       </c>
       <c r="G124" t="n">
-        <v>-14406.82110574444</v>
+        <v>-13260.53340574444</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5168,22 +5260,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="C125" t="n">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="D125" t="n">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E125" t="n">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="F125" t="n">
-        <v>424.656</v>
+        <v>20.2708</v>
       </c>
       <c r="G125" t="n">
-        <v>-14831.47710574444</v>
+        <v>-13280.80420574444</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5204,22 +5296,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C126" t="n">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="D126" t="n">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E126" t="n">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="F126" t="n">
-        <v>500.1274</v>
+        <v>516.7139</v>
       </c>
       <c r="G126" t="n">
-        <v>-14331.34970574444</v>
+        <v>-13797.51810574444</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5240,22 +5332,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="C127" t="n">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="D127" t="n">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E127" t="n">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="F127" t="n">
-        <v>31200</v>
+        <v>270</v>
       </c>
       <c r="G127" t="n">
-        <v>-14331.34970574444</v>
+        <v>-13797.51810574444</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5276,22 +5368,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="C128" t="n">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D128" t="n">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E128" t="n">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="F128" t="n">
-        <v>178750</v>
+        <v>62.4</v>
       </c>
       <c r="G128" t="n">
-        <v>-14331.34970574444</v>
+        <v>-13735.11810574444</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5307,6 +5399,1050 @@
       </c>
       <c r="N128" t="inlineStr"/>
     </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>873</v>
+      </c>
+      <c r="C129" t="n">
+        <v>873</v>
+      </c>
+      <c r="D129" t="n">
+        <v>873</v>
+      </c>
+      <c r="E129" t="n">
+        <v>872</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1304.4785</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-15039.59660574444</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>1</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>873</v>
+      </c>
+      <c r="C130" t="n">
+        <v>873</v>
+      </c>
+      <c r="D130" t="n">
+        <v>873</v>
+      </c>
+      <c r="E130" t="n">
+        <v>873</v>
+      </c>
+      <c r="F130" t="n">
+        <v>217.4131</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-15039.59660574444</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>873</v>
+      </c>
+      <c r="C131" t="n">
+        <v>874</v>
+      </c>
+      <c r="D131" t="n">
+        <v>874</v>
+      </c>
+      <c r="E131" t="n">
+        <v>873</v>
+      </c>
+      <c r="F131" t="n">
+        <v>248.1694</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-14791.42720574444</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>1</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>874</v>
+      </c>
+      <c r="C132" t="n">
+        <v>874</v>
+      </c>
+      <c r="D132" t="n">
+        <v>874</v>
+      </c>
+      <c r="E132" t="n">
+        <v>874</v>
+      </c>
+      <c r="F132" t="n">
+        <v>68.19589999999999</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-14791.42720574444</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>1</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>877</v>
+      </c>
+      <c r="C133" t="n">
+        <v>882</v>
+      </c>
+      <c r="D133" t="n">
+        <v>882</v>
+      </c>
+      <c r="E133" t="n">
+        <v>877</v>
+      </c>
+      <c r="F133" t="n">
+        <v>1995</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-12796.42720574444</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>881</v>
+      </c>
+      <c r="C134" t="n">
+        <v>881</v>
+      </c>
+      <c r="D134" t="n">
+        <v>881</v>
+      </c>
+      <c r="E134" t="n">
+        <v>881</v>
+      </c>
+      <c r="F134" t="n">
+        <v>270</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-13066.42720574444</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>1</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>875</v>
+      </c>
+      <c r="C135" t="n">
+        <v>875</v>
+      </c>
+      <c r="D135" t="n">
+        <v>875</v>
+      </c>
+      <c r="E135" t="n">
+        <v>875</v>
+      </c>
+      <c r="F135" t="n">
+        <v>700</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-13766.42720574444</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>1</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>875</v>
+      </c>
+      <c r="C136" t="n">
+        <v>876</v>
+      </c>
+      <c r="D136" t="n">
+        <v>876</v>
+      </c>
+      <c r="E136" t="n">
+        <v>874</v>
+      </c>
+      <c r="F136" t="n">
+        <v>137.4891</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-13628.93810574444</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>872</v>
+      </c>
+      <c r="C137" t="n">
+        <v>873</v>
+      </c>
+      <c r="D137" t="n">
+        <v>873</v>
+      </c>
+      <c r="E137" t="n">
+        <v>872</v>
+      </c>
+      <c r="F137" t="n">
+        <v>3</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-13631.93810574444</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>872</v>
+      </c>
+      <c r="C138" t="n">
+        <v>872</v>
+      </c>
+      <c r="D138" t="n">
+        <v>872</v>
+      </c>
+      <c r="E138" t="n">
+        <v>872</v>
+      </c>
+      <c r="F138" t="n">
+        <v>2</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-13633.93810574444</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>873</v>
+      </c>
+      <c r="C139" t="n">
+        <v>873</v>
+      </c>
+      <c r="D139" t="n">
+        <v>873</v>
+      </c>
+      <c r="E139" t="n">
+        <v>873</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-13632.93810574444</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>872</v>
+      </c>
+      <c r="C140" t="n">
+        <v>872</v>
+      </c>
+      <c r="D140" t="n">
+        <v>872</v>
+      </c>
+      <c r="E140" t="n">
+        <v>872</v>
+      </c>
+      <c r="F140" t="n">
+        <v>1</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-13633.93810574444</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>872</v>
+      </c>
+      <c r="C141" t="n">
+        <v>872</v>
+      </c>
+      <c r="D141" t="n">
+        <v>872</v>
+      </c>
+      <c r="E141" t="n">
+        <v>872</v>
+      </c>
+      <c r="F141" t="n">
+        <v>14.5097</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-13633.93810574444</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>876</v>
+      </c>
+      <c r="C142" t="n">
+        <v>878</v>
+      </c>
+      <c r="D142" t="n">
+        <v>878</v>
+      </c>
+      <c r="E142" t="n">
+        <v>876</v>
+      </c>
+      <c r="F142" t="n">
+        <v>26.117</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-13607.82110574444</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>875</v>
+      </c>
+      <c r="C143" t="n">
+        <v>875</v>
+      </c>
+      <c r="D143" t="n">
+        <v>875</v>
+      </c>
+      <c r="E143" t="n">
+        <v>875</v>
+      </c>
+      <c r="F143" t="n">
+        <v>800</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-14407.82110574444</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>875</v>
+      </c>
+      <c r="C144" t="n">
+        <v>875</v>
+      </c>
+      <c r="D144" t="n">
+        <v>875</v>
+      </c>
+      <c r="E144" t="n">
+        <v>875</v>
+      </c>
+      <c r="F144" t="n">
+        <v>208000</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-14407.82110574444</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>875</v>
+      </c>
+      <c r="C145" t="n">
+        <v>875</v>
+      </c>
+      <c r="D145" t="n">
+        <v>875</v>
+      </c>
+      <c r="E145" t="n">
+        <v>875</v>
+      </c>
+      <c r="F145" t="n">
+        <v>213600</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-14407.82110574444</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>875</v>
+      </c>
+      <c r="C146" t="n">
+        <v>875</v>
+      </c>
+      <c r="D146" t="n">
+        <v>875</v>
+      </c>
+      <c r="E146" t="n">
+        <v>866</v>
+      </c>
+      <c r="F146" t="n">
+        <v>214706</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-14407.82110574444</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>875</v>
+      </c>
+      <c r="C147" t="n">
+        <v>875</v>
+      </c>
+      <c r="D147" t="n">
+        <v>875</v>
+      </c>
+      <c r="E147" t="n">
+        <v>874</v>
+      </c>
+      <c r="F147" t="n">
+        <v>219200</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-14407.82110574444</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>875</v>
+      </c>
+      <c r="C148" t="n">
+        <v>875</v>
+      </c>
+      <c r="D148" t="n">
+        <v>875</v>
+      </c>
+      <c r="E148" t="n">
+        <v>874</v>
+      </c>
+      <c r="F148" t="n">
+        <v>331040</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-14407.82110574444</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>875</v>
+      </c>
+      <c r="C149" t="n">
+        <v>875</v>
+      </c>
+      <c r="D149" t="n">
+        <v>875</v>
+      </c>
+      <c r="E149" t="n">
+        <v>875</v>
+      </c>
+      <c r="F149" t="n">
+        <v>42500</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-14407.82110574444</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>875</v>
+      </c>
+      <c r="C150" t="n">
+        <v>875</v>
+      </c>
+      <c r="D150" t="n">
+        <v>875</v>
+      </c>
+      <c r="E150" t="n">
+        <v>871</v>
+      </c>
+      <c r="F150" t="n">
+        <v>256954.8</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-14407.82110574444</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>875</v>
+      </c>
+      <c r="C151" t="n">
+        <v>875</v>
+      </c>
+      <c r="D151" t="n">
+        <v>875</v>
+      </c>
+      <c r="E151" t="n">
+        <v>875</v>
+      </c>
+      <c r="F151" t="n">
+        <v>147200</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-14407.82110574444</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>877</v>
+      </c>
+      <c r="C152" t="n">
+        <v>875</v>
+      </c>
+      <c r="D152" t="n">
+        <v>877</v>
+      </c>
+      <c r="E152" t="n">
+        <v>875</v>
+      </c>
+      <c r="F152" t="n">
+        <v>14893.92018244014</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-14407.82110574444</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>878</v>
+      </c>
+      <c r="C153" t="n">
+        <v>878</v>
+      </c>
+      <c r="D153" t="n">
+        <v>878</v>
+      </c>
+      <c r="E153" t="n">
+        <v>878</v>
+      </c>
+      <c r="F153" t="n">
+        <v>1</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-14406.82110574444</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>873</v>
+      </c>
+      <c r="C154" t="n">
+        <v>873</v>
+      </c>
+      <c r="D154" t="n">
+        <v>873</v>
+      </c>
+      <c r="E154" t="n">
+        <v>873</v>
+      </c>
+      <c r="F154" t="n">
+        <v>424.656</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-14831.47710574444</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>875</v>
+      </c>
+      <c r="C155" t="n">
+        <v>875</v>
+      </c>
+      <c r="D155" t="n">
+        <v>875</v>
+      </c>
+      <c r="E155" t="n">
+        <v>875</v>
+      </c>
+      <c r="F155" t="n">
+        <v>500.1274</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-14331.34970574444</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>875</v>
+      </c>
+      <c r="C156" t="n">
+        <v>875</v>
+      </c>
+      <c r="D156" t="n">
+        <v>875</v>
+      </c>
+      <c r="E156" t="n">
+        <v>875</v>
+      </c>
+      <c r="F156" t="n">
+        <v>31200</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-14331.34970574444</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>875</v>
+      </c>
+      <c r="C157" t="n">
+        <v>875</v>
+      </c>
+      <c r="D157" t="n">
+        <v>875</v>
+      </c>
+      <c r="E157" t="n">
+        <v>875</v>
+      </c>
+      <c r="F157" t="n">
+        <v>178750</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-14331.34970574444</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-11-02 BackTest WTC.xlsx
+++ b/BackTest/2019-11-02 BackTest WTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N157"/>
+  <dimension ref="A1:M157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1896,18 +1771,19 @@
         <v>-21131.62980574443</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
+        <v>837</v>
+      </c>
+      <c r="J42" t="n">
+        <v>837</v>
+      </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1810,19 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>837</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1849,19 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>837</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1888,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1921,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1954,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1987,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2020,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2053,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2086,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2119,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2152,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2185,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2218,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2400,18 +2249,19 @@
         <v>-25421.91900574444</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
+        <v>830</v>
+      </c>
+      <c r="J56" t="n">
+        <v>830</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2288,19 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>830</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2472,22 +2325,21 @@
         <v>-24850.68830574444</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
-        <v>834</v>
-      </c>
-      <c r="K58" t="n">
-        <v>834</v>
-      </c>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+        <v>830</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2512,26 +2364,15 @@
         <v>-24016.02780574444</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="n">
-        <v>834</v>
-      </c>
-      <c r="K59" t="n">
-        <v>834</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2556,26 +2397,15 @@
         <v>-24016.02780574444</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="n">
-        <v>835</v>
-      </c>
-      <c r="K60" t="n">
-        <v>834</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2600,26 +2430,15 @@
         <v>-24016.02780574444</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="n">
-        <v>835</v>
-      </c>
-      <c r="K61" t="n">
-        <v>834</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2644,26 +2463,15 @@
         <v>-24896.73010574444</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>835</v>
-      </c>
-      <c r="K62" t="n">
-        <v>834</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2688,26 +2496,15 @@
         <v>-24895.73010574444</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="n">
-        <v>834</v>
-      </c>
-      <c r="K63" t="n">
-        <v>834</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2732,26 +2529,19 @@
         <v>-24895.73010574444</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>836</v>
       </c>
       <c r="J64" t="n">
         <v>836</v>
       </c>
-      <c r="K64" t="n">
-        <v>834</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2776,26 +2566,21 @@
         <v>-24895.73010574444</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
         <v>836</v>
       </c>
-      <c r="K65" t="n">
-        <v>834</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2820,26 +2605,23 @@
         <v>-24895.73010574444</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>836</v>
       </c>
       <c r="J66" t="n">
         <v>836</v>
       </c>
-      <c r="K66" t="n">
-        <v>834</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2864,26 +2646,21 @@
         <v>-24992.73010574444</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
         <v>836</v>
       </c>
-      <c r="K67" t="n">
-        <v>834</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2908,26 +2685,23 @@
         <v>-22467.65800574444</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>835</v>
       </c>
       <c r="J68" t="n">
-        <v>835</v>
-      </c>
-      <c r="K68" t="n">
-        <v>834</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+        <v>836</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2952,26 +2726,23 @@
         <v>-22557.00150574444</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>836</v>
       </c>
       <c r="J69" t="n">
         <v>836</v>
       </c>
-      <c r="K69" t="n">
-        <v>834</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2996,26 +2767,23 @@
         <v>-22406.51150574443</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>834</v>
       </c>
       <c r="J70" t="n">
-        <v>834</v>
-      </c>
-      <c r="K70" t="n">
-        <v>834</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+        <v>836</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3040,26 +2808,23 @@
         <v>-22405.51150574443</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>835</v>
       </c>
       <c r="J71" t="n">
-        <v>835</v>
-      </c>
-      <c r="K71" t="n">
-        <v>834</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+        <v>836</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3084,26 +2849,23 @@
         <v>-18094.05520574444</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>837</v>
       </c>
       <c r="J72" t="n">
-        <v>837</v>
-      </c>
-      <c r="K72" t="n">
-        <v>834</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+        <v>836</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3128,26 +2890,23 @@
         <v>-20194.05520574444</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>838</v>
       </c>
       <c r="J73" t="n">
-        <v>838</v>
-      </c>
-      <c r="K73" t="n">
-        <v>834</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+        <v>836</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3172,26 +2931,23 @@
         <v>-20694.05520574444</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>837</v>
       </c>
       <c r="J74" t="n">
-        <v>837</v>
-      </c>
-      <c r="K74" t="n">
-        <v>834</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+        <v>836</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3216,26 +2972,23 @@
         <v>-20681.45520574444</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>831</v>
       </c>
       <c r="J75" t="n">
-        <v>831</v>
-      </c>
-      <c r="K75" t="n">
-        <v>834</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+        <v>836</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3260,26 +3013,21 @@
         <v>-20581.45520574444</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
         <v>836</v>
       </c>
-      <c r="K76" t="n">
-        <v>834</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3306,22 +3054,19 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>834</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>836</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3348,22 +3093,19 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>834</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>836</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3390,22 +3132,19 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>834</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>836</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3432,22 +3171,19 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>834</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>836</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3474,22 +3210,19 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>834</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>836</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3516,22 +3249,19 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>834</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>836</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3558,22 +3288,19 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>834</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>836</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3600,22 +3327,19 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>834</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>836</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3642,22 +3366,19 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>834</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>836</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3684,22 +3405,19 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>834</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>836</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3726,22 +3444,19 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>834</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>836</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3768,22 +3483,19 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>834</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>836</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3810,22 +3522,19 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>834</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>836</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3850,24 +3559,21 @@
         <v>-11191.07770574444</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>834</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>836</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3892,24 +3598,21 @@
         <v>-11205.68710574444</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>834</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>836</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3934,24 +3637,21 @@
         <v>-10655.68280574444</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>834</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>836</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3976,24 +3676,21 @@
         <v>-10688.29550574444</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>834</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>836</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4018,24 +3715,21 @@
         <v>-10688.29550574444</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>834</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>836</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4060,24 +3754,21 @@
         <v>-10687.29550574444</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>834</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>836</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4104,22 +3795,19 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>834</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>836</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4146,22 +3834,19 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>834</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>836</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4188,22 +3873,19 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>834</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>836</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4230,22 +3912,19 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>834</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>836</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4272,22 +3951,19 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>834</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>836</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4314,22 +3990,19 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>834</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>836</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4356,22 +4029,19 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>834</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>836</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4398,22 +4068,19 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>834</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>836</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4440,22 +4107,19 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>834</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>836</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4482,22 +4146,19 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>834</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>836</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4524,22 +4185,19 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>834</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>836</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4566,22 +4224,19 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>834</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>836</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4606,24 +4261,21 @@
         <v>-13505.13660574444</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>834</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>836</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4650,22 +4302,19 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>834</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>836</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4692,22 +4341,19 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>834</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>836</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4734,22 +4380,19 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>834</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>836</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4776,22 +4419,19 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>834</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>836</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4818,22 +4458,19 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>834</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>836</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4860,22 +4497,19 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>834</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>836</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4902,22 +4536,19 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>834</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>836</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4944,22 +4575,19 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>834</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>836</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4984,24 +4612,21 @@
         <v>-13231.41420574444</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>1</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>834</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1.036966426858513</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>836</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5026,18 +4651,21 @@
         <v>-13025.31010574444</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>836</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5064,16 +4692,19 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>1</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>836</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5098,18 +4729,21 @@
         <v>-13474.89420574444</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>836</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5134,18 +4768,21 @@
         <v>-13501.07000574444</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>1</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>836</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5170,18 +4807,21 @@
         <v>-13382.11800574444</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>1</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>836</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5206,18 +4846,21 @@
         <v>-13755.61800574444</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>1</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>836</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5242,18 +4885,21 @@
         <v>-13260.53340574444</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>1</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>836</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5280,16 +4926,19 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>1</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>836</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5316,16 +4965,19 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>1</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>836</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5352,16 +5004,19 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>1</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>836</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5386,18 +5041,21 @@
         <v>-13735.11810574444</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>1</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>836</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5422,18 +5080,21 @@
         <v>-15039.59660574444</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>1</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>836</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5460,16 +5121,19 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>1</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>836</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5496,16 +5160,19 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>1</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>836</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5532,16 +5199,19 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>1</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>836</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5568,16 +5238,19 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>836</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5602,18 +5275,21 @@
         <v>-13066.42720574444</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>1</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>836</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1.048827751196172</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5638,18 +5314,15 @@
         <v>-13766.42720574444</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5674,18 +5347,15 @@
         <v>-13628.93810574444</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5712,16 +5382,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5748,16 +5415,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5784,16 +5448,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5820,16 +5481,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5856,16 +5514,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5892,16 +5547,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5928,16 +5580,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5964,16 +5613,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6000,16 +5646,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6036,16 +5679,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6072,16 +5712,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6108,16 +5745,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6144,16 +5778,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6180,16 +5811,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6216,16 +5844,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6252,16 +5877,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6288,16 +5910,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6324,16 +5943,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6360,16 +5976,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6396,16 +6009,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6432,18 +6042,15 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-02 BackTest WTC.xlsx
+++ b/BackTest/2019-11-02 BackTest WTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1672,10 +1672,14 @@
         <v>-21157.51880574443</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>831</v>
+      </c>
+      <c r="J39" t="n">
+        <v>831</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
@@ -1705,11 +1709,19 @@
         <v>-20800.51880574443</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>834</v>
+      </c>
+      <c r="J40" t="n">
+        <v>831</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1738,11 +1750,19 @@
         <v>-20800.51880574443</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>837</v>
+      </c>
+      <c r="J41" t="n">
+        <v>831</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1771,7 +1791,7 @@
         <v>-21131.62980574443</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>837</v>
@@ -1808,9 +1828,11 @@
         <v>-20495.32090574443</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>836</v>
+      </c>
       <c r="J43" t="n">
         <v>837</v>
       </c>
@@ -2249,7 +2271,7 @@
         <v>-25421.91900574444</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>830</v>
@@ -2286,9 +2308,11 @@
         <v>-24850.68830574444</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>830</v>
+      </c>
       <c r="J57" t="n">
         <v>830</v>
       </c>
@@ -2325,9 +2349,11 @@
         <v>-24850.68830574444</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>834</v>
+      </c>
       <c r="J58" t="n">
         <v>830</v>
       </c>
@@ -2364,10 +2390,14 @@
         <v>-24016.02780574444</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>834</v>
+      </c>
+      <c r="J59" t="n">
+        <v>834</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
@@ -2397,11 +2427,19 @@
         <v>-24016.02780574444</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>835</v>
+      </c>
+      <c r="J60" t="n">
+        <v>834</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2430,11 +2468,19 @@
         <v>-24016.02780574444</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>835</v>
+      </c>
+      <c r="J61" t="n">
+        <v>834</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2463,11 +2509,19 @@
         <v>-24896.73010574444</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>835</v>
+      </c>
+      <c r="J62" t="n">
+        <v>834</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2496,11 +2550,19 @@
         <v>-24895.73010574444</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>834</v>
+      </c>
+      <c r="J63" t="n">
+        <v>834</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2529,15 +2591,19 @@
         <v>-24895.73010574444</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>836</v>
       </c>
       <c r="J64" t="n">
-        <v>836</v>
-      </c>
-      <c r="K64" t="inlineStr"/>
+        <v>834</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2566,15 +2632,17 @@
         <v>-24895.73010574444</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>836</v>
+      </c>
       <c r="J65" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L65" t="n">
@@ -2605,17 +2673,17 @@
         <v>-24895.73010574444</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>836</v>
       </c>
       <c r="J66" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L66" t="n">
@@ -2646,11 +2714,13 @@
         <v>-24992.73010574444</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>836</v>
+      </c>
       <c r="J67" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -2685,13 +2755,13 @@
         <v>-22467.65800574444</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>835</v>
       </c>
       <c r="J68" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -2726,13 +2796,13 @@
         <v>-22557.00150574444</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>836</v>
       </c>
       <c r="J69" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -2767,13 +2837,13 @@
         <v>-22406.51150574443</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>834</v>
       </c>
       <c r="J70" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -2808,13 +2878,13 @@
         <v>-22405.51150574443</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>835</v>
       </c>
       <c r="J71" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -2849,13 +2919,13 @@
         <v>-18094.05520574444</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>837</v>
       </c>
       <c r="J72" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -2890,13 +2960,13 @@
         <v>-20194.05520574444</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>838</v>
       </c>
       <c r="J73" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -2931,13 +3001,13 @@
         <v>-20694.05520574444</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>837</v>
       </c>
       <c r="J74" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -2972,13 +3042,13 @@
         <v>-20681.45520574444</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>831</v>
       </c>
       <c r="J75" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3013,11 +3083,13 @@
         <v>-20581.45520574444</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>836</v>
+      </c>
       <c r="J76" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3052,11 +3124,13 @@
         <v>-20579.45520574444</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>837</v>
+      </c>
       <c r="J77" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3091,11 +3165,13 @@
         <v>-20625.29710574444</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>846</v>
+      </c>
       <c r="J78" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3134,7 +3210,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3173,7 +3249,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3212,7 +3288,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3251,7 +3327,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3290,7 +3366,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3329,7 +3405,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3368,7 +3444,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3407,7 +3483,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3446,7 +3522,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3485,7 +3561,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3524,7 +3600,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3559,11 +3635,11 @@
         <v>-11191.07770574444</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3598,11 +3674,11 @@
         <v>-11205.68710574444</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3637,11 +3713,11 @@
         <v>-10655.68280574444</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3676,11 +3752,11 @@
         <v>-10688.29550574444</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -3715,11 +3791,11 @@
         <v>-10688.29550574444</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -3754,11 +3830,11 @@
         <v>-10687.29550574444</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -3797,7 +3873,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -3836,7 +3912,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -3875,7 +3951,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -3914,7 +3990,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -3953,7 +4029,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -3992,7 +4068,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4031,7 +4107,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4070,7 +4146,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4109,7 +4185,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4148,7 +4224,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4187,7 +4263,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4226,7 +4302,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4261,11 +4337,11 @@
         <v>-13505.13660574444</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4304,7 +4380,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4343,7 +4419,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4382,7 +4458,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4421,7 +4497,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4460,7 +4536,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4499,7 +4575,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4538,7 +4614,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4577,7 +4653,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4612,11 +4688,11 @@
         <v>-13231.41420574444</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4651,11 +4727,11 @@
         <v>-13025.31010574444</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4694,7 +4770,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4729,11 +4805,11 @@
         <v>-13474.89420574444</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -4768,11 +4844,11 @@
         <v>-13501.07000574444</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -4807,11 +4883,11 @@
         <v>-13382.11800574444</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -4846,11 +4922,11 @@
         <v>-13755.61800574444</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -4885,11 +4961,11 @@
         <v>-13260.53340574444</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -4928,7 +5004,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -4967,7 +5043,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -5006,7 +5082,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -5041,11 +5117,11 @@
         <v>-13735.11810574444</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -5080,11 +5156,11 @@
         <v>-15039.59660574444</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -5123,7 +5199,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5162,7 +5238,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5201,7 +5277,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5240,7 +5316,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5275,19 +5351,19 @@
         <v>-13066.42720574444</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L134" t="n">
-        <v>1.048827751196172</v>
+        <v>1</v>
       </c>
       <c r="M134" t="inlineStr"/>
     </row>
@@ -5314,11 +5390,17 @@
         <v>-13766.42720574444</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>834</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5347,11 +5429,17 @@
         <v>-13628.93810574444</v>
       </c>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>834</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5380,13 +5468,19 @@
         <v>-13631.93810574444</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>834</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L137" t="n">
-        <v>1</v>
+        <v>1.041762589928058</v>
       </c>
       <c r="M137" t="inlineStr"/>
     </row>
@@ -5413,7 +5507,7 @@
         <v>-13633.93810574444</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5446,7 +5540,7 @@
         <v>-13632.93810574444</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5479,7 +5573,7 @@
         <v>-13633.93810574444</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5578,7 +5672,7 @@
         <v>-14407.82110574444</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5611,7 +5705,7 @@
         <v>-14407.82110574444</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5644,7 +5738,7 @@
         <v>-14407.82110574444</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5677,7 +5771,7 @@
         <v>-14407.82110574444</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5710,7 +5804,7 @@
         <v>-14407.82110574444</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5743,7 +5837,7 @@
         <v>-14407.82110574444</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5776,7 +5870,7 @@
         <v>-14407.82110574444</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5809,7 +5903,7 @@
         <v>-14407.82110574444</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5842,7 +5936,7 @@
         <v>-14407.82110574444</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5875,7 +5969,7 @@
         <v>-14407.82110574444</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5908,7 +6002,7 @@
         <v>-14406.82110574444</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5941,7 +6035,7 @@
         <v>-14831.47710574444</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5974,7 +6068,7 @@
         <v>-14331.34970574444</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6007,7 +6101,7 @@
         <v>-14331.34970574444</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6040,7 +6134,7 @@
         <v>-14331.34970574444</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6051,6 +6145,6 @@
       <c r="M157" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-02 BackTest WTC.xlsx
+++ b/BackTest/2019-11-02 BackTest WTC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1672,14 +1672,10 @@
         <v>-21157.51880574443</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>831</v>
-      </c>
-      <c r="J39" t="n">
-        <v>831</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
@@ -1709,19 +1705,11 @@
         <v>-20800.51880574443</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>834</v>
-      </c>
-      <c r="J40" t="n">
-        <v>831</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1750,19 +1738,11 @@
         <v>-20800.51880574443</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>837</v>
-      </c>
-      <c r="J41" t="n">
-        <v>831</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1791,14 +1771,10 @@
         <v>-21131.62980574443</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>837</v>
-      </c>
-      <c r="J42" t="n">
-        <v>837</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
@@ -1828,19 +1804,11 @@
         <v>-20495.32090574443</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>836</v>
-      </c>
-      <c r="J43" t="n">
-        <v>837</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1872,14 +1840,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>837</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2271,14 +2233,10 @@
         <v>-25421.91900574444</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>830</v>
-      </c>
-      <c r="J56" t="n">
-        <v>830</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
@@ -2308,384 +2266,328 @@
         <v>-24850.68830574444</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>830</v>
-      </c>
-      <c r="J57" t="n">
-        <v>830</v>
-      </c>
-      <c r="K57" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>834</v>
+      </c>
+      <c r="C58" t="n">
+        <v>834</v>
+      </c>
+      <c r="D58" t="n">
+        <v>834</v>
+      </c>
+      <c r="E58" t="n">
+        <v>834</v>
+      </c>
+      <c r="F58" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-24850.68830574444</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>835</v>
+      </c>
+      <c r="C59" t="n">
+        <v>835</v>
+      </c>
+      <c r="D59" t="n">
+        <v>835</v>
+      </c>
+      <c r="E59" t="n">
+        <v>835</v>
+      </c>
+      <c r="F59" t="n">
+        <v>834.6605</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-24016.02780574444</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>835</v>
+      </c>
+      <c r="C60" t="n">
+        <v>835</v>
+      </c>
+      <c r="D60" t="n">
+        <v>835</v>
+      </c>
+      <c r="E60" t="n">
+        <v>835</v>
+      </c>
+      <c r="F60" t="n">
+        <v>480.71</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-24016.02780574444</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>834</v>
+      </c>
+      <c r="C61" t="n">
+        <v>835</v>
+      </c>
+      <c r="D61" t="n">
+        <v>835</v>
+      </c>
+      <c r="E61" t="n">
+        <v>834</v>
+      </c>
+      <c r="F61" t="n">
+        <v>769.7206</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-24016.02780574444</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>834</v>
+      </c>
+      <c r="C62" t="n">
+        <v>834</v>
+      </c>
+      <c r="D62" t="n">
+        <v>834</v>
+      </c>
+      <c r="E62" t="n">
+        <v>834</v>
+      </c>
+      <c r="F62" t="n">
+        <v>880.7023</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-24896.73010574444</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>836</v>
+      </c>
+      <c r="C63" t="n">
+        <v>836</v>
+      </c>
+      <c r="D63" t="n">
+        <v>836</v>
+      </c>
+      <c r="E63" t="n">
+        <v>836</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-24895.73010574444</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>836</v>
+      </c>
+      <c r="C64" t="n">
+        <v>836</v>
+      </c>
+      <c r="D64" t="n">
+        <v>836</v>
+      </c>
+      <c r="E64" t="n">
+        <v>836</v>
+      </c>
+      <c r="F64" t="n">
+        <v>643.1473</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-24895.73010574444</v>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>836</v>
+      </c>
+      <c r="J64" t="n">
+        <v>836</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>836</v>
+      </c>
+      <c r="C65" t="n">
+        <v>836</v>
+      </c>
+      <c r="D65" t="n">
+        <v>836</v>
+      </c>
+      <c r="E65" t="n">
+        <v>836</v>
+      </c>
+      <c r="F65" t="n">
+        <v>457.0455</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-24895.73010574444</v>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>836</v>
+      </c>
+      <c r="J65" t="n">
+        <v>836</v>
+      </c>
+      <c r="K65" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>834</v>
-      </c>
-      <c r="C58" t="n">
-        <v>834</v>
-      </c>
-      <c r="D58" t="n">
-        <v>834</v>
-      </c>
-      <c r="E58" t="n">
-        <v>834</v>
-      </c>
-      <c r="F58" t="n">
-        <v>46.2</v>
-      </c>
-      <c r="G58" t="n">
-        <v>-24850.68830574444</v>
-      </c>
-      <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>834</v>
-      </c>
-      <c r="J58" t="n">
-        <v>830</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
         <v>835</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C66" t="n">
+        <v>836</v>
+      </c>
+      <c r="D66" t="n">
+        <v>836</v>
+      </c>
+      <c r="E66" t="n">
         <v>835</v>
       </c>
-      <c r="D59" t="n">
-        <v>835</v>
-      </c>
-      <c r="E59" t="n">
-        <v>835</v>
-      </c>
-      <c r="F59" t="n">
-        <v>834.6605</v>
-      </c>
-      <c r="G59" t="n">
-        <v>-24016.02780574444</v>
-      </c>
-      <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>834</v>
-      </c>
-      <c r="J59" t="n">
-        <v>834</v>
-      </c>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>835</v>
-      </c>
-      <c r="C60" t="n">
-        <v>835</v>
-      </c>
-      <c r="D60" t="n">
-        <v>835</v>
-      </c>
-      <c r="E60" t="n">
-        <v>835</v>
-      </c>
-      <c r="F60" t="n">
-        <v>480.71</v>
-      </c>
-      <c r="G60" t="n">
-        <v>-24016.02780574444</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>835</v>
-      </c>
-      <c r="J60" t="n">
-        <v>834</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>834</v>
-      </c>
-      <c r="C61" t="n">
-        <v>835</v>
-      </c>
-      <c r="D61" t="n">
-        <v>835</v>
-      </c>
-      <c r="E61" t="n">
-        <v>834</v>
-      </c>
-      <c r="F61" t="n">
-        <v>769.7206</v>
-      </c>
-      <c r="G61" t="n">
-        <v>-24016.02780574444</v>
-      </c>
-      <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>835</v>
-      </c>
-      <c r="J61" t="n">
-        <v>834</v>
-      </c>
-      <c r="K61" t="inlineStr">
+      <c r="F66" t="n">
+        <v>1026.6856</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-24895.73010574444</v>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>836</v>
+      </c>
+      <c r="J66" t="n">
+        <v>836</v>
+      </c>
+      <c r="K66" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>834</v>
-      </c>
-      <c r="C62" t="n">
-        <v>834</v>
-      </c>
-      <c r="D62" t="n">
-        <v>834</v>
-      </c>
-      <c r="E62" t="n">
-        <v>834</v>
-      </c>
-      <c r="F62" t="n">
-        <v>880.7023</v>
-      </c>
-      <c r="G62" t="n">
-        <v>-24896.73010574444</v>
-      </c>
-      <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>835</v>
-      </c>
-      <c r="J62" t="n">
-        <v>834</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>836</v>
-      </c>
-      <c r="C63" t="n">
-        <v>836</v>
-      </c>
-      <c r="D63" t="n">
-        <v>836</v>
-      </c>
-      <c r="E63" t="n">
-        <v>836</v>
-      </c>
-      <c r="F63" t="n">
-        <v>1</v>
-      </c>
-      <c r="G63" t="n">
-        <v>-24895.73010574444</v>
-      </c>
-      <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>834</v>
-      </c>
-      <c r="J63" t="n">
-        <v>834</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>836</v>
-      </c>
-      <c r="C64" t="n">
-        <v>836</v>
-      </c>
-      <c r="D64" t="n">
-        <v>836</v>
-      </c>
-      <c r="E64" t="n">
-        <v>836</v>
-      </c>
-      <c r="F64" t="n">
-        <v>643.1473</v>
-      </c>
-      <c r="G64" t="n">
-        <v>-24895.73010574444</v>
-      </c>
-      <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>836</v>
-      </c>
-      <c r="J64" t="n">
-        <v>834</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>836</v>
-      </c>
-      <c r="C65" t="n">
-        <v>836</v>
-      </c>
-      <c r="D65" t="n">
-        <v>836</v>
-      </c>
-      <c r="E65" t="n">
-        <v>836</v>
-      </c>
-      <c r="F65" t="n">
-        <v>457.0455</v>
-      </c>
-      <c r="G65" t="n">
-        <v>-24895.73010574444</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>836</v>
-      </c>
-      <c r="J65" t="n">
-        <v>834</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>835</v>
-      </c>
-      <c r="C66" t="n">
-        <v>836</v>
-      </c>
-      <c r="D66" t="n">
-        <v>836</v>
-      </c>
-      <c r="E66" t="n">
-        <v>835</v>
-      </c>
-      <c r="F66" t="n">
-        <v>1026.6856</v>
-      </c>
-      <c r="G66" t="n">
-        <v>-24895.73010574444</v>
-      </c>
-      <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>836</v>
-      </c>
-      <c r="J66" t="n">
-        <v>834</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2720,7 +2622,7 @@
         <v>836</v>
       </c>
       <c r="J67" t="n">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -2761,7 +2663,7 @@
         <v>835</v>
       </c>
       <c r="J68" t="n">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -2802,7 +2704,7 @@
         <v>836</v>
       </c>
       <c r="J69" t="n">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -2843,7 +2745,7 @@
         <v>834</v>
       </c>
       <c r="J70" t="n">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -2884,7 +2786,7 @@
         <v>835</v>
       </c>
       <c r="J71" t="n">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -2925,7 +2827,7 @@
         <v>837</v>
       </c>
       <c r="J72" t="n">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -2966,7 +2868,7 @@
         <v>838</v>
       </c>
       <c r="J73" t="n">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3007,7 +2909,7 @@
         <v>837</v>
       </c>
       <c r="J74" t="n">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3048,7 +2950,7 @@
         <v>831</v>
       </c>
       <c r="J75" t="n">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3089,7 +2991,7 @@
         <v>836</v>
       </c>
       <c r="J76" t="n">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3130,7 +3032,7 @@
         <v>837</v>
       </c>
       <c r="J77" t="n">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3165,13 +3067,11 @@
         <v>-20625.29710574444</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>846</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3210,7 +3110,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3249,7 +3149,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3288,7 +3188,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3327,7 +3227,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3366,7 +3266,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3405,7 +3305,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3444,7 +3344,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3483,7 +3383,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3522,7 +3422,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3561,7 +3461,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3600,7 +3500,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3639,7 +3539,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3678,7 +3578,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3717,7 +3617,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3756,7 +3656,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -3795,7 +3695,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -3834,7 +3734,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -3873,7 +3773,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -3912,7 +3812,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -3951,7 +3851,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -3990,7 +3890,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -4029,7 +3929,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4068,7 +3968,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4107,7 +4007,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4146,7 +4046,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4185,7 +4085,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4224,7 +4124,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4263,7 +4163,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4302,7 +4202,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4341,7 +4241,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4380,7 +4280,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4415,19 +4315,19 @@
         <v>-14004.66660574444</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L110" t="n">
-        <v>1</v>
+        <v>1.021315789473684</v>
       </c>
       <c r="M110" t="inlineStr"/>
     </row>
@@ -4454,17 +4354,11 @@
         <v>-14044.66660574444</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>834</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4493,17 +4387,11 @@
         <v>-14013.66660574444</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>834</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4532,17 +4420,11 @@
         <v>-13008.66660574444</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>834</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4571,17 +4453,11 @@
         <v>-14408.66660574444</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>834</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4610,17 +4486,11 @@
         <v>-13185.80720574444</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>834</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4652,14 +4522,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>834</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4691,14 +4555,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>834</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4730,14 +4588,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>834</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4769,14 +4621,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>834</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4808,14 +4654,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>834</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4847,14 +4687,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>834</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4886,14 +4720,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>834</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4925,14 +4753,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>834</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4964,14 +4786,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>834</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5003,14 +4819,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>834</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5042,14 +4852,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>834</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5081,14 +4885,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>834</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5120,14 +4918,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>834</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5159,14 +4951,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>834</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5198,14 +4984,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>834</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5237,14 +5017,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>834</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5276,14 +5050,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>834</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5315,14 +5083,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>834</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5354,14 +5116,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>834</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5393,14 +5149,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>834</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5432,14 +5182,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>834</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5468,19 +5212,13 @@
         <v>-13631.93810574444</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>834</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
-        <v>1.041762589928058</v>
+        <v>1</v>
       </c>
       <c r="M137" t="inlineStr"/>
     </row>
@@ -5507,7 +5245,7 @@
         <v>-13633.93810574444</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5540,7 +5278,7 @@
         <v>-13632.93810574444</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5573,7 +5311,7 @@
         <v>-13633.93810574444</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5672,7 +5410,7 @@
         <v>-14407.82110574444</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5705,7 +5443,7 @@
         <v>-14407.82110574444</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5738,7 +5476,7 @@
         <v>-14407.82110574444</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5771,7 +5509,7 @@
         <v>-14407.82110574444</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5804,7 +5542,7 @@
         <v>-14407.82110574444</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5837,7 +5575,7 @@
         <v>-14407.82110574444</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5870,7 +5608,7 @@
         <v>-14407.82110574444</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5903,7 +5641,7 @@
         <v>-14407.82110574444</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5936,7 +5674,7 @@
         <v>-14407.82110574444</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5969,7 +5707,7 @@
         <v>-14407.82110574444</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -6002,7 +5740,7 @@
         <v>-14406.82110574444</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -6035,7 +5773,7 @@
         <v>-14831.47710574444</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -6068,7 +5806,7 @@
         <v>-14331.34970574444</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6101,7 +5839,7 @@
         <v>-14331.34970574444</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6134,7 +5872,7 @@
         <v>-14331.34970574444</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6145,6 +5883,6 @@
       <c r="M157" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-02 BackTest WTC.xlsx
+++ b/BackTest/2019-11-02 BackTest WTC.xlsx
@@ -2332,10 +2332,14 @@
         <v>-24016.02780574444</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>834</v>
+      </c>
+      <c r="J59" t="n">
+        <v>834</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
@@ -2365,11 +2369,19 @@
         <v>-24016.02780574444</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>835</v>
+      </c>
+      <c r="J60" t="n">
+        <v>834</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2398,11 +2410,19 @@
         <v>-24016.02780574444</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>835</v>
+      </c>
+      <c r="J61" t="n">
+        <v>834</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2431,11 +2451,19 @@
         <v>-24896.73010574444</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>835</v>
+      </c>
+      <c r="J62" t="n">
+        <v>834</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2464,11 +2492,19 @@
         <v>-24895.73010574444</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>834</v>
+      </c>
+      <c r="J63" t="n">
+        <v>834</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2503,9 +2539,13 @@
         <v>836</v>
       </c>
       <c r="J64" t="n">
-        <v>836</v>
-      </c>
-      <c r="K64" t="inlineStr"/>
+        <v>834</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2540,11 +2580,11 @@
         <v>836</v>
       </c>
       <c r="J65" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L65" t="n">
@@ -2581,11 +2621,11 @@
         <v>836</v>
       </c>
       <c r="J66" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L66" t="n">
@@ -2622,7 +2662,7 @@
         <v>836</v>
       </c>
       <c r="J67" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -2663,7 +2703,7 @@
         <v>835</v>
       </c>
       <c r="J68" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -2704,7 +2744,7 @@
         <v>836</v>
       </c>
       <c r="J69" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -2745,7 +2785,7 @@
         <v>834</v>
       </c>
       <c r="J70" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -2786,7 +2826,7 @@
         <v>835</v>
       </c>
       <c r="J71" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -2827,7 +2867,7 @@
         <v>837</v>
       </c>
       <c r="J72" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -2868,7 +2908,7 @@
         <v>838</v>
       </c>
       <c r="J73" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -2909,7 +2949,7 @@
         <v>837</v>
       </c>
       <c r="J74" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -2950,7 +2990,7 @@
         <v>831</v>
       </c>
       <c r="J75" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -2991,7 +3031,7 @@
         <v>836</v>
       </c>
       <c r="J76" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3032,7 +3072,7 @@
         <v>837</v>
       </c>
       <c r="J77" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3071,7 +3111,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3110,7 +3150,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3149,7 +3189,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3188,7 +3228,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3227,7 +3267,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3266,7 +3306,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3305,7 +3345,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3344,7 +3384,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3383,7 +3423,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3422,7 +3462,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3461,7 +3501,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3500,7 +3540,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3539,7 +3579,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3578,7 +3618,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3617,7 +3657,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3656,7 +3696,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -3695,7 +3735,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -3734,7 +3774,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -3773,7 +3813,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -3812,7 +3852,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -3851,7 +3891,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -3890,7 +3930,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -3929,7 +3969,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -3968,7 +4008,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4007,7 +4047,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4046,7 +4086,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4085,7 +4125,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4124,7 +4164,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4163,7 +4203,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4202,7 +4242,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4241,7 +4281,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4280,7 +4320,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4315,19 +4355,19 @@
         <v>-14004.66660574444</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L110" t="n">
-        <v>1.021315789473684</v>
+        <v>1</v>
       </c>
       <c r="M110" t="inlineStr"/>
     </row>
@@ -4354,11 +4394,17 @@
         <v>-14044.66660574444</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>834</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4387,11 +4433,17 @@
         <v>-14013.66660574444</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>834</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4420,11 +4472,17 @@
         <v>-13008.66660574444</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>834</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4453,11 +4511,17 @@
         <v>-14408.66660574444</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>834</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4486,11 +4550,17 @@
         <v>-13185.80720574444</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>834</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4522,8 +4592,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>834</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4555,8 +4631,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>834</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4588,8 +4670,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>834</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4621,8 +4709,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>834</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4654,8 +4748,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>834</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4687,8 +4787,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>834</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4720,8 +4826,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>834</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4753,8 +4865,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>834</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4786,8 +4904,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>834</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4819,8 +4943,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>834</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4852,8 +4982,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>834</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4885,8 +5021,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>834</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4918,8 +5060,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>834</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4951,8 +5099,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>834</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4984,8 +5138,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>834</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5017,8 +5177,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>834</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5050,8 +5216,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>834</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5083,8 +5255,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>834</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5116,8 +5294,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>834</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5149,8 +5333,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>834</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5179,13 +5369,19 @@
         <v>-13628.93810574444</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>834</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L136" t="n">
-        <v>1</v>
+        <v>1.045359712230216</v>
       </c>
       <c r="M136" t="inlineStr"/>
     </row>
@@ -5212,7 +5408,7 @@
         <v>-13631.93810574444</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5410,7 +5606,7 @@
         <v>-14407.82110574444</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5443,7 +5639,7 @@
         <v>-14407.82110574444</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5476,7 +5672,7 @@
         <v>-14407.82110574444</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5509,7 +5705,7 @@
         <v>-14407.82110574444</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5542,7 +5738,7 @@
         <v>-14407.82110574444</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5575,7 +5771,7 @@
         <v>-14407.82110574444</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5608,7 +5804,7 @@
         <v>-14407.82110574444</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5641,7 +5837,7 @@
         <v>-14407.82110574444</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5674,7 +5870,7 @@
         <v>-14407.82110574444</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5773,7 +5969,7 @@
         <v>-14831.47710574444</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5806,7 +6002,7 @@
         <v>-14331.34970574444</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5839,7 +6035,7 @@
         <v>-14331.34970574444</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5872,7 +6068,7 @@
         <v>-14331.34970574444</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>

--- a/BackTest/2019-11-02 BackTest WTC.xlsx
+++ b/BackTest/2019-11-02 BackTest WTC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M157"/>
+  <dimension ref="A1:L157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>281.3856</v>
       </c>
       <c r="G2" t="n">
-        <v>-13909.76120574443</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>2364</v>
       </c>
       <c r="G3" t="n">
-        <v>-11545.76120574443</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>-11544.76120574443</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>1120</v>
       </c>
       <c r="G5" t="n">
-        <v>-12664.76120574443</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>200</v>
       </c>
       <c r="G6" t="n">
-        <v>-12464.76120574443</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>1335.43</v>
       </c>
       <c r="G7" t="n">
-        <v>-13800.19120574443</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>208.1887</v>
       </c>
       <c r="G8" t="n">
-        <v>-13800.19120574443</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>-13799.19120574443</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>1227</v>
       </c>
       <c r="G10" t="n">
-        <v>-15026.19120574443</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>29.6175</v>
       </c>
       <c r="G11" t="n">
-        <v>-14996.57370574443</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>280.6822</v>
       </c>
       <c r="G12" t="n">
-        <v>-15277.25590574443</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>-15276.25590574443</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>213.9952</v>
       </c>
       <c r="G14" t="n">
-        <v>-15490.25110574443</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>4640</v>
       </c>
       <c r="G15" t="n">
-        <v>-15490.25110574443</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,21 @@
         <v>1052</v>
       </c>
       <c r="G16" t="n">
-        <v>-14438.25110574443</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>835</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +899,19 @@
         <v>1178.4809</v>
       </c>
       <c r="G17" t="n">
-        <v>-15616.73200574443</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +933,21 @@
         <v>185.1399</v>
       </c>
       <c r="G18" t="n">
-        <v>-15431.59210574443</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>831</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +969,21 @@
         <v>810</v>
       </c>
       <c r="G19" t="n">
-        <v>-14621.59210574443</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>833</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +1005,21 @@
         <v>5.2622</v>
       </c>
       <c r="G20" t="n">
-        <v>-14626.85430574443</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>837</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1041,21 @@
         <v>376.4318</v>
       </c>
       <c r="G21" t="n">
-        <v>-15003.28610574443</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>836</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1077,19 @@
         <v>91.81999999999999</v>
       </c>
       <c r="G22" t="n">
-        <v>-15003.28610574443</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1111,21 @@
         <v>1.3873</v>
       </c>
       <c r="G23" t="n">
-        <v>-15004.67340574443</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>831</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1147,21 @@
         <v>61.43</v>
       </c>
       <c r="G24" t="n">
-        <v>-14943.24340574443</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>829</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1183,21 @@
         <v>219.5853</v>
       </c>
       <c r="G25" t="n">
-        <v>-15162.82870574443</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>836</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1219,19 @@
         <v>21.1913</v>
       </c>
       <c r="G26" t="n">
-        <v>-15141.63740574443</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1253,21 @@
         <v>754.7870813397129</v>
       </c>
       <c r="G27" t="n">
-        <v>-15141.63740574443</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>836</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1289,19 @@
         <v>1179.8433</v>
       </c>
       <c r="G28" t="n">
-        <v>-15141.63740574443</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1323,21 @@
         <v>51.1445</v>
       </c>
       <c r="G29" t="n">
-        <v>-15090.49290574443</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>836</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1359,21 @@
         <v>200.65</v>
       </c>
       <c r="G30" t="n">
-        <v>-15291.14290574443</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>837</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1395,19 @@
         <v>5692.2878</v>
       </c>
       <c r="G31" t="n">
-        <v>-20983.43070574443</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1429,19 @@
         <v>93.3259</v>
       </c>
       <c r="G32" t="n">
-        <v>-20890.10480574443</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1463,19 @@
         <v>398.2363</v>
       </c>
       <c r="G33" t="n">
-        <v>-21288.34110574443</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1497,19 @@
         <v>1</v>
       </c>
       <c r="G34" t="n">
-        <v>-21287.34110574443</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1531,19 @@
         <v>509.857</v>
       </c>
       <c r="G35" t="n">
-        <v>-21797.19810574443</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1565,19 @@
         <v>16</v>
       </c>
       <c r="G36" t="n">
-        <v>-21781.19810574443</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1599,19 @@
         <v>550</v>
       </c>
       <c r="G37" t="n">
-        <v>-21781.19810574443</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1633,19 @@
         <v>59.787</v>
       </c>
       <c r="G38" t="n">
-        <v>-21840.98510574443</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1667,21 @@
         <v>683.4663</v>
       </c>
       <c r="G39" t="n">
-        <v>-21157.51880574443</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>831</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1703,21 @@
         <v>357</v>
       </c>
       <c r="G40" t="n">
-        <v>-20800.51880574443</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>834</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1739,21 @@
         <v>117</v>
       </c>
       <c r="G41" t="n">
-        <v>-20800.51880574443</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>837</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1775,21 @@
         <v>331.111</v>
       </c>
       <c r="G42" t="n">
-        <v>-21131.62980574443</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>837</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1811,19 @@
         <v>636.3089</v>
       </c>
       <c r="G43" t="n">
-        <v>-20495.32090574443</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1845,19 @@
         <v>1</v>
       </c>
       <c r="G44" t="n">
-        <v>-20494.32090574443</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1879,19 @@
         <v>220.1532</v>
       </c>
       <c r="G45" t="n">
-        <v>-20274.16770574443</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1913,19 @@
         <v>1483.2205</v>
       </c>
       <c r="G46" t="n">
-        <v>-18790.94720574443</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1947,19 @@
         <v>546.5005</v>
       </c>
       <c r="G47" t="n">
-        <v>-18244.44670574443</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1981,19 @@
         <v>14.8739</v>
       </c>
       <c r="G48" t="n">
-        <v>-18259.32060574443</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +2015,19 @@
         <v>745.8395</v>
       </c>
       <c r="G49" t="n">
-        <v>-19005.16010574443</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +2049,19 @@
         <v>268.4</v>
       </c>
       <c r="G50" t="n">
-        <v>-19273.56010574444</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +2083,19 @@
         <v>1</v>
       </c>
       <c r="G51" t="n">
-        <v>-19272.56010574444</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +2117,19 @@
         <v>2409.9749</v>
       </c>
       <c r="G52" t="n">
-        <v>-21682.53500574444</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2151,19 @@
         <v>1</v>
       </c>
       <c r="G53" t="n">
-        <v>-21681.53500574444</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2185,19 @@
         <v>240.384</v>
       </c>
       <c r="G54" t="n">
-        <v>-21921.91900574444</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2219,19 @@
         <v>3500</v>
       </c>
       <c r="G55" t="n">
-        <v>-25421.91900574444</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2253,19 @@
         <v>550</v>
       </c>
       <c r="G56" t="n">
-        <v>-25421.91900574444</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2287,21 @@
         <v>571.2307</v>
       </c>
       <c r="G57" t="n">
-        <v>-24850.68830574444</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>830</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2323,19 @@
         <v>46.2</v>
       </c>
       <c r="G58" t="n">
-        <v>-24850.68830574444</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,22 +2357,21 @@
         <v>834.6605</v>
       </c>
       <c r="G59" t="n">
-        <v>-24016.02780574444</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
         <v>834</v>
       </c>
-      <c r="J59" t="n">
-        <v>834</v>
-      </c>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2366,26 +2393,21 @@
         <v>480.71</v>
       </c>
       <c r="G60" t="n">
-        <v>-24016.02780574444</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
         <v>835</v>
       </c>
-      <c r="J60" t="n">
-        <v>834</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2407,26 +2429,21 @@
         <v>769.7206</v>
       </c>
       <c r="G61" t="n">
-        <v>-24016.02780574444</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
         <v>835</v>
       </c>
-      <c r="J61" t="n">
-        <v>834</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2448,26 +2465,21 @@
         <v>880.7023</v>
       </c>
       <c r="G62" t="n">
-        <v>-24896.73010574444</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
         <v>835</v>
       </c>
-      <c r="J62" t="n">
-        <v>834</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2489,26 +2501,21 @@
         <v>1</v>
       </c>
       <c r="G63" t="n">
-        <v>-24895.73010574444</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
         <v>834</v>
       </c>
-      <c r="J63" t="n">
-        <v>834</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2530,26 +2537,21 @@
         <v>643.1473</v>
       </c>
       <c r="G64" t="n">
-        <v>-24895.73010574444</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>836</v>
-      </c>
-      <c r="J64" t="n">
-        <v>834</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>836</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2571,26 +2573,21 @@
         <v>457.0455</v>
       </c>
       <c r="G65" t="n">
-        <v>-24895.73010574444</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>836</v>
-      </c>
-      <c r="J65" t="n">
-        <v>834</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>836</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2612,26 +2609,21 @@
         <v>1026.6856</v>
       </c>
       <c r="G66" t="n">
-        <v>-24895.73010574444</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>836</v>
-      </c>
-      <c r="J66" t="n">
-        <v>834</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>836</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2653,26 +2645,21 @@
         <v>97</v>
       </c>
       <c r="G67" t="n">
-        <v>-24992.73010574444</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>836</v>
-      </c>
-      <c r="J67" t="n">
-        <v>834</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>836</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2694,26 +2681,21 @@
         <v>2525.0721</v>
       </c>
       <c r="G68" t="n">
-        <v>-22467.65800574444</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
         <v>835</v>
       </c>
-      <c r="J68" t="n">
-        <v>834</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2735,26 +2717,19 @@
         <v>89.34350000000001</v>
       </c>
       <c r="G69" t="n">
-        <v>-22557.00150574444</v>
-      </c>
-      <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>836</v>
-      </c>
-      <c r="J69" t="n">
-        <v>834</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2776,26 +2751,19 @@
         <v>150.49</v>
       </c>
       <c r="G70" t="n">
-        <v>-22406.51150574443</v>
-      </c>
-      <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>834</v>
-      </c>
-      <c r="J70" t="n">
-        <v>834</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2817,26 +2785,19 @@
         <v>1</v>
       </c>
       <c r="G71" t="n">
-        <v>-22405.51150574443</v>
-      </c>
-      <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>835</v>
-      </c>
-      <c r="J71" t="n">
-        <v>834</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2858,26 +2819,19 @@
         <v>4311.4563</v>
       </c>
       <c r="G72" t="n">
-        <v>-18094.05520574444</v>
-      </c>
-      <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>837</v>
-      </c>
-      <c r="J72" t="n">
-        <v>834</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2899,26 +2853,19 @@
         <v>2100</v>
       </c>
       <c r="G73" t="n">
-        <v>-20194.05520574444</v>
-      </c>
-      <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>838</v>
-      </c>
-      <c r="J73" t="n">
-        <v>834</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2940,26 +2887,19 @@
         <v>500</v>
       </c>
       <c r="G74" t="n">
-        <v>-20694.05520574444</v>
-      </c>
-      <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>837</v>
-      </c>
-      <c r="J74" t="n">
-        <v>834</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2981,26 +2921,19 @@
         <v>12.6</v>
       </c>
       <c r="G75" t="n">
-        <v>-20681.45520574444</v>
-      </c>
-      <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>831</v>
-      </c>
-      <c r="J75" t="n">
-        <v>834</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3022,26 +2955,19 @@
         <v>100</v>
       </c>
       <c r="G76" t="n">
-        <v>-20581.45520574444</v>
-      </c>
-      <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>836</v>
-      </c>
-      <c r="J76" t="n">
-        <v>834</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3063,26 +2989,19 @@
         <v>2</v>
       </c>
       <c r="G77" t="n">
-        <v>-20579.45520574444</v>
-      </c>
-      <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>837</v>
-      </c>
-      <c r="J77" t="n">
-        <v>834</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3104,24 +3023,19 @@
         <v>45.8419</v>
       </c>
       <c r="G78" t="n">
-        <v>-20625.29710574444</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>834</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3143,24 +3057,19 @@
         <v>212.947</v>
       </c>
       <c r="G79" t="n">
-        <v>-20412.35010574444</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>834</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3182,24 +3091,19 @@
         <v>406.4843</v>
       </c>
       <c r="G80" t="n">
-        <v>-20412.35010574444</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>834</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3221,24 +3125,19 @@
         <v>49.5288</v>
       </c>
       <c r="G81" t="n">
-        <v>-20412.35010574444</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>834</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3260,24 +3159,19 @@
         <v>100</v>
       </c>
       <c r="G82" t="n">
-        <v>-20312.35010574444</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>834</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3299,24 +3193,19 @@
         <v>178.6983</v>
       </c>
       <c r="G83" t="n">
-        <v>-20133.65180574444</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>834</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3338,24 +3227,19 @@
         <v>6961.5774</v>
       </c>
       <c r="G84" t="n">
-        <v>-13172.07440574444</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>834</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3377,24 +3261,19 @@
         <v>1</v>
       </c>
       <c r="G85" t="n">
-        <v>-13171.07440574444</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>834</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3416,24 +3295,19 @@
         <v>2</v>
       </c>
       <c r="G86" t="n">
-        <v>-13173.07440574444</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>834</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3455,24 +3329,19 @@
         <v>1997.6061</v>
       </c>
       <c r="G87" t="n">
-        <v>-11175.46830574444</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>834</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3494,24 +3363,19 @@
         <v>1</v>
       </c>
       <c r="G88" t="n">
-        <v>-11176.46830574444</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>834</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3533,24 +3397,19 @@
         <v>1</v>
       </c>
       <c r="G89" t="n">
-        <v>-11176.46830574444</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>834</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3572,24 +3431,19 @@
         <v>14.6094</v>
       </c>
       <c r="G90" t="n">
-        <v>-11191.07770574444</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>834</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3611,24 +3465,19 @@
         <v>14.6094</v>
       </c>
       <c r="G91" t="n">
-        <v>-11205.68710574444</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>834</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3650,24 +3499,19 @@
         <v>550.0042999999999</v>
       </c>
       <c r="G92" t="n">
-        <v>-10655.68280574444</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>834</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3689,24 +3533,19 @@
         <v>32.6127</v>
       </c>
       <c r="G93" t="n">
-        <v>-10688.29550574444</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>834</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3728,24 +3567,19 @@
         <v>38.6522</v>
       </c>
       <c r="G94" t="n">
-        <v>-10688.29550574444</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>834</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3767,24 +3601,19 @@
         <v>1</v>
       </c>
       <c r="G95" t="n">
-        <v>-10687.29550574444</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>834</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3806,24 +3635,19 @@
         <v>561.8754</v>
       </c>
       <c r="G96" t="n">
-        <v>-11249.17090574444</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>834</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3845,24 +3669,19 @@
         <v>1575.5089</v>
       </c>
       <c r="G97" t="n">
-        <v>-12824.67980574444</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>834</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3884,24 +3703,19 @@
         <v>170.8157</v>
       </c>
       <c r="G98" t="n">
-        <v>-12995.49550574444</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>834</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3923,24 +3737,19 @@
         <v>1</v>
       </c>
       <c r="G99" t="n">
-        <v>-12994.49550574444</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>834</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3962,24 +3771,19 @@
         <v>42.9886</v>
       </c>
       <c r="G100" t="n">
-        <v>-13037.48410574444</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>834</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4001,24 +3805,19 @@
         <v>1</v>
       </c>
       <c r="G101" t="n">
-        <v>-13036.48410574444</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>834</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4040,24 +3839,19 @@
         <v>515.175</v>
       </c>
       <c r="G102" t="n">
-        <v>-13551.65910574444</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>834</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4079,24 +3873,19 @@
         <v>541.6014</v>
       </c>
       <c r="G103" t="n">
-        <v>-14093.26050574444</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>834</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4118,24 +3907,19 @@
         <v>725.3239</v>
       </c>
       <c r="G104" t="n">
-        <v>-13367.93660574444</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>834</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4157,24 +3941,19 @@
         <v>182.2</v>
       </c>
       <c r="G105" t="n">
-        <v>-13550.13660574444</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>834</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4196,24 +3975,19 @@
         <v>211.8842</v>
       </c>
       <c r="G106" t="n">
-        <v>-13550.13660574444</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>834</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4235,24 +4009,19 @@
         <v>1</v>
       </c>
       <c r="G107" t="n">
-        <v>-13549.13660574444</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>834</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,24 +4043,19 @@
         <v>44</v>
       </c>
       <c r="G108" t="n">
-        <v>-13505.13660574444</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>834</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4313,24 +4077,19 @@
         <v>500.53</v>
       </c>
       <c r="G109" t="n">
-        <v>-14005.66660574444</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>834</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4352,24 +4111,19 @@
         <v>1</v>
       </c>
       <c r="G110" t="n">
-        <v>-14004.66660574444</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>834</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4391,24 +4145,19 @@
         <v>40</v>
       </c>
       <c r="G111" t="n">
-        <v>-14044.66660574444</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>834</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4430,24 +4179,19 @@
         <v>31</v>
       </c>
       <c r="G112" t="n">
-        <v>-14013.66660574444</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>834</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4469,24 +4213,19 @@
         <v>1005</v>
       </c>
       <c r="G113" t="n">
-        <v>-13008.66660574444</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>834</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4508,24 +4247,19 @@
         <v>1400</v>
       </c>
       <c r="G114" t="n">
-        <v>-14408.66660574444</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>834</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4547,24 +4281,19 @@
         <v>1222.8594</v>
       </c>
       <c r="G115" t="n">
-        <v>-13185.80720574444</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>834</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4586,24 +4315,19 @@
         <v>87.43429999999999</v>
       </c>
       <c r="G116" t="n">
-        <v>-13098.37290574444</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>834</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4625,24 +4349,19 @@
         <v>133.0413</v>
       </c>
       <c r="G117" t="n">
-        <v>-13231.41420574444</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>834</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4664,24 +4383,19 @@
         <v>206.1041</v>
       </c>
       <c r="G118" t="n">
-        <v>-13025.31010574444</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>834</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4703,24 +4417,19 @@
         <v>450.5841</v>
       </c>
       <c r="G119" t="n">
-        <v>-13475.89420574444</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>834</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4742,24 +4451,19 @@
         <v>1</v>
       </c>
       <c r="G120" t="n">
-        <v>-13474.89420574444</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>834</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4781,24 +4485,19 @@
         <v>26.1758</v>
       </c>
       <c r="G121" t="n">
-        <v>-13501.07000574444</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>834</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4820,24 +4519,19 @@
         <v>118.952</v>
       </c>
       <c r="G122" t="n">
-        <v>-13382.11800574444</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>834</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4859,24 +4553,19 @@
         <v>373.5</v>
       </c>
       <c r="G123" t="n">
-        <v>-13755.61800574444</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>834</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4898,24 +4587,19 @@
         <v>495.0846</v>
       </c>
       <c r="G124" t="n">
-        <v>-13260.53340574444</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>834</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4937,24 +4621,19 @@
         <v>20.2708</v>
       </c>
       <c r="G125" t="n">
-        <v>-13280.80420574444</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>834</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4976,24 +4655,19 @@
         <v>516.7139</v>
       </c>
       <c r="G126" t="n">
-        <v>-13797.51810574444</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>834</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5015,24 +4689,19 @@
         <v>270</v>
       </c>
       <c r="G127" t="n">
-        <v>-13797.51810574444</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>834</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5054,24 +4723,19 @@
         <v>62.4</v>
       </c>
       <c r="G128" t="n">
-        <v>-13735.11810574444</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>834</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5093,24 +4757,19 @@
         <v>1304.4785</v>
       </c>
       <c r="G129" t="n">
-        <v>-15039.59660574444</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>834</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5132,24 +4791,19 @@
         <v>217.4131</v>
       </c>
       <c r="G130" t="n">
-        <v>-15039.59660574444</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>834</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5171,24 +4825,19 @@
         <v>248.1694</v>
       </c>
       <c r="G131" t="n">
-        <v>-14791.42720574444</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>834</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5210,24 +4859,19 @@
         <v>68.19589999999999</v>
       </c>
       <c r="G132" t="n">
-        <v>-14791.42720574444</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>834</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5249,24 +4893,19 @@
         <v>1995</v>
       </c>
       <c r="G133" t="n">
-        <v>-12796.42720574444</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>834</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5288,24 +4927,19 @@
         <v>270</v>
       </c>
       <c r="G134" t="n">
-        <v>-13066.42720574444</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>834</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5327,24 +4961,19 @@
         <v>700</v>
       </c>
       <c r="G135" t="n">
-        <v>-13766.42720574444</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>834</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5366,24 +4995,19 @@
         <v>137.4891</v>
       </c>
       <c r="G136" t="n">
-        <v>-13628.93810574444</v>
-      </c>
-      <c r="H136" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>834</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1.045359712230216</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5405,18 +5029,19 @@
         <v>3</v>
       </c>
       <c r="G137" t="n">
-        <v>-13631.93810574444</v>
-      </c>
-      <c r="H137" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5438,18 +5063,19 @@
         <v>2</v>
       </c>
       <c r="G138" t="n">
-        <v>-13633.93810574444</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5471,18 +5097,19 @@
         <v>1</v>
       </c>
       <c r="G139" t="n">
-        <v>-13632.93810574444</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5504,18 +5131,19 @@
         <v>1</v>
       </c>
       <c r="G140" t="n">
-        <v>-13633.93810574444</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5537,18 +5165,19 @@
         <v>14.5097</v>
       </c>
       <c r="G141" t="n">
-        <v>-13633.93810574444</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5570,18 +5199,19 @@
         <v>26.117</v>
       </c>
       <c r="G142" t="n">
-        <v>-13607.82110574444</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5603,18 +5233,19 @@
         <v>800</v>
       </c>
       <c r="G143" t="n">
-        <v>-14407.82110574444</v>
-      </c>
-      <c r="H143" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5636,18 +5267,19 @@
         <v>208000</v>
       </c>
       <c r="G144" t="n">
-        <v>-14407.82110574444</v>
-      </c>
-      <c r="H144" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5669,18 +5301,19 @@
         <v>213600</v>
       </c>
       <c r="G145" t="n">
-        <v>-14407.82110574444</v>
-      </c>
-      <c r="H145" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5702,18 +5335,19 @@
         <v>214706</v>
       </c>
       <c r="G146" t="n">
-        <v>-14407.82110574444</v>
-      </c>
-      <c r="H146" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5735,18 +5369,19 @@
         <v>219200</v>
       </c>
       <c r="G147" t="n">
-        <v>-14407.82110574444</v>
-      </c>
-      <c r="H147" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5768,18 +5403,19 @@
         <v>331040</v>
       </c>
       <c r="G148" t="n">
-        <v>-14407.82110574444</v>
-      </c>
-      <c r="H148" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5801,18 +5437,19 @@
         <v>42500</v>
       </c>
       <c r="G149" t="n">
-        <v>-14407.82110574444</v>
-      </c>
-      <c r="H149" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5834,18 +5471,17 @@
         <v>256954.8</v>
       </c>
       <c r="G150" t="n">
-        <v>-14407.82110574444</v>
-      </c>
-      <c r="H150" t="n">
         <v>2</v>
       </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5867,18 +5503,15 @@
         <v>147200</v>
       </c>
       <c r="G151" t="n">
-        <v>-14407.82110574444</v>
-      </c>
-      <c r="H151" t="n">
         <v>2</v>
       </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5900,18 +5533,15 @@
         <v>14893.92018244014</v>
       </c>
       <c r="G152" t="n">
-        <v>-14407.82110574444</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5933,18 +5563,15 @@
         <v>1</v>
       </c>
       <c r="G153" t="n">
-        <v>-14406.82110574444</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5966,18 +5593,15 @@
         <v>424.656</v>
       </c>
       <c r="G154" t="n">
-        <v>-14831.47710574444</v>
-      </c>
-      <c r="H154" t="n">
         <v>2</v>
       </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5999,18 +5623,15 @@
         <v>500.1274</v>
       </c>
       <c r="G155" t="n">
-        <v>-14331.34970574444</v>
-      </c>
-      <c r="H155" t="n">
         <v>2</v>
       </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6032,18 +5653,15 @@
         <v>31200</v>
       </c>
       <c r="G156" t="n">
-        <v>-14331.34970574444</v>
-      </c>
-      <c r="H156" t="n">
         <v>2</v>
       </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6065,18 +5683,15 @@
         <v>178750</v>
       </c>
       <c r="G157" t="n">
-        <v>-14331.34970574444</v>
-      </c>
-      <c r="H157" t="n">
         <v>2</v>
       </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
